--- a/src/MicroweberPackages/Translation/resources/lang_xlsx/no_NO.xlsx
+++ b/src/MicroweberPackages/Translation/resources/lang_xlsx/no_NO.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5196">
   <si>
     <t>translation_group</t>
   </si>
@@ -15559,12 +15559,6 @@
   </si>
   <si>
     <t xml:space="preserve"> varsler</t>
-  </si>
-  <si>
-    <t>2021-02-24T11:44:54.000000Z</t>
-  </si>
-  <si>
-    <t>2021-02-24T11: 44: 54.000000Z</t>
   </si>
   <si>
     <t>1 day ago</t>
@@ -15951,17 +15945,17 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D2772"/>
+  <dimension ref="A1:D2773"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="D2772" sqref="D2772"/>
+      <selection activeCell="D2773" sqref="D2773"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="9.10" style="0"/>
-    <col min="2" max="2" width="9.10" style="0"/>
-    <col min="3" max="3" width="9.10" style="0"/>
+    <col min="2" max="2" width="22" customWidth="true" style="0"/>
+    <col min="3" max="3" width="255.7109375" customWidth="true" style="0"/>
     <col min="4" max="4" width="9.10" style="0"/>
   </cols>
   <sheetData>
@@ -54608,18 +54602,10 @@
       </c>
     </row>
     <row r="2762" spans="1:4">
-      <c r="A2762" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2762" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2762" t="s">
-        <v>5180</v>
-      </c>
-      <c r="D2762" t="s">
-        <v>5181</v>
-      </c>
+      <c r="A2762"/>
+      <c r="B2762"/>
+      <c r="C2762"/>
+      <c r="D2762"/>
     </row>
     <row r="2763" spans="1:4">
       <c r="A2763" t="s">
@@ -54629,10 +54615,10 @@
         <v>4</v>
       </c>
       <c r="C2763" t="s">
-        <v>5182</v>
+        <v>5180</v>
       </c>
       <c r="D2763" t="s">
-        <v>5183</v>
+        <v>5181</v>
       </c>
     </row>
     <row r="2764" spans="1:4">
@@ -54643,10 +54629,10 @@
         <v>4</v>
       </c>
       <c r="C2764" t="s">
-        <v>5184</v>
+        <v>5182</v>
       </c>
       <c r="D2764" t="s">
-        <v>5185</v>
+        <v>5183</v>
       </c>
     </row>
     <row r="2765" spans="1:4">
@@ -54657,10 +54643,10 @@
         <v>4</v>
       </c>
       <c r="C2765" t="s">
-        <v>5186</v>
+        <v>5184</v>
       </c>
       <c r="D2765" t="s">
-        <v>5187</v>
+        <v>5185</v>
       </c>
     </row>
     <row r="2766" spans="1:4">
@@ -54671,10 +54657,10 @@
         <v>4</v>
       </c>
       <c r="C2766" t="s">
-        <v>5188</v>
+        <v>5186</v>
       </c>
       <c r="D2766" t="s">
-        <v>5189</v>
+        <v>5187</v>
       </c>
     </row>
     <row r="2767" spans="1:4">
@@ -54685,10 +54671,10 @@
         <v>4</v>
       </c>
       <c r="C2767" t="s">
-        <v>5190</v>
+        <v>5188</v>
       </c>
       <c r="D2767" t="s">
-        <v>5191</v>
+        <v>5189</v>
       </c>
     </row>
     <row r="2768" spans="1:4">
@@ -54699,10 +54685,10 @@
         <v>4</v>
       </c>
       <c r="C2768" t="s">
-        <v>5192</v>
+        <v>5190</v>
       </c>
       <c r="D2768" t="s">
-        <v>5193</v>
+        <v>5191</v>
       </c>
     </row>
     <row r="2769" spans="1:4">
@@ -54713,10 +54699,10 @@
         <v>4</v>
       </c>
       <c r="C2769" t="s">
-        <v>5194</v>
+        <v>5192</v>
       </c>
       <c r="D2769" t="s">
-        <v>5195</v>
+        <v>5193</v>
       </c>
     </row>
     <row r="2770" spans="1:4">
@@ -54755,11 +54741,17 @@
         <v>4</v>
       </c>
       <c r="C2772" t="s">
-        <v>5196</v>
+        <v>5194</v>
       </c>
       <c r="D2772" t="s">
-        <v>5197</v>
-      </c>
+        <v>5195</v>
+      </c>
+    </row>
+    <row r="2773" spans="1:4">
+      <c r="A2773"/>
+      <c r="B2773"/>
+      <c r="C2773"/>
+      <c r="D2773"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/src/MicroweberPackages/Translation/resources/lang_xlsx/no_NO.xlsx
+++ b/src/MicroweberPackages/Translation/resources/lang_xlsx/no_NO.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5695">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5890">
   <si>
     <t>translation_group</t>
   </si>
@@ -10121,7 +10121,7 @@
     <t>Seo-innstillinger</t>
   </si>
   <si>
-    <t>Fill in the fields for maximum results when finding your website in _x0003_search engines.</t>
+    <t>Fill in the fields for maximum results when finding your website in search engines.</t>
   </si>
   <si>
     <t>Fyll ut feltene for maksimale resultater når du finner nettstedet ditt i søkemotorer.</t>
@@ -17104,6 +17104,601 @@
   </si>
   <si>
     <t>Mail providers</t>
+  </si>
+  <si>
+    <t>Welcome to Microweber</t>
+  </si>
+  <si>
+    <t>Velkommen til Microweber</t>
+  </si>
+  <si>
+    <t>Use Microweber to build your website, online shop or blog.</t>
+  </si>
+  <si>
+    <t>Bruk Microweber til å bygge nettstedet ditt, nettbutikken eller bloggen.</t>
+  </si>
+  <si>
+    <t>Create and edit content, sell online, manage orders and clients.</t>
+  </si>
+  <si>
+    <t>Opprett og rediger innhold, selg online, administrer bestillinger og kunder.</t>
+  </si>
+  <si>
+    <t>Remove</t>
+  </si>
+  <si>
+    <t>Fjerne</t>
+  </si>
+  <si>
+    <t>Abandoned cart's</t>
+  </si>
+  <si>
+    <t>Forlatt vogn</t>
+  </si>
+  <si>
+    <t>You are using this template.</t>
+  </si>
+  <si>
+    <t>Du bruker denne malen.</t>
+  </si>
+  <si>
+    <t>The change will affect only the current page.</t>
+  </si>
+  <si>
+    <t>Endringen påvirker bare den nåværende siden.</t>
+  </si>
+  <si>
+    <t>Allow multiple templates</t>
+  </si>
+  <si>
+    <t>Tillat flere maler</t>
+  </si>
+  <si>
+    <t>If you allow multiple templates, you will be abble to use different templates when you create a new pages.</t>
+  </si>
+  <si>
+    <t>Hvis du tillater flere maler, vil du kunne bruke forskjellige maler når du oppretter nye sider.</t>
+  </si>
+  <si>
+    <t>System e-mail website settings</t>
+  </si>
+  <si>
+    <t>System e-post nettstedsinnstillinger</t>
+  </si>
+  <si>
+    <t>Deliver messages related with new registration, password resets and others system functionalities.</t>
+  </si>
+  <si>
+    <t>Lever meldinger relatert til ny registrering, tilbakestilling av passord og andre systemfunksjoner.</t>
+  </si>
+  <si>
+    <t>From e-mail address</t>
+  </si>
+  <si>
+    <t>Fra e-postadresse</t>
+  </si>
+  <si>
+    <t>Ex. Your Website Name</t>
+  </si>
+  <si>
+    <t>Eks. Nettstedsnavnet ditt</t>
+  </si>
+  <si>
+    <t>General e-mail provider settings</t>
+  </si>
+  <si>
+    <t>Generelle innstillinger for e-postleverandør</t>
+  </si>
+  <si>
+    <t>Set up your email provider.</t>
+  </si>
+  <si>
+    <t>Sett opp e-postleverandøren din.</t>
+  </si>
+  <si>
+    <t>The general e-mail provider will deliver all messages related with the website. Including system messages and contact form messages.</t>
+  </si>
+  <si>
+    <t>Den generelle e-postleverandøren vil levere alle meldinger relatert til nettstedet. Inkludert systemmeldinger og kontaktskjema meldinger.</t>
+  </si>
+  <si>
+    <t>Website Logo</t>
+  </si>
+  <si>
+    <t>Nettstedslogo</t>
+  </si>
+  <si>
+    <t>Select an logo for your website.</t>
+  </si>
+  <si>
+    <t>Velg en logo for nettstedet ditt.</t>
+  </si>
+  <si>
+    <t>Upload logo</t>
+  </si>
+  <si>
+    <t>Last opp logo</t>
+  </si>
+  <si>
+    <t>Website Favicon</t>
+  </si>
+  <si>
+    <t>Nettsted Favicon</t>
+  </si>
+  <si>
+    <t>Changing default language..</t>
+  </si>
+  <si>
+    <t>Endrer standardspråk ..</t>
+  </si>
+  <si>
+    <t>Clear cache..</t>
+  </si>
+  <si>
+    <t>Tøm cache..</t>
+  </si>
+  <si>
+    <t>Install Multilanguage Module</t>
+  </si>
+  <si>
+    <t>Installer flerspråklig modul</t>
+  </si>
+  <si>
+    <t>Users can register with temporary emails like - Mailinator, MailDrop, Guerrilla...s</t>
+  </si>
+  <si>
+    <t>Register users can automatically receive an automatic email from you. See the settings and post your messages.</t>
+  </si>
+  <si>
+    <t>Registrerte brukere kan automatisk motta en automatisk e-post fra deg. Se innstillingene og legg ut meldingene dine.</t>
+  </si>
+  <si>
+    <t>Send email on new user registration to admin users</t>
+  </si>
+  <si>
+    <t>Send e-post om ny brukerregistrering til adminbrukere</t>
+  </si>
+  <si>
+    <t>Do you want adminitrators to receive an e-mail when new user is registered?</t>
+  </si>
+  <si>
+    <t>Vil du at administratorer skal motta en e-post når ny bruker er registrert?</t>
+  </si>
+  <si>
+    <t>Microweber is free open source drag and drop website builder and CMS. It is under MIT license and we use Laravel PHP framework</t>
+  </si>
+  <si>
+    <t>Microweber er gratis åpen kildekode dra og slipp nettstedbygger og CMS. Det er under MIT-lisens, og vi bruker Laravel PHP-rammeverk</t>
+  </si>
+  <si>
+    <t>A Slider</t>
+  </si>
+  <si>
+    <t>En glidebryter</t>
+  </si>
+  <si>
+    <t>Shipping to address</t>
+  </si>
+  <si>
+    <t>Frakt til adresse</t>
+  </si>
+  <si>
+    <t>Pickup from address</t>
+  </si>
+  <si>
+    <t>Henting fra adresse</t>
+  </si>
+  <si>
+    <t>Global settings</t>
+  </si>
+  <si>
+    <t>Globale innstillinger</t>
+  </si>
+  <si>
+    <t>E-mail Integrations</t>
+  </si>
+  <si>
+    <t>E-postintegrasjoner</t>
+  </si>
+  <si>
+    <t>You don't have system e-mail and smtp setup.</t>
+  </si>
+  <si>
+    <t>Du har ikke system e-post og smtp oppsett.</t>
+  </si>
+  <si>
+    <t>Setup your system settings here.</t>
+  </si>
+  <si>
+    <t>Sett opp systeminnstillingene dine her.</t>
+  </si>
+  <si>
+    <t>Global contact form settings</t>
+  </si>
+  <si>
+    <t>Globale kontaktskjemainnstillinger</t>
+  </si>
+  <si>
+    <t>E-mail sending options</t>
+  </si>
+  <si>
+    <t>Alternativer for sending av e-post</t>
+  </si>
+  <si>
+    <t>Global sender</t>
+  </si>
+  <si>
+    <t>Global avsender</t>
+  </si>
+  <si>
+    <t>Use custom sender settings</t>
+  </si>
+  <si>
+    <t>Bruk tilpassede avsenderinnstillinger</t>
+  </si>
+  <si>
+    <t>Use custom sender settings for the global contact forms.</t>
+  </si>
+  <si>
+    <t>Bruk egendefinerte avsenderinnstillinger for de globale kontaktskjemaene.</t>
+  </si>
+  <si>
+    <t>By default we will use website system e-mail settings.</t>
+  </si>
+  <si>
+    <t>Som standard bruker vi e-postinnstillinger for nettsider.</t>
+  </si>
+  <si>
+    <t>You can change the system e-mail settings here.</t>
+  </si>
+  <si>
+    <t>Du kan endre systemets e-postinnstillinger her.</t>
+  </si>
+  <si>
+    <t>Global Receivers</t>
+  </si>
+  <si>
+    <t>Globale mottakere</t>
+  </si>
+  <si>
+    <t>Send contact forms data to global receivers when is submited</t>
+  </si>
+  <si>
+    <t>Send data om kontaktskjemaer til globale mottakere når de sendes inn</t>
+  </si>
+  <si>
+    <t>To e-mail addresses</t>
+  </si>
+  <si>
+    <t>Til e-postadresser</t>
+  </si>
+  <si>
+    <t>E-mail address of the receivers seperated with coma.</t>
+  </si>
+  <si>
+    <t>E-postadressen til mottakerne atskilt med koma.</t>
+  </si>
+  <si>
+    <t>Contact your hosting provider to enable PHP SOAP extension.</t>
+  </si>
+  <si>
+    <t>Kontakt vertsleverandøren din for å aktivere PHP SOAP-utvidelse.</t>
+  </si>
+  <si>
+    <t>Elements</t>
+  </si>
+  <si>
+    <t>Elementer</t>
+  </si>
+  <si>
+    <t>2 months ago</t>
+  </si>
+  <si>
+    <t>2 måneder siden</t>
+  </si>
+  <si>
+    <t>Remove logo</t>
+  </si>
+  <si>
+    <t>Remove favicon</t>
+  </si>
+  <si>
+    <t>Fjern favicon</t>
+  </si>
+  <si>
+    <t>Custom</t>
+  </si>
+  <si>
+    <t>Tilpasset</t>
+  </si>
+  <si>
+    <t>bxSlider</t>
+  </si>
+  <si>
+    <t>Schema.org</t>
+  </si>
+  <si>
+    <t>ProductsV2</t>
+  </si>
+  <si>
+    <t>ProdukterV2</t>
+  </si>
+  <si>
+    <t>Timeline</t>
+  </si>
+  <si>
+    <t>Tidslinje</t>
+  </si>
+  <si>
+    <t>White label WHMCS</t>
+  </si>
+  <si>
+    <t>Hvit etikett WHMCS</t>
+  </si>
+  <si>
+    <t>Number of the visible testimonials</t>
+  </si>
+  <si>
+    <t>Module template has changed</t>
+  </si>
+  <si>
+    <t>Content versions</t>
+  </si>
+  <si>
+    <t>Innholdsversjoner</t>
+  </si>
+  <si>
+    <t>Clear Cache</t>
+  </si>
+  <si>
+    <t>Default layouts and elements</t>
+  </si>
+  <si>
+    <t>Standardoppsett og elementer</t>
+  </si>
+  <si>
+    <t>Arrows List</t>
+  </si>
+  <si>
+    <t>Pileliste</t>
+  </si>
+  <si>
+    <t>Checked List</t>
+  </si>
+  <si>
+    <t>Kontrollert liste</t>
+  </si>
+  <si>
+    <t>Background Text</t>
+  </si>
+  <si>
+    <t>Bakgrunnstekst</t>
+  </si>
+  <si>
+    <t>Title with Text</t>
+  </si>
+  <si>
+    <t>Tittel med tekst</t>
+  </si>
+  <si>
+    <t>Icon with Text</t>
+  </si>
+  <si>
+    <t>Ikon med tekst</t>
+  </si>
+  <si>
+    <t>Two Text Columns</t>
+  </si>
+  <si>
+    <t>To tekstkolonner</t>
+  </si>
+  <si>
+    <t>Two text columns with icon and title</t>
+  </si>
+  <si>
+    <t>To tekstkolonner med ikon og tittel</t>
+  </si>
+  <si>
+    <t>Image with Title and Text</t>
+  </si>
+  <si>
+    <t>Bilde med tittel og tekst</t>
+  </si>
+  <si>
+    <t>Text with Image and Title</t>
+  </si>
+  <si>
+    <t>Tekst med bilde og tittel</t>
+  </si>
+  <si>
+    <t>Text with Image</t>
+  </si>
+  <si>
+    <t>Enable comments</t>
+  </si>
+  <si>
+    <t>Aktiver kommentarer</t>
+  </si>
+  <si>
+    <t>Captcha settings</t>
+  </si>
+  <si>
+    <t>Captcha-innstillinger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Setup your captcha preferences from </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sett opp captcha-preferansene dine fra </t>
+  </si>
+  <si>
+    <t>Add / Edit fields of the form using the custom fields</t>
+  </si>
+  <si>
+    <t>Current contact form settings</t>
+  </si>
+  <si>
+    <t>Gjeldende innstillinger for kontaktskjema</t>
+  </si>
+  <si>
+    <t>Contact form name</t>
+  </si>
+  <si>
+    <t>Kontakt skjema navn</t>
+  </si>
+  <si>
+    <t>What is the name of this contact form?</t>
+  </si>
+  <si>
+    <t>Hva heter dette kontaktskjemaet?</t>
+  </si>
+  <si>
+    <t>Receivers</t>
+  </si>
+  <si>
+    <t>Mottakere</t>
+  </si>
+  <si>
+    <t>Send contact form data to custom receivers when is submited</t>
+  </si>
+  <si>
+    <t>Send kontaktformulardata til egendefinerte mottakere når de sendes inn</t>
+  </si>
+  <si>
+    <t>Use custom receivers settings for the current contact form.</t>
+  </si>
+  <si>
+    <t>Bruk egendefinerte mottaksinnstillinger for gjeldende kontaktskjema.</t>
+  </si>
+  <si>
+    <t>By default we will use contact form global settings.</t>
+  </si>
+  <si>
+    <t>Som standard bruker vi kontaktskjemaets globale innstillinger.</t>
+  </si>
+  <si>
+    <t>You can change the contact form global settings here.</t>
+  </si>
+  <si>
+    <t>Du kan endre kontaktskjemaets globale innstillinger her.</t>
+  </si>
+  <si>
+    <t>Auto respond message to user</t>
+  </si>
+  <si>
+    <t>Svar automatisk på meldingen til brukeren</t>
+  </si>
+  <si>
+    <t>Enable auto respond message to user</t>
+  </si>
+  <si>
+    <t>Aktiver automatisk svarmelding til brukeren</t>
+  </si>
+  <si>
+    <t>Allow users to receive "Thank you emails after subscription."</t>
+  </si>
+  <si>
+    <t>Tillat brukere å motta "Takk e-post etter abonnement."</t>
+  </si>
+  <si>
+    <t>Auto respond subject</t>
+  </si>
+  <si>
+    <t>Autosvar motiv</t>
+  </si>
+  <si>
+    <t>Auto responders allows you to set up automated replies to incoming email</t>
+  </si>
+  <si>
+    <t>Auto respond message</t>
+  </si>
+  <si>
+    <t>Auto respond e-mail sent back to the user</t>
+  </si>
+  <si>
+    <t>Svar automatisk på e-post sendt tilbake til brukeren</t>
+  </si>
+  <si>
+    <t>Auto respond custom sender</t>
+  </si>
+  <si>
+    <t>Autosvar tilpasset avsender</t>
+  </si>
+  <si>
+    <t>Use custom sender settings for the current contact form.</t>
+  </si>
+  <si>
+    <t>Bruk tilpassede avsenderinnstillinger for det gjeldende kontaktskjemaet.</t>
+  </si>
+  <si>
+    <t>Auto respond from e-mail address</t>
+  </si>
+  <si>
+    <t>Svar automatisk fra e-postadresse</t>
+  </si>
+  <si>
+    <t>Auto respond from name</t>
+  </si>
+  <si>
+    <t>Svar automatisk fra navn</t>
+  </si>
+  <si>
+    <t>Auto respond reply to e-mail</t>
+  </si>
+  <si>
+    <t>When the user receive the auto respond message they can response back to reply to email.</t>
+  </si>
+  <si>
+    <t>Når brukeren mottar meldingen om automatisk svar, kan de svare tilbake for å svare på e-post.</t>
+  </si>
+  <si>
+    <t>Auto respond e-mail attachments</t>
+  </si>
+  <si>
+    <t>Svar automatisk på e-postvedlegg</t>
+  </si>
+  <si>
+    <t>If you want to attach og images, you must upload them to gallery from 'Add media'</t>
+  </si>
+  <si>
+    <t>Hvis du vil legge ved og bilder, må du laste dem opp til galleriet fra 'Legg til media'</t>
+  </si>
+  <si>
+    <t>You don’t have any posts yet</t>
+  </si>
+  <si>
+    <t>Du har ingen innlegg ennå</t>
+  </si>
+  <si>
+    <t>Create your first post right now.</t>
+  </si>
+  <si>
+    <t>Opprett ditt første innlegg akkurat nå.</t>
+  </si>
+  <si>
+    <t>Create a Post</t>
+  </si>
+  <si>
+    <t>Opprett et innlegg</t>
+  </si>
+  <si>
+    <t>templates-new-world</t>
+  </si>
+  <si>
+    <t>How to write product descriptions that sell
+                                                    One of the best things you can do to make your store successful is invest some time in writing great product descriptions. You want to provide detailed yet concise information that will entice potential customers to buy.
+                                                    Think like a consumer
+                                                    Think about what you as a consumer would want to know, then include those features in your description. For clothes: materials and fit. For food: ingredients and how it was prepared. Bullets are your friends when listing
+                                                   features — try to
+                                                            limit each one to 5-8 words.</t>
+  </si>
+  <si>
+    <t>Slik skriver du produktbeskrivelser som selger
+                                                    Noe av det beste du kan gjøre for å gjøre butikken din vellykket, er å bruke litt tid på å skrive gode produktbeskrivelser. Du vil gi detaljert, men kortfattet informasjon som vil lokke potensielle kunder til å kjøpe.
+                                                    Tenk som en forbruker
+                                                    Tenk på hva du som forbruker ønsker å vite, og inkluder deretter disse funksjonene i beskrivelsen. For klær: materialer og passform. Til mat: ingredienser og hvordan den ble tilberedt. Kuler er vennene dine når du viser
+                                                   funksjoner - prøv å
+                                                            begrense hver til 5-8 ord.</t>
   </si>
 </sst>
 </file>
@@ -17442,7 +18037,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E2959"/>
+  <dimension ref="A1:E3062"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -67750,6 +68345,1757 @@
         <v>3608</v>
       </c>
       <c r="E2959" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2960" spans="1:5">
+      <c r="A2960" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2960" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2960" t="s">
+        <v>5695</v>
+      </c>
+      <c r="D2960" t="s">
+        <v>5696</v>
+      </c>
+      <c r="E2960" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2961" spans="1:5">
+      <c r="A2961" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2961" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2961" t="s">
+        <v>5697</v>
+      </c>
+      <c r="D2961" t="s">
+        <v>5698</v>
+      </c>
+      <c r="E2961" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2962" spans="1:5">
+      <c r="A2962" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2962" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2962" t="s">
+        <v>5699</v>
+      </c>
+      <c r="D2962" t="s">
+        <v>5700</v>
+      </c>
+      <c r="E2962" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2963" spans="1:5">
+      <c r="A2963" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2963" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2963" t="s">
+        <v>5701</v>
+      </c>
+      <c r="D2963" t="s">
+        <v>5702</v>
+      </c>
+      <c r="E2963" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2964" spans="1:5">
+      <c r="A2964" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2964" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2964" t="s">
+        <v>5703</v>
+      </c>
+      <c r="D2964" t="s">
+        <v>5704</v>
+      </c>
+      <c r="E2964" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2965" spans="1:5">
+      <c r="A2965" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2965" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2965" t="s">
+        <v>5705</v>
+      </c>
+      <c r="D2965" t="s">
+        <v>5706</v>
+      </c>
+      <c r="E2965" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2966" spans="1:5">
+      <c r="A2966" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2966" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2966" t="s">
+        <v>5707</v>
+      </c>
+      <c r="D2966" t="s">
+        <v>5708</v>
+      </c>
+      <c r="E2966" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2967" spans="1:5">
+      <c r="A2967" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2967" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2967" t="s">
+        <v>5709</v>
+      </c>
+      <c r="D2967" t="s">
+        <v>5710</v>
+      </c>
+      <c r="E2967" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2968" spans="1:5">
+      <c r="A2968" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2968" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2968" t="s">
+        <v>5711</v>
+      </c>
+      <c r="D2968" t="s">
+        <v>5712</v>
+      </c>
+      <c r="E2968" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2969" spans="1:5">
+      <c r="A2969" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2969" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2969" t="s">
+        <v>5713</v>
+      </c>
+      <c r="D2969" t="s">
+        <v>5714</v>
+      </c>
+      <c r="E2969" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2970" spans="1:5">
+      <c r="A2970" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2970" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2970" t="s">
+        <v>5715</v>
+      </c>
+      <c r="D2970" t="s">
+        <v>5716</v>
+      </c>
+      <c r="E2970" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2971" spans="1:5">
+      <c r="A2971" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2971" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2971" t="s">
+        <v>5717</v>
+      </c>
+      <c r="D2971" t="s">
+        <v>5718</v>
+      </c>
+      <c r="E2971" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2972" spans="1:5">
+      <c r="A2972" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2972" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2972" t="s">
+        <v>5719</v>
+      </c>
+      <c r="D2972" t="s">
+        <v>5720</v>
+      </c>
+      <c r="E2972" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2973" spans="1:5">
+      <c r="A2973" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2973" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2973" t="s">
+        <v>5721</v>
+      </c>
+      <c r="D2973" t="s">
+        <v>5722</v>
+      </c>
+      <c r="E2973" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2974" spans="1:5">
+      <c r="A2974" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2974" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2974" t="s">
+        <v>5723</v>
+      </c>
+      <c r="D2974" t="s">
+        <v>5724</v>
+      </c>
+      <c r="E2974" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2975" spans="1:5">
+      <c r="A2975" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2975" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2975" t="s">
+        <v>5725</v>
+      </c>
+      <c r="D2975" t="s">
+        <v>5726</v>
+      </c>
+      <c r="E2975" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2976" spans="1:5">
+      <c r="A2976" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2976" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2976" t="s">
+        <v>5727</v>
+      </c>
+      <c r="D2976" t="s">
+        <v>5728</v>
+      </c>
+      <c r="E2976" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2977" spans="1:5">
+      <c r="A2977" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2977" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2977" t="s">
+        <v>5729</v>
+      </c>
+      <c r="D2977" t="s">
+        <v>5730</v>
+      </c>
+      <c r="E2977" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2978" spans="1:5">
+      <c r="A2978" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2978" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2978" t="s">
+        <v>5731</v>
+      </c>
+      <c r="D2978" t="s">
+        <v>5732</v>
+      </c>
+      <c r="E2978" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2979" spans="1:5">
+      <c r="A2979" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2979" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2979" t="s">
+        <v>5733</v>
+      </c>
+      <c r="D2979" t="s">
+        <v>5734</v>
+      </c>
+      <c r="E2979" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2980" spans="1:5">
+      <c r="A2980" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2980" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2980" t="s">
+        <v>5735</v>
+      </c>
+      <c r="D2980" t="s">
+        <v>5736</v>
+      </c>
+      <c r="E2980" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2981" spans="1:5">
+      <c r="A2981" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2981" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2981" t="s">
+        <v>5737</v>
+      </c>
+      <c r="D2981" t="s">
+        <v>5738</v>
+      </c>
+      <c r="E2981" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2982" spans="1:5">
+      <c r="A2982" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2982" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2982" t="s">
+        <v>5739</v>
+      </c>
+      <c r="D2982" t="s">
+        <v>5740</v>
+      </c>
+      <c r="E2982" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2983" spans="1:5">
+      <c r="A2983" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2983" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2983" t="s">
+        <v>5741</v>
+      </c>
+      <c r="D2983" t="s">
+        <v>3821</v>
+      </c>
+      <c r="E2983" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2984" spans="1:5">
+      <c r="A2984" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2984" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2984" t="s">
+        <v>5742</v>
+      </c>
+      <c r="D2984" t="s">
+        <v>5743</v>
+      </c>
+      <c r="E2984" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2985" spans="1:5">
+      <c r="A2985" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2985" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2985" t="s">
+        <v>5744</v>
+      </c>
+      <c r="D2985" t="s">
+        <v>5745</v>
+      </c>
+      <c r="E2985" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2986" spans="1:5">
+      <c r="A2986" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2986" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2986" t="s">
+        <v>5746</v>
+      </c>
+      <c r="D2986" t="s">
+        <v>5747</v>
+      </c>
+      <c r="E2986" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2987" spans="1:5">
+      <c r="A2987" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2987" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2987" t="s">
+        <v>5748</v>
+      </c>
+      <c r="D2987" t="s">
+        <v>5749</v>
+      </c>
+      <c r="E2987" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2988" spans="1:5">
+      <c r="A2988" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2988" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2988" t="s">
+        <v>5750</v>
+      </c>
+      <c r="D2988" t="s">
+        <v>5751</v>
+      </c>
+      <c r="E2988" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2989" spans="1:5">
+      <c r="A2989" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2989" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2989" t="s">
+        <v>5752</v>
+      </c>
+      <c r="D2989" t="s">
+        <v>5753</v>
+      </c>
+      <c r="E2989" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2990" spans="1:5">
+      <c r="A2990" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2990" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2990" t="s">
+        <v>5754</v>
+      </c>
+      <c r="D2990" t="s">
+        <v>5755</v>
+      </c>
+      <c r="E2990" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2991" spans="1:5">
+      <c r="A2991" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2991" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2991" t="s">
+        <v>5756</v>
+      </c>
+      <c r="D2991" t="s">
+        <v>5757</v>
+      </c>
+      <c r="E2991" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2992" spans="1:5">
+      <c r="A2992" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2992" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2992" t="s">
+        <v>5758</v>
+      </c>
+      <c r="D2992" t="s">
+        <v>5759</v>
+      </c>
+      <c r="E2992" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2993" spans="1:5">
+      <c r="A2993" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2993" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2993" t="s">
+        <v>5760</v>
+      </c>
+      <c r="D2993" t="s">
+        <v>5761</v>
+      </c>
+      <c r="E2993" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2994" spans="1:5">
+      <c r="A2994" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2994" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2994" t="s">
+        <v>5762</v>
+      </c>
+      <c r="D2994" t="s">
+        <v>5763</v>
+      </c>
+      <c r="E2994" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2995" spans="1:5">
+      <c r="A2995" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2995" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2995" t="s">
+        <v>5764</v>
+      </c>
+      <c r="D2995" t="s">
+        <v>5765</v>
+      </c>
+      <c r="E2995" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2996" spans="1:5">
+      <c r="A2996" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2996" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2996" t="s">
+        <v>5766</v>
+      </c>
+      <c r="D2996" t="s">
+        <v>5767</v>
+      </c>
+      <c r="E2996" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2997" spans="1:5">
+      <c r="A2997" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2997" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2997" t="s">
+        <v>5768</v>
+      </c>
+      <c r="D2997" t="s">
+        <v>5769</v>
+      </c>
+      <c r="E2997" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2998" spans="1:5">
+      <c r="A2998" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2998" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2998" t="s">
+        <v>5770</v>
+      </c>
+      <c r="D2998" t="s">
+        <v>5771</v>
+      </c>
+      <c r="E2998" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2999" spans="1:5">
+      <c r="A2999" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2999" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2999" t="s">
+        <v>5772</v>
+      </c>
+      <c r="D2999" t="s">
+        <v>5773</v>
+      </c>
+      <c r="E2999" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3000" spans="1:5">
+      <c r="A3000" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3000" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3000" t="s">
+        <v>5774</v>
+      </c>
+      <c r="D3000" t="s">
+        <v>5775</v>
+      </c>
+      <c r="E3000" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3001" spans="1:5">
+      <c r="A3001" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3001" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3001" t="s">
+        <v>5776</v>
+      </c>
+      <c r="D3001" t="s">
+        <v>5777</v>
+      </c>
+      <c r="E3001" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3002" spans="1:5">
+      <c r="A3002" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3002" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3002" t="s">
+        <v>5778</v>
+      </c>
+      <c r="D3002" t="s">
+        <v>5779</v>
+      </c>
+      <c r="E3002" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3003" spans="1:5">
+      <c r="A3003" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3003" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3003" t="s">
+        <v>5780</v>
+      </c>
+      <c r="D3003" t="s">
+        <v>5781</v>
+      </c>
+      <c r="E3003" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3004" spans="1:5">
+      <c r="A3004" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3004" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3004" t="s">
+        <v>5782</v>
+      </c>
+      <c r="D3004" t="s">
+        <v>5783</v>
+      </c>
+      <c r="E3004" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3005" spans="1:5">
+      <c r="A3005" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3005" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3005" t="s">
+        <v>5784</v>
+      </c>
+      <c r="D3005" t="s">
+        <v>5785</v>
+      </c>
+      <c r="E3005" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3006" spans="1:5">
+      <c r="A3006" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3006" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3006" t="s">
+        <v>5786</v>
+      </c>
+      <c r="D3006" t="s">
+        <v>5787</v>
+      </c>
+      <c r="E3006" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3007" spans="1:5">
+      <c r="A3007" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3007" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3007" t="s">
+        <v>5788</v>
+      </c>
+      <c r="D3007" t="s">
+        <v>5789</v>
+      </c>
+      <c r="E3007" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3008" spans="1:5">
+      <c r="A3008" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3008" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3008" t="s">
+        <v>5790</v>
+      </c>
+      <c r="D3008" t="s">
+        <v>5791</v>
+      </c>
+      <c r="E3008" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3009" spans="1:5">
+      <c r="A3009" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3009" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3009" t="s">
+        <v>5792</v>
+      </c>
+      <c r="D3009" t="s">
+        <v>3208</v>
+      </c>
+      <c r="E3009" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3010" spans="1:5">
+      <c r="A3010" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3010" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3010" t="s">
+        <v>5793</v>
+      </c>
+      <c r="D3010" t="s">
+        <v>5794</v>
+      </c>
+      <c r="E3010" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3011" spans="1:5">
+      <c r="A3011" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3011" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3011" t="s">
+        <v>5795</v>
+      </c>
+      <c r="D3011" t="s">
+        <v>5796</v>
+      </c>
+      <c r="E3011" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3012" spans="1:5">
+      <c r="A3012" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3012" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3012" t="s">
+        <v>5797</v>
+      </c>
+      <c r="D3012" t="s">
+        <v>5797</v>
+      </c>
+      <c r="E3012" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3013" spans="1:5">
+      <c r="A3013" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3013" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3013" t="s">
+        <v>5798</v>
+      </c>
+      <c r="D3013" t="s">
+        <v>5798</v>
+      </c>
+      <c r="E3013" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3014" spans="1:5">
+      <c r="A3014" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3014" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3014" t="s">
+        <v>5799</v>
+      </c>
+      <c r="D3014" t="s">
+        <v>5800</v>
+      </c>
+      <c r="E3014" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3015" spans="1:5">
+      <c r="A3015" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3015" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3015" t="s">
+        <v>5801</v>
+      </c>
+      <c r="D3015" t="s">
+        <v>5802</v>
+      </c>
+      <c r="E3015" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3016" spans="1:5">
+      <c r="A3016" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3016" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3016" t="s">
+        <v>5803</v>
+      </c>
+      <c r="D3016" t="s">
+        <v>5804</v>
+      </c>
+      <c r="E3016" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3017" spans="1:5">
+      <c r="A3017" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3017" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3017" t="s">
+        <v>5805</v>
+      </c>
+      <c r="D3017" t="s">
+        <v>3305</v>
+      </c>
+      <c r="E3017" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3018" spans="1:5">
+      <c r="A3018" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3018" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3018" t="s">
+        <v>5806</v>
+      </c>
+      <c r="D3018" t="s">
+        <v>2884</v>
+      </c>
+      <c r="E3018" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3019" spans="1:5">
+      <c r="A3019" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3019" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3019" t="s">
+        <v>5807</v>
+      </c>
+      <c r="D3019" t="s">
+        <v>5808</v>
+      </c>
+      <c r="E3019" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3020" spans="1:5">
+      <c r="A3020" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3020" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3020" t="s">
+        <v>5809</v>
+      </c>
+      <c r="D3020" t="s">
+        <v>1556</v>
+      </c>
+      <c r="E3020" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3021" spans="1:5">
+      <c r="A3021" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3021" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3021" t="s">
+        <v>5810</v>
+      </c>
+      <c r="D3021" t="s">
+        <v>5811</v>
+      </c>
+      <c r="E3021" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3022" spans="1:5">
+      <c r="A3022" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3022" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3022" t="s">
+        <v>5812</v>
+      </c>
+      <c r="D3022" t="s">
+        <v>5813</v>
+      </c>
+      <c r="E3022" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3023" spans="1:5">
+      <c r="A3023" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3023" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3023" t="s">
+        <v>5814</v>
+      </c>
+      <c r="D3023" t="s">
+        <v>5815</v>
+      </c>
+      <c r="E3023" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3024" spans="1:5">
+      <c r="A3024" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3024" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3024" t="s">
+        <v>5816</v>
+      </c>
+      <c r="D3024" t="s">
+        <v>5817</v>
+      </c>
+      <c r="E3024" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3025" spans="1:5">
+      <c r="A3025" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3025" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3025" t="s">
+        <v>5818</v>
+      </c>
+      <c r="D3025" t="s">
+        <v>5819</v>
+      </c>
+      <c r="E3025" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3026" spans="1:5">
+      <c r="A3026" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3026" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3026" t="s">
+        <v>5820</v>
+      </c>
+      <c r="D3026" t="s">
+        <v>5821</v>
+      </c>
+      <c r="E3026" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3027" spans="1:5">
+      <c r="A3027" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3027" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3027" t="s">
+        <v>5822</v>
+      </c>
+      <c r="D3027" t="s">
+        <v>5823</v>
+      </c>
+      <c r="E3027" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3028" spans="1:5">
+      <c r="A3028" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3028" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3028" t="s">
+        <v>5824</v>
+      </c>
+      <c r="D3028" t="s">
+        <v>5825</v>
+      </c>
+      <c r="E3028" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3029" spans="1:5">
+      <c r="A3029" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3029" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3029" t="s">
+        <v>5826</v>
+      </c>
+      <c r="D3029" t="s">
+        <v>5827</v>
+      </c>
+      <c r="E3029" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3030" spans="1:5">
+      <c r="A3030" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3030" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3030" t="s">
+        <v>5828</v>
+      </c>
+      <c r="D3030" t="s">
+        <v>5829</v>
+      </c>
+      <c r="E3030" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3031" spans="1:5">
+      <c r="A3031" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3031" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3031" t="s">
+        <v>5830</v>
+      </c>
+      <c r="D3031" t="s">
+        <v>1112</v>
+      </c>
+      <c r="E3031" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3032" spans="1:5">
+      <c r="A3032" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3032" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3032" t="s">
+        <v>5831</v>
+      </c>
+      <c r="D3032" t="s">
+        <v>5832</v>
+      </c>
+      <c r="E3032" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3033" spans="1:5">
+      <c r="A3033" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3033" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3033" t="s">
+        <v>5833</v>
+      </c>
+      <c r="D3033" t="s">
+        <v>5834</v>
+      </c>
+      <c r="E3033" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3034" spans="1:5">
+      <c r="A3034" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3034" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3034" t="s">
+        <v>5835</v>
+      </c>
+      <c r="D3034" t="s">
+        <v>5836</v>
+      </c>
+      <c r="E3034" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3035" spans="1:5">
+      <c r="A3035" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3035" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3035" t="s">
+        <v>5837</v>
+      </c>
+      <c r="D3035" t="s">
+        <v>4917</v>
+      </c>
+      <c r="E3035" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3036" spans="1:5">
+      <c r="A3036" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3036" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3036" t="s">
+        <v>5838</v>
+      </c>
+      <c r="D3036" t="s">
+        <v>5839</v>
+      </c>
+      <c r="E3036" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3037" spans="1:5">
+      <c r="A3037" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3037" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3037" t="s">
+        <v>5840</v>
+      </c>
+      <c r="D3037" t="s">
+        <v>5841</v>
+      </c>
+      <c r="E3037" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3038" spans="1:5">
+      <c r="A3038" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3038" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3038" t="s">
+        <v>5842</v>
+      </c>
+      <c r="D3038" t="s">
+        <v>5843</v>
+      </c>
+      <c r="E3038" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3039" spans="1:5">
+      <c r="A3039" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3039" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3039" t="s">
+        <v>5844</v>
+      </c>
+      <c r="D3039" t="s">
+        <v>5845</v>
+      </c>
+      <c r="E3039" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3040" spans="1:5">
+      <c r="A3040" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3040" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3040" t="s">
+        <v>5846</v>
+      </c>
+      <c r="D3040" t="s">
+        <v>5847</v>
+      </c>
+      <c r="E3040" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3041" spans="1:5">
+      <c r="A3041" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3041" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3041" t="s">
+        <v>5848</v>
+      </c>
+      <c r="D3041" t="s">
+        <v>5849</v>
+      </c>
+      <c r="E3041" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3042" spans="1:5">
+      <c r="A3042" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3042" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3042" t="s">
+        <v>5850</v>
+      </c>
+      <c r="D3042" t="s">
+        <v>5851</v>
+      </c>
+      <c r="E3042" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3043" spans="1:5">
+      <c r="A3043" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3043" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3043" t="s">
+        <v>5852</v>
+      </c>
+      <c r="D3043" t="s">
+        <v>5853</v>
+      </c>
+      <c r="E3043" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3044" spans="1:5">
+      <c r="A3044" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3044" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3044" t="s">
+        <v>5854</v>
+      </c>
+      <c r="D3044" t="s">
+        <v>5855</v>
+      </c>
+      <c r="E3044" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3045" spans="1:5">
+      <c r="A3045" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3045" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3045" t="s">
+        <v>5856</v>
+      </c>
+      <c r="D3045" t="s">
+        <v>5857</v>
+      </c>
+      <c r="E3045" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3046" spans="1:5">
+      <c r="A3046" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3046" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3046" t="s">
+        <v>5858</v>
+      </c>
+      <c r="D3046" t="s">
+        <v>5859</v>
+      </c>
+      <c r="E3046" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3047" spans="1:5">
+      <c r="A3047" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3047" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3047" t="s">
+        <v>5860</v>
+      </c>
+      <c r="D3047" t="s">
+        <v>5861</v>
+      </c>
+      <c r="E3047" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3048" spans="1:5">
+      <c r="A3048" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3048" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3048" t="s">
+        <v>5862</v>
+      </c>
+      <c r="D3048" t="s">
+        <v>3113</v>
+      </c>
+      <c r="E3048" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3049" spans="1:5">
+      <c r="A3049" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3049" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3049" t="s">
+        <v>5863</v>
+      </c>
+      <c r="D3049" t="s">
+        <v>3107</v>
+      </c>
+      <c r="E3049" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3050" spans="1:5">
+      <c r="A3050" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3050" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3050" t="s">
+        <v>5864</v>
+      </c>
+      <c r="D3050" t="s">
+        <v>5865</v>
+      </c>
+      <c r="E3050" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3051" spans="1:5">
+      <c r="A3051" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3051" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3051" t="s">
+        <v>5866</v>
+      </c>
+      <c r="D3051" t="s">
+        <v>5867</v>
+      </c>
+      <c r="E3051" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3052" spans="1:5">
+      <c r="A3052" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3052" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3052" t="s">
+        <v>5868</v>
+      </c>
+      <c r="D3052" t="s">
+        <v>5869</v>
+      </c>
+      <c r="E3052" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3053" spans="1:5">
+      <c r="A3053" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3053" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3053" t="s">
+        <v>5870</v>
+      </c>
+      <c r="D3053" t="s">
+        <v>5871</v>
+      </c>
+      <c r="E3053" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3054" spans="1:5">
+      <c r="A3054" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3054" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3054" t="s">
+        <v>5872</v>
+      </c>
+      <c r="D3054" t="s">
+        <v>5873</v>
+      </c>
+      <c r="E3054" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3055" spans="1:5">
+      <c r="A3055" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3055" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3055" t="s">
+        <v>5874</v>
+      </c>
+      <c r="D3055" t="s">
+        <v>2396</v>
+      </c>
+      <c r="E3055" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3056" spans="1:5">
+      <c r="A3056" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3056" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3056" t="s">
+        <v>5875</v>
+      </c>
+      <c r="D3056" t="s">
+        <v>5876</v>
+      </c>
+      <c r="E3056" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3057" spans="1:5">
+      <c r="A3057" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3057" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3057" t="s">
+        <v>5877</v>
+      </c>
+      <c r="D3057" t="s">
+        <v>5878</v>
+      </c>
+      <c r="E3057" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3058" spans="1:5">
+      <c r="A3058" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3058" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3058" t="s">
+        <v>5879</v>
+      </c>
+      <c r="D3058" t="s">
+        <v>5880</v>
+      </c>
+      <c r="E3058" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3059" spans="1:5">
+      <c r="A3059" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3059" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3059" t="s">
+        <v>5881</v>
+      </c>
+      <c r="D3059" t="s">
+        <v>5882</v>
+      </c>
+      <c r="E3059" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3060" spans="1:5">
+      <c r="A3060" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3060" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3060" t="s">
+        <v>5883</v>
+      </c>
+      <c r="D3060" t="s">
+        <v>5884</v>
+      </c>
+      <c r="E3060" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3061" spans="1:5">
+      <c r="A3061" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3061" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3061" t="s">
+        <v>5885</v>
+      </c>
+      <c r="D3061" t="s">
+        <v>5886</v>
+      </c>
+      <c r="E3061" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3062" spans="1:5">
+      <c r="A3062" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3062" t="s">
+        <v>5887</v>
+      </c>
+      <c r="C3062" t="s">
+        <v>5888</v>
+      </c>
+      <c r="D3062" t="s">
+        <v>5889</v>
+      </c>
+      <c r="E3062" t="s">
         <v>8</v>
       </c>
     </row>

--- a/src/MicroweberPackages/Translation/resources/lang_xlsx/no_NO.xlsx
+++ b/src/MicroweberPackages/Translation/resources/lang_xlsx/no_NO.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5890">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6182">
   <si>
     <t>translation_group</t>
   </si>
@@ -17699,6 +17699,882 @@
                                                     Tenk på hva du som forbruker ønsker å vite, og inkluder deretter disse funksjonene i beskrivelsen. For klær: materialer og passform. Til mat: ingredienser og hvordan den ble tilberedt. Kuler er vennene dine når du viser
                                                    funksjoner - prøv å
                                                             begrense hver til 5-8 ord.</t>
+  </si>
+  <si>
+    <t>Admin language</t>
+  </si>
+  <si>
+    <t>Administrasjonsspråk</t>
+  </si>
+  <si>
+    <t>Limit</t>
+  </si>
+  <si>
+    <t>Code Editor</t>
+  </si>
+  <si>
+    <t>Koderedigerer</t>
+  </si>
+  <si>
+    <t>Blog</t>
+  </si>
+  <si>
+    <t>Blogg</t>
+  </si>
+  <si>
+    <t>titles</t>
+  </si>
+  <si>
+    <t>titler</t>
+  </si>
+  <si>
+    <t>Titles 1</t>
+  </si>
+  <si>
+    <t>Titler 1</t>
+  </si>
+  <si>
+    <t>Titles 2</t>
+  </si>
+  <si>
+    <t>Titler 2</t>
+  </si>
+  <si>
+    <t>Titles 3</t>
+  </si>
+  <si>
+    <t>Titler 3</t>
+  </si>
+  <si>
+    <t>Titles 4</t>
+  </si>
+  <si>
+    <t>Titler 4</t>
+  </si>
+  <si>
+    <t>Titles 5</t>
+  </si>
+  <si>
+    <t>Titler 5</t>
+  </si>
+  <si>
+    <t>Titles 6</t>
+  </si>
+  <si>
+    <t>Titler 6</t>
+  </si>
+  <si>
+    <t>Titles 7</t>
+  </si>
+  <si>
+    <t>Titler 7</t>
+  </si>
+  <si>
+    <t>Titles 8</t>
+  </si>
+  <si>
+    <t>Titler 8</t>
+  </si>
+  <si>
+    <t>text block</t>
+  </si>
+  <si>
+    <t>tekstblokk</t>
+  </si>
+  <si>
+    <t>Text block 1</t>
+  </si>
+  <si>
+    <t>Tekstblokk 1</t>
+  </si>
+  <si>
+    <t>Text block 2</t>
+  </si>
+  <si>
+    <t>Tekstblokk 2</t>
+  </si>
+  <si>
+    <t>Text block 3</t>
+  </si>
+  <si>
+    <t>Tekstblokk 3</t>
+  </si>
+  <si>
+    <t>Text block 4</t>
+  </si>
+  <si>
+    <t>Tekstblokk 4</t>
+  </si>
+  <si>
+    <t>Text block 5</t>
+  </si>
+  <si>
+    <t>Tekstblokk 5</t>
+  </si>
+  <si>
+    <t>Text block 6</t>
+  </si>
+  <si>
+    <t>Tekstblokk 6</t>
+  </si>
+  <si>
+    <t>Text block 7</t>
+  </si>
+  <si>
+    <t>Tekstblokk 7</t>
+  </si>
+  <si>
+    <t>Text block 8</t>
+  </si>
+  <si>
+    <t>Tekstblokk 8</t>
+  </si>
+  <si>
+    <t>Text block 9</t>
+  </si>
+  <si>
+    <t>Tekstblokk 9</t>
+  </si>
+  <si>
+    <t>Text block 10</t>
+  </si>
+  <si>
+    <t>Tekstblokk 10</t>
+  </si>
+  <si>
+    <t>Text block 11</t>
+  </si>
+  <si>
+    <t>Tekstblokk 11</t>
+  </si>
+  <si>
+    <t>Text block 12</t>
+  </si>
+  <si>
+    <t>Tekstblokk 12</t>
+  </si>
+  <si>
+    <t>Text block 13</t>
+  </si>
+  <si>
+    <t>Tekstblokk 13</t>
+  </si>
+  <si>
+    <t>Text block 14</t>
+  </si>
+  <si>
+    <t>Tekstblokk 14</t>
+  </si>
+  <si>
+    <t>Text block 15</t>
+  </si>
+  <si>
+    <t>Tekstblokk 15</t>
+  </si>
+  <si>
+    <t>features</t>
+  </si>
+  <si>
+    <t>egenskaper</t>
+  </si>
+  <si>
+    <t>Features 1</t>
+  </si>
+  <si>
+    <t>Funksjoner 1</t>
+  </si>
+  <si>
+    <t>Features 2</t>
+  </si>
+  <si>
+    <t>Funksjoner 2</t>
+  </si>
+  <si>
+    <t>Features 3</t>
+  </si>
+  <si>
+    <t>Funksjoner 3</t>
+  </si>
+  <si>
+    <t>Features 4</t>
+  </si>
+  <si>
+    <t>Funksjoner 4</t>
+  </si>
+  <si>
+    <t>grids</t>
+  </si>
+  <si>
+    <t>rutenett</t>
+  </si>
+  <si>
+    <t>menu</t>
+  </si>
+  <si>
+    <t>Menu - skin-1</t>
+  </si>
+  <si>
+    <t>Meny - hud-1</t>
+  </si>
+  <si>
+    <t>Menu - skin-2</t>
+  </si>
+  <si>
+    <t>Meny - hud-2</t>
+  </si>
+  <si>
+    <t>Menu - skin-3</t>
+  </si>
+  <si>
+    <t>Meny - hud-3</t>
+  </si>
+  <si>
+    <t>Menu - skin-4</t>
+  </si>
+  <si>
+    <t>Meny - hud-4</t>
+  </si>
+  <si>
+    <t>Menu - skin-5</t>
+  </si>
+  <si>
+    <t>Meny - hud-5</t>
+  </si>
+  <si>
+    <t>footers</t>
+  </si>
+  <si>
+    <t>bunntekster</t>
+  </si>
+  <si>
+    <t>Footers 1</t>
+  </si>
+  <si>
+    <t>Bunntekst 1</t>
+  </si>
+  <si>
+    <t>Footers 2</t>
+  </si>
+  <si>
+    <t>Bunntekst 2</t>
+  </si>
+  <si>
+    <t>Footers 3</t>
+  </si>
+  <si>
+    <t>Bunntekst 3</t>
+  </si>
+  <si>
+    <t>Footers 4</t>
+  </si>
+  <si>
+    <t>Bunntekst 4</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>annen</t>
+  </si>
+  <si>
+    <t>jumbotron</t>
+  </si>
+  <si>
+    <t>Jumbotron 1</t>
+  </si>
+  <si>
+    <t>pricing</t>
+  </si>
+  <si>
+    <t>prissetting</t>
+  </si>
+  <si>
+    <t>Pricing 1</t>
+  </si>
+  <si>
+    <t>Pris 1</t>
+  </si>
+  <si>
+    <t>Default layouts</t>
+  </si>
+  <si>
+    <t>Standardoppsett</t>
+  </si>
+  <si>
+    <t>No Content Here</t>
+  </si>
+  <si>
+    <t>Ikke noe innhold her</t>
+  </si>
+  <si>
+    <t>Custom fields are saved</t>
+  </si>
+  <si>
+    <t>Egendefinerte felt lagres</t>
+  </si>
+  <si>
+    <t>Existing fields</t>
+  </si>
+  <si>
+    <t>Eksisterende felt</t>
+  </si>
+  <si>
+    <t>Choose from your existing fields bellow</t>
+  </si>
+  <si>
+    <t>Velg fra de eksisterende feltene nedenfor</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Add new fields</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Legg til nye felt</t>
+  </si>
+  <si>
+    <t>Add new custom field from list bellow</t>
+  </si>
+  <si>
+    <t>Legg til nytt tilpasset felt fra listen nedenfor</t>
+  </si>
+  <si>
+    <t>Your fields</t>
+  </si>
+  <si>
+    <t>Dine felt</t>
+  </si>
+  <si>
+    <t>List of your added custom fields</t>
+  </si>
+  <si>
+    <t>Liste over de egendefinerte feltene du har lagt til</t>
+  </si>
+  <si>
+    <t xml:space="preserve">repeat vertically </t>
+  </si>
+  <si>
+    <t xml:space="preserve">gjenta vertikalt </t>
+  </si>
+  <si>
+    <t>Font Family</t>
+  </si>
+  <si>
+    <t>Fontfamilie</t>
+  </si>
+  <si>
+    <t>Overlay</t>
+  </si>
+  <si>
+    <t>Overlegg</t>
+  </si>
+  <si>
+    <t>Blend mode</t>
+  </si>
+  <si>
+    <t>Blandingsmodus</t>
+  </si>
+  <si>
+    <t>Container</t>
+  </si>
+  <si>
+    <t>Container type</t>
+  </si>
+  <si>
+    <t>Beholdertype</t>
+  </si>
+  <si>
+    <t>Animations</t>
+  </si>
+  <si>
+    <t>Animasjoner</t>
+  </si>
+  <si>
+    <t>Reloading styles</t>
+  </si>
+  <si>
+    <t>Laster inn stiler på nytt</t>
+  </si>
+  <si>
+    <t>Links to</t>
+  </si>
+  <si>
+    <t>Lenker til</t>
+  </si>
+  <si>
+    <t>Preview package</t>
+  </si>
+  <si>
+    <t>Forhåndsvisningspakke</t>
+  </si>
+  <si>
+    <t>Demo</t>
+  </si>
+  <si>
+    <t>Use</t>
+  </si>
+  <si>
+    <t>Bruk</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Nåværende</t>
+  </si>
+  <si>
+    <t>Reorder</t>
+  </si>
+  <si>
+    <t>Bestill på nytt</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>Browser Redirect</t>
+  </si>
+  <si>
+    <t>Nettleserviderekobling</t>
+  </si>
+  <si>
+    <t>Integration</t>
+  </si>
+  <si>
+    <t>Integrering</t>
+  </si>
+  <si>
+    <t>Standalone Updater</t>
+  </si>
+  <si>
+    <t>Frittstående oppdatering</t>
+  </si>
+  <si>
+    <t>You need license key to install this package</t>
+  </si>
+  <si>
+    <t>Du trenger lisensnøkkel for å installere denne pakken</t>
+  </si>
+  <si>
+    <t>This package is premium and you must have a license key to install it</t>
+  </si>
+  <si>
+    <t>Denne pakken er premium og du må ha en lisensnøkkel for å installere den</t>
+  </si>
+  <si>
+    <t>You need license key</t>
+  </si>
+  <si>
+    <t>Du trenger lisensnøkkel</t>
+  </si>
+  <si>
+    <t>License activated</t>
+  </si>
+  <si>
+    <t>Lisens aktivert</t>
+  </si>
+  <si>
+    <t>Reloading page</t>
+  </si>
+  <si>
+    <t>Laster inn siden på nytt</t>
+  </si>
+  <si>
+    <t>License not activated</t>
+  </si>
+  <si>
+    <t>Lisens ikke aktivert</t>
+  </si>
+  <si>
+    <t>Url</t>
+  </si>
+  <si>
+    <t>System updates</t>
+  </si>
+  <si>
+    <t>Systemoppdateringer</t>
+  </si>
+  <si>
+    <t>Check for system updates</t>
+  </si>
+  <si>
+    <t>Se etter systemoppdateringer</t>
+  </si>
+  <si>
+    <t>Back to list</t>
+  </si>
+  <si>
+    <t>Tilbake til listen</t>
+  </si>
+  <si>
+    <t>The category must have a name</t>
+  </si>
+  <si>
+    <t>Kategorien må ha et navn</t>
+  </si>
+  <si>
+    <t>Is category hidden?</t>
+  </si>
+  <si>
+    <t>Er kategori skjult?</t>
+  </si>
+  <si>
+    <t>If you set this to YES this category will be hidden from the website</t>
+  </si>
+  <si>
+    <t>Hvis du setter dette til JA, vil denne kategorien bli skjult fra nettstedet</t>
+  </si>
+  <si>
+    <t>template-big</t>
+  </si>
+  <si>
+    <t>Mentioning</t>
+  </si>
+  <si>
+    <t>Omtale</t>
+  </si>
+  <si>
+    <t>Your cart is empty.</t>
+  </si>
+  <si>
+    <t>Vognen din er tom.</t>
+  </si>
+  <si>
+    <t>Results found</t>
+  </si>
+  <si>
+    <t>Resultater funnet</t>
+  </si>
+  <si>
+    <t>If you choose the Percent from the select field, it will be calculated automatically from the Price and Offer price of the product.</t>
+  </si>
+  <si>
+    <t>Hvis du velger Prosent fra utvalgsfeltet, beregnes den automatisk fra prisen og tilbudsprisen på produktet.</t>
+  </si>
+  <si>
+    <t>أضف منتج</t>
+  </si>
+  <si>
+    <t>validation</t>
+  </si>
+  <si>
+    <t>custom.multilanguage.title.en_US.required</t>
+  </si>
+  <si>
+    <t>values.multilanguage.title.en_US.</t>
+  </si>
+  <si>
+    <t>تحرير المنتج</t>
+  </si>
+  <si>
+    <t>iuiuui</t>
+  </si>
+  <si>
+    <t>Proceed to Checkout</t>
+  </si>
+  <si>
+    <t>Fortsett til utsjekking</t>
+  </si>
+  <si>
+    <t>تحرير آخر</t>
+  </si>
+  <si>
+    <t>Displaying</t>
+  </si>
+  <si>
+    <t>Viser</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
+    <t>result(s)</t>
+  </si>
+  <si>
+    <t>resultat(er)</t>
+  </si>
+  <si>
+    <t>Page Title - Right Breadcrumb</t>
+  </si>
+  <si>
+    <t>Sidetittel - Høyre brødsmule</t>
+  </si>
+  <si>
+    <t>Page Title - Left Breadcrumb</t>
+  </si>
+  <si>
+    <t>Sidetittel - venstre brødsmule</t>
+  </si>
+  <si>
+    <t>Terms of use</t>
+  </si>
+  <si>
+    <t>Vilkår for bruk</t>
+  </si>
+  <si>
+    <t>Delivery and returns</t>
+  </si>
+  <si>
+    <t>Levering og retur</t>
+  </si>
+  <si>
+    <t>Shipping information</t>
+  </si>
+  <si>
+    <t>About 1</t>
+  </si>
+  <si>
+    <t>Omtrent 1</t>
+  </si>
+  <si>
+    <t>About 2</t>
+  </si>
+  <si>
+    <t>Omtrent 2</t>
+  </si>
+  <si>
+    <t>About 3</t>
+  </si>
+  <si>
+    <t>Omtrent 3</t>
+  </si>
+  <si>
+    <t>Home 1</t>
+  </si>
+  <si>
+    <t>Hjem 1</t>
+  </si>
+  <si>
+    <t>Home 2</t>
+  </si>
+  <si>
+    <t>Hjem 2</t>
+  </si>
+  <si>
+    <t>You must click the apply template button to change your template</t>
+  </si>
+  <si>
+    <t>Du må klikke på bruk mal-knappen for å endre malen</t>
+  </si>
+  <si>
+    <t>Search by criteria</t>
+  </si>
+  <si>
+    <t>Søk etter kriterier</t>
+  </si>
+  <si>
+    <t>Order ID</t>
+  </si>
+  <si>
+    <t>Date from</t>
+  </si>
+  <si>
+    <t>Dato fra</t>
+  </si>
+  <si>
+    <t>Set the orders from date</t>
+  </si>
+  <si>
+    <t>Still inn bestillingene fra dato</t>
+  </si>
+  <si>
+    <t>Date to</t>
+  </si>
+  <si>
+    <t>Date til</t>
+  </si>
+  <si>
+    <t>Set the orders to date</t>
+  </si>
+  <si>
+    <t>Sett bestillingene til dags dato</t>
+  </si>
+  <si>
+    <t>Order amount from</t>
+  </si>
+  <si>
+    <t>Bestillingsbeløp fra</t>
+  </si>
+  <si>
+    <t>Show the order with minimum amount</t>
+  </si>
+  <si>
+    <t>Vis bestillingen med minimumsbeløp</t>
+  </si>
+  <si>
+    <t>Order amount to</t>
+  </si>
+  <si>
+    <t>Ordrebeløp til</t>
+  </si>
+  <si>
+    <t>Show the order with maximum amount</t>
+  </si>
+  <si>
+    <t>Vis bestillingen med maksimumsbeløp</t>
+  </si>
+  <si>
+    <t>Search by products...</t>
+  </si>
+  <si>
+    <t>Søk etter produkter...</t>
+  </si>
+  <si>
+    <t>Search by products</t>
+  </si>
+  <si>
+    <t>Payment Status</t>
+  </si>
+  <si>
+    <t>Betalingsstatus</t>
+  </si>
+  <si>
+    <t>Free search by phone, name, email etc...</t>
+  </si>
+  <si>
+    <t>Gratis søk på telefon, navn, e-post osv...</t>
+  </si>
+  <si>
+    <t>Submit this criteria</t>
+  </si>
+  <si>
+    <t>Send inn dette kriteriet</t>
+  </si>
+  <si>
+    <t>Reset filter</t>
+  </si>
+  <si>
+    <t>Tilbakestill filter</t>
+  </si>
+  <si>
+    <t>Export all</t>
+  </si>
+  <si>
+    <t>Eksporter alt</t>
+  </si>
+  <si>
+    <t>Select sorting</t>
+  </si>
+  <si>
+    <t>Velg sortering</t>
+  </si>
+  <si>
+    <t>Order date</t>
+  </si>
+  <si>
+    <t>Bestillingsdato</t>
+  </si>
+  <si>
+    <t>[New &gt; Old]</t>
+  </si>
+  <si>
+    <t>[Ny &gt; Gammel]</t>
+  </si>
+  <si>
+    <t>[Old &gt; New]</t>
+  </si>
+  <si>
+    <t>[Gammel &gt; Ny]</t>
+  </si>
+  <si>
+    <t>[High &gt; Low]</t>
+  </si>
+  <si>
+    <t>[Høy &gt; Lav]</t>
+  </si>
+  <si>
+    <t>[Low &gt; High]</t>
+  </si>
+  <si>
+    <t>[Lav &gt; Høy]</t>
+  </si>
+  <si>
+    <t>Order completed</t>
+  </si>
+  <si>
+    <t>Bestilling fullført</t>
+  </si>
+  <si>
+    <t>translations from the multilnaguage module have been found in your database.</t>
+  </si>
+  <si>
+    <t>oversettelser fra flerspråksmodulen er funnet i databasen din.</t>
+  </si>
+  <si>
+    <t>Warning! Changing the default language can break translations on your site.</t>
+  </si>
+  <si>
+    <t>Advarsel! Endring av standardspråk kan ødelegge oversettelser på nettstedet ditt.</t>
+  </si>
+  <si>
+    <t>Are you sure want to continue?</t>
+  </si>
+  <si>
+    <t>Er du sikker på at du vil fortsette?</t>
+  </si>
+  <si>
+    <t>Warning! The changing default language maybe will break your site.</t>
+  </si>
+  <si>
+    <t>Advarsel! Det endrede standardspråket vil kanskje ødelegge nettstedet ditt.</t>
+  </si>
+  <si>
+    <t>Shipping details</t>
+  </si>
+  <si>
+    <t>Fraktdetaljer</t>
+  </si>
+  <si>
+    <t>Shipping type</t>
+  </si>
+  <si>
+    <t>Frakttype</t>
+  </si>
+  <si>
+    <t>the order is not completed yet</t>
+  </si>
+  <si>
+    <t>bestillingen er ikke fullført ennå</t>
+  </si>
+  <si>
+    <t>the order is completed</t>
+  </si>
+  <si>
+    <t>bestillingen er fullført</t>
+  </si>
+  <si>
+    <t>Created at</t>
+  </si>
+  <si>
+    <t>Opprettet kl</t>
+  </si>
+  <si>
+    <t>Updated at</t>
+  </si>
+  <si>
+    <t>Oppdatert kl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quick view </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hurtigvisning </t>
+  </si>
+  <si>
+    <t>Replace language values</t>
+  </si>
+  <si>
+    <t>Bytt ut språkverdier</t>
+  </si>
+  <si>
+    <t>Translations are imported</t>
+  </si>
+  <si>
+    <t>Oversettelser importeres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Translations not found in database. Do you wish to import translations? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finner ikke oversettelser i databasen. Ønsker du å importere oversettelser? </t>
   </si>
 </sst>
 </file>
@@ -17722,10 +18598,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -17736,7 +18609,7 @@
   </cellStyleXfs>
   <cellXfs count="1">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <alignment vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -18037,7 +18910,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E3062"/>
+  <dimension ref="A1:E3217"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -70099,8 +70972,2642 @@
         <v>8</v>
       </c>
     </row>
+    <row r="3063" spans="1:5">
+      <c r="A3063" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3063" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3063" t="s">
+        <v>5890</v>
+      </c>
+      <c r="D3063" t="s">
+        <v>5891</v>
+      </c>
+      <c r="E3063" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3064" spans="1:5">
+      <c r="A3064" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3064" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3064" t="s">
+        <v>5892</v>
+      </c>
+      <c r="D3064" t="s">
+        <v>4478</v>
+      </c>
+      <c r="E3064" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3065" spans="1:5">
+      <c r="A3065" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3065" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3065" t="s">
+        <v>5893</v>
+      </c>
+      <c r="D3065" t="s">
+        <v>5894</v>
+      </c>
+      <c r="E3065" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3066" spans="1:5">
+      <c r="A3066" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3066" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3066" t="s">
+        <v>5895</v>
+      </c>
+      <c r="D3066" t="s">
+        <v>5896</v>
+      </c>
+      <c r="E3066" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3067" spans="1:5">
+      <c r="A3067" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3067" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3067" t="s">
+        <v>5897</v>
+      </c>
+      <c r="D3067" t="s">
+        <v>5898</v>
+      </c>
+      <c r="E3067" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3068" spans="1:5">
+      <c r="A3068" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3068" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3068" t="s">
+        <v>5899</v>
+      </c>
+      <c r="D3068" t="s">
+        <v>5900</v>
+      </c>
+      <c r="E3068" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3069" spans="1:5">
+      <c r="A3069" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3069" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3069" t="s">
+        <v>5901</v>
+      </c>
+      <c r="D3069" t="s">
+        <v>5902</v>
+      </c>
+      <c r="E3069" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3070" spans="1:5">
+      <c r="A3070" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3070" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3070" t="s">
+        <v>5903</v>
+      </c>
+      <c r="D3070" t="s">
+        <v>5904</v>
+      </c>
+      <c r="E3070" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3071" spans="1:5">
+      <c r="A3071" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3071" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3071" t="s">
+        <v>5905</v>
+      </c>
+      <c r="D3071" t="s">
+        <v>5906</v>
+      </c>
+      <c r="E3071" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3072" spans="1:5">
+      <c r="A3072" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3072" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3072" t="s">
+        <v>5907</v>
+      </c>
+      <c r="D3072" t="s">
+        <v>5908</v>
+      </c>
+      <c r="E3072" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3073" spans="1:5">
+      <c r="A3073" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3073" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3073" t="s">
+        <v>5909</v>
+      </c>
+      <c r="D3073" t="s">
+        <v>5910</v>
+      </c>
+      <c r="E3073" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3074" spans="1:5">
+      <c r="A3074" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3074" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3074" t="s">
+        <v>5911</v>
+      </c>
+      <c r="D3074" t="s">
+        <v>5912</v>
+      </c>
+      <c r="E3074" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3075" spans="1:5">
+      <c r="A3075" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3075" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3075" t="s">
+        <v>5913</v>
+      </c>
+      <c r="D3075" t="s">
+        <v>5914</v>
+      </c>
+      <c r="E3075" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3076" spans="1:5">
+      <c r="A3076" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3076" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3076" t="s">
+        <v>5915</v>
+      </c>
+      <c r="D3076" t="s">
+        <v>5916</v>
+      </c>
+      <c r="E3076" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3077" spans="1:5">
+      <c r="A3077" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3077" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3077" t="s">
+        <v>5917</v>
+      </c>
+      <c r="D3077" t="s">
+        <v>5918</v>
+      </c>
+      <c r="E3077" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3078" spans="1:5">
+      <c r="A3078" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3078" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3078" t="s">
+        <v>5919</v>
+      </c>
+      <c r="D3078" t="s">
+        <v>5920</v>
+      </c>
+      <c r="E3078" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3079" spans="1:5">
+      <c r="A3079" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3079" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3079" t="s">
+        <v>5921</v>
+      </c>
+      <c r="D3079" t="s">
+        <v>5922</v>
+      </c>
+      <c r="E3079" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3080" spans="1:5">
+      <c r="A3080" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3080" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3080" t="s">
+        <v>5923</v>
+      </c>
+      <c r="D3080" t="s">
+        <v>5924</v>
+      </c>
+      <c r="E3080" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3081" spans="1:5">
+      <c r="A3081" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3081" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3081" t="s">
+        <v>5925</v>
+      </c>
+      <c r="D3081" t="s">
+        <v>5926</v>
+      </c>
+      <c r="E3081" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3082" spans="1:5">
+      <c r="A3082" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3082" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3082" t="s">
+        <v>5927</v>
+      </c>
+      <c r="D3082" t="s">
+        <v>5928</v>
+      </c>
+      <c r="E3082" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3083" spans="1:5">
+      <c r="A3083" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3083" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3083" t="s">
+        <v>5929</v>
+      </c>
+      <c r="D3083" t="s">
+        <v>5930</v>
+      </c>
+      <c r="E3083" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3084" spans="1:5">
+      <c r="A3084" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3084" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3084" t="s">
+        <v>5931</v>
+      </c>
+      <c r="D3084" t="s">
+        <v>5932</v>
+      </c>
+      <c r="E3084" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3085" spans="1:5">
+      <c r="A3085" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3085" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3085" t="s">
+        <v>5933</v>
+      </c>
+      <c r="D3085" t="s">
+        <v>5934</v>
+      </c>
+      <c r="E3085" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3086" spans="1:5">
+      <c r="A3086" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3086" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3086" t="s">
+        <v>5935</v>
+      </c>
+      <c r="D3086" t="s">
+        <v>5936</v>
+      </c>
+      <c r="E3086" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3087" spans="1:5">
+      <c r="A3087" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3087" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3087" t="s">
+        <v>5937</v>
+      </c>
+      <c r="D3087" t="s">
+        <v>5938</v>
+      </c>
+      <c r="E3087" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3088" spans="1:5">
+      <c r="A3088" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3088" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3088" t="s">
+        <v>5939</v>
+      </c>
+      <c r="D3088" t="s">
+        <v>5940</v>
+      </c>
+      <c r="E3088" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3089" spans="1:5">
+      <c r="A3089" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3089" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3089" t="s">
+        <v>5941</v>
+      </c>
+      <c r="D3089" t="s">
+        <v>5942</v>
+      </c>
+      <c r="E3089" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3090" spans="1:5">
+      <c r="A3090" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3090" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3090" t="s">
+        <v>5943</v>
+      </c>
+      <c r="D3090" t="s">
+        <v>5944</v>
+      </c>
+      <c r="E3090" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3091" spans="1:5">
+      <c r="A3091" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3091" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3091" t="s">
+        <v>5945</v>
+      </c>
+      <c r="D3091" t="s">
+        <v>5946</v>
+      </c>
+      <c r="E3091" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3092" spans="1:5">
+      <c r="A3092" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3092" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3092" t="s">
+        <v>5947</v>
+      </c>
+      <c r="D3092" t="s">
+        <v>5948</v>
+      </c>
+      <c r="E3092" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3093" spans="1:5">
+      <c r="A3093" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3093" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3093" t="s">
+        <v>5949</v>
+      </c>
+      <c r="D3093" t="s">
+        <v>5950</v>
+      </c>
+      <c r="E3093" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3094" spans="1:5">
+      <c r="A3094" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3094" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3094" t="s">
+        <v>5951</v>
+      </c>
+      <c r="D3094" t="s">
+        <v>5952</v>
+      </c>
+      <c r="E3094" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3095" spans="1:5">
+      <c r="A3095" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3095" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3095" t="s">
+        <v>5953</v>
+      </c>
+      <c r="D3095" t="s">
+        <v>5954</v>
+      </c>
+      <c r="E3095" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3096" spans="1:5">
+      <c r="A3096" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3096" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3096" t="s">
+        <v>5955</v>
+      </c>
+      <c r="D3096" t="s">
+        <v>5956</v>
+      </c>
+      <c r="E3096" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3097" spans="1:5">
+      <c r="A3097" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3097" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3097" t="s">
+        <v>5957</v>
+      </c>
+      <c r="D3097" t="s">
+        <v>5958</v>
+      </c>
+      <c r="E3097" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3098" spans="1:5">
+      <c r="A3098" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3098" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3098" t="s">
+        <v>5959</v>
+      </c>
+      <c r="D3098" t="s">
+        <v>2201</v>
+      </c>
+      <c r="E3098" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3099" spans="1:5">
+      <c r="A3099" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3099" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3099" t="s">
+        <v>5960</v>
+      </c>
+      <c r="D3099" t="s">
+        <v>5961</v>
+      </c>
+      <c r="E3099" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3100" spans="1:5">
+      <c r="A3100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3100" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3100" t="s">
+        <v>5962</v>
+      </c>
+      <c r="D3100" t="s">
+        <v>5963</v>
+      </c>
+      <c r="E3100" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3101" spans="1:5">
+      <c r="A3101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3101" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3101" t="s">
+        <v>5964</v>
+      </c>
+      <c r="D3101" t="s">
+        <v>5965</v>
+      </c>
+      <c r="E3101" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3102" spans="1:5">
+      <c r="A3102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3102" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3102" t="s">
+        <v>5966</v>
+      </c>
+      <c r="D3102" t="s">
+        <v>5967</v>
+      </c>
+      <c r="E3102" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3103" spans="1:5">
+      <c r="A3103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3103" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3103" t="s">
+        <v>5968</v>
+      </c>
+      <c r="D3103" t="s">
+        <v>5969</v>
+      </c>
+      <c r="E3103" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3104" spans="1:5">
+      <c r="A3104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3104" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3104" t="s">
+        <v>5970</v>
+      </c>
+      <c r="D3104" t="s">
+        <v>5971</v>
+      </c>
+      <c r="E3104" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3105" spans="1:5">
+      <c r="A3105" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3105" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3105" t="s">
+        <v>5972</v>
+      </c>
+      <c r="D3105" t="s">
+        <v>5973</v>
+      </c>
+      <c r="E3105" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3106" spans="1:5">
+      <c r="A3106" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3106" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3106" t="s">
+        <v>5974</v>
+      </c>
+      <c r="D3106" t="s">
+        <v>5975</v>
+      </c>
+      <c r="E3106" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3107" spans="1:5">
+      <c r="A3107" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3107" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3107" t="s">
+        <v>5976</v>
+      </c>
+      <c r="D3107" t="s">
+        <v>5977</v>
+      </c>
+      <c r="E3107" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3108" spans="1:5">
+      <c r="A3108" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3108" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3108" t="s">
+        <v>5978</v>
+      </c>
+      <c r="D3108" t="s">
+        <v>5979</v>
+      </c>
+      <c r="E3108" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3109" spans="1:5">
+      <c r="A3109" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3109" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3109" t="s">
+        <v>5980</v>
+      </c>
+      <c r="D3109" t="s">
+        <v>5981</v>
+      </c>
+      <c r="E3109" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3110" spans="1:5">
+      <c r="A3110" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3110" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3110">
+        <v>404</v>
+      </c>
+      <c r="D3110">
+        <v>404</v>
+      </c>
+      <c r="E3110" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3111" spans="1:5">
+      <c r="A3111" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3111" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3111" t="s">
+        <v>5982</v>
+      </c>
+      <c r="D3111" t="s">
+        <v>5982</v>
+      </c>
+      <c r="E3111" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3112" spans="1:5">
+      <c r="A3112" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3112" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3112" t="s">
+        <v>5983</v>
+      </c>
+      <c r="D3112" t="s">
+        <v>5983</v>
+      </c>
+      <c r="E3112" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3113" spans="1:5">
+      <c r="A3113" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3113" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3113" t="s">
+        <v>5984</v>
+      </c>
+      <c r="D3113" t="s">
+        <v>5985</v>
+      </c>
+      <c r="E3113" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3114" spans="1:5">
+      <c r="A3114" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3114" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3114" t="s">
+        <v>5986</v>
+      </c>
+      <c r="D3114" t="s">
+        <v>5987</v>
+      </c>
+      <c r="E3114" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3115" spans="1:5">
+      <c r="A3115" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3115" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3115" t="s">
+        <v>5988</v>
+      </c>
+      <c r="D3115" t="s">
+        <v>5989</v>
+      </c>
+      <c r="E3115" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3116" spans="1:5">
+      <c r="A3116" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3116" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3116" t="s">
+        <v>5990</v>
+      </c>
+      <c r="D3116" t="s">
+        <v>5991</v>
+      </c>
+      <c r="E3116" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3117" spans="1:5">
+      <c r="A3117" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3117" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3117" t="s">
+        <v>5992</v>
+      </c>
+      <c r="D3117" t="s">
+        <v>5993</v>
+      </c>
+      <c r="E3117" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3118" spans="1:5">
+      <c r="A3118" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3118" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3118" t="s">
+        <v>5994</v>
+      </c>
+      <c r="D3118" t="s">
+        <v>5995</v>
+      </c>
+      <c r="E3118" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3119" spans="1:5">
+      <c r="A3119" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3119" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3119" t="s">
+        <v>5996</v>
+      </c>
+      <c r="D3119" t="s">
+        <v>5997</v>
+      </c>
+      <c r="E3119" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3120" spans="1:5">
+      <c r="A3120" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3120" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3120" t="s">
+        <v>5998</v>
+      </c>
+      <c r="D3120" t="s">
+        <v>5999</v>
+      </c>
+      <c r="E3120" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3121" spans="1:5">
+      <c r="A3121" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3121" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3121" t="s">
+        <v>6000</v>
+      </c>
+      <c r="D3121" t="s">
+        <v>6001</v>
+      </c>
+      <c r="E3121" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3122" spans="1:5">
+      <c r="A3122" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3122" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3122" t="s">
+        <v>6002</v>
+      </c>
+      <c r="D3122" t="s">
+        <v>6003</v>
+      </c>
+      <c r="E3122" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3123" spans="1:5">
+      <c r="A3123" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3123" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3123" t="s">
+        <v>6004</v>
+      </c>
+      <c r="D3123" t="s">
+        <v>6005</v>
+      </c>
+      <c r="E3123" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3124" spans="1:5">
+      <c r="A3124" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3124" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3124" t="s">
+        <v>6006</v>
+      </c>
+      <c r="D3124" t="s">
+        <v>6007</v>
+      </c>
+      <c r="E3124" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3125" spans="1:5">
+      <c r="A3125" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3125" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3125" t="s">
+        <v>6008</v>
+      </c>
+      <c r="D3125" t="s">
+        <v>6009</v>
+      </c>
+      <c r="E3125" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3126" spans="1:5">
+      <c r="A3126" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3126" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3126" t="s">
+        <v>6010</v>
+      </c>
+      <c r="D3126" t="s">
+        <v>6011</v>
+      </c>
+      <c r="E3126" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3127" spans="1:5">
+      <c r="A3127" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3127" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3127" t="s">
+        <v>6012</v>
+      </c>
+      <c r="D3127" t="s">
+        <v>6013</v>
+      </c>
+      <c r="E3127" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3128" spans="1:5">
+      <c r="A3128" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3128" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3128" t="s">
+        <v>6014</v>
+      </c>
+      <c r="D3128" t="s">
+        <v>6014</v>
+      </c>
+      <c r="E3128" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3129" spans="1:5">
+      <c r="A3129" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3129" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3129" t="s">
+        <v>6015</v>
+      </c>
+      <c r="D3129" t="s">
+        <v>6016</v>
+      </c>
+      <c r="E3129" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3130" spans="1:5">
+      <c r="A3130" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3130" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3130" t="s">
+        <v>6017</v>
+      </c>
+      <c r="D3130" t="s">
+        <v>6018</v>
+      </c>
+      <c r="E3130" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3131" spans="1:5">
+      <c r="A3131" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3131" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3131" t="s">
+        <v>6019</v>
+      </c>
+      <c r="D3131" t="s">
+        <v>6020</v>
+      </c>
+      <c r="E3131" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3132" spans="1:5">
+      <c r="A3132" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3132" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3132" t="s">
+        <v>6021</v>
+      </c>
+      <c r="D3132" t="s">
+        <v>6022</v>
+      </c>
+      <c r="E3132" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3133" spans="1:5">
+      <c r="A3133" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3133" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3133" t="s">
+        <v>6023</v>
+      </c>
+      <c r="D3133" t="s">
+        <v>6024</v>
+      </c>
+      <c r="E3133" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3134" spans="1:5">
+      <c r="A3134" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3134" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3134" t="s">
+        <v>6025</v>
+      </c>
+      <c r="D3134" t="s">
+        <v>6025</v>
+      </c>
+      <c r="E3134" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3135" spans="1:5">
+      <c r="A3135" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3135" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3135" t="s">
+        <v>6026</v>
+      </c>
+      <c r="D3135" t="s">
+        <v>6027</v>
+      </c>
+      <c r="E3135" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3136" spans="1:5">
+      <c r="A3136" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3136" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3136" t="s">
+        <v>6028</v>
+      </c>
+      <c r="D3136" t="s">
+        <v>6029</v>
+      </c>
+      <c r="E3136" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3137" spans="1:5">
+      <c r="A3137" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3137" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3137" t="s">
+        <v>6030</v>
+      </c>
+      <c r="D3137" t="s">
+        <v>6031</v>
+      </c>
+      <c r="E3137" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3138" spans="1:5">
+      <c r="A3138" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3138" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3138" t="s">
+        <v>6032</v>
+      </c>
+      <c r="D3138" t="s">
+        <v>6032</v>
+      </c>
+      <c r="E3138" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3139" spans="1:5">
+      <c r="A3139" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3139" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3139" t="s">
+        <v>6033</v>
+      </c>
+      <c r="D3139" t="s">
+        <v>6034</v>
+      </c>
+      <c r="E3139" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3140" spans="1:5">
+      <c r="A3140" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3140" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3140" t="s">
+        <v>6035</v>
+      </c>
+      <c r="D3140" t="s">
+        <v>6036</v>
+      </c>
+      <c r="E3140" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3141" spans="1:5">
+      <c r="A3141" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3141" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3141" t="s">
+        <v>6037</v>
+      </c>
+      <c r="D3141" t="s">
+        <v>6038</v>
+      </c>
+      <c r="E3141" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3142" spans="1:5">
+      <c r="A3142" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3142" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3142" t="s">
+        <v>6039</v>
+      </c>
+      <c r="D3142" t="s">
+        <v>6040</v>
+      </c>
+      <c r="E3142" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3143" spans="1:5">
+      <c r="A3143" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3143" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3143" t="s">
+        <v>6041</v>
+      </c>
+      <c r="D3143" t="s">
+        <v>6042</v>
+      </c>
+      <c r="E3143" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3144" spans="1:5">
+      <c r="A3144" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3144" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3144" t="s">
+        <v>6043</v>
+      </c>
+      <c r="D3144" t="s">
+        <v>6044</v>
+      </c>
+      <c r="E3144" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3145" spans="1:5">
+      <c r="A3145" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3145" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3145" t="s">
+        <v>6045</v>
+      </c>
+      <c r="D3145" t="s">
+        <v>6046</v>
+      </c>
+      <c r="E3145" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3146" spans="1:5">
+      <c r="A3146" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3146" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3146" t="s">
+        <v>6047</v>
+      </c>
+      <c r="D3146" t="s">
+        <v>6048</v>
+      </c>
+      <c r="E3146" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3147" spans="1:5">
+      <c r="A3147" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3147" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3147" t="s">
+        <v>6049</v>
+      </c>
+      <c r="D3147" t="s">
+        <v>6050</v>
+      </c>
+      <c r="E3147" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3148" spans="1:5">
+      <c r="A3148" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3148" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3148" t="s">
+        <v>6051</v>
+      </c>
+      <c r="D3148" t="s">
+        <v>2714</v>
+      </c>
+      <c r="E3148" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3149" spans="1:5">
+      <c r="A3149" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3149" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3149" t="s">
+        <v>6052</v>
+      </c>
+      <c r="D3149" t="s">
+        <v>6053</v>
+      </c>
+      <c r="E3149" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3150" spans="1:5">
+      <c r="A3150" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3150" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3150" t="s">
+        <v>6054</v>
+      </c>
+      <c r="D3150" t="s">
+        <v>6055</v>
+      </c>
+      <c r="E3150" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3151" spans="1:5">
+      <c r="A3151" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3151" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3151" t="s">
+        <v>6056</v>
+      </c>
+      <c r="D3151" t="s">
+        <v>6057</v>
+      </c>
+      <c r="E3151" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3152" spans="1:5">
+      <c r="A3152" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3152" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3152" t="s">
+        <v>6058</v>
+      </c>
+      <c r="D3152" t="s">
+        <v>6059</v>
+      </c>
+      <c r="E3152" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3153" spans="1:5">
+      <c r="A3153" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3153" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3153" t="s">
+        <v>6060</v>
+      </c>
+      <c r="D3153" t="s">
+        <v>6061</v>
+      </c>
+      <c r="E3153" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3154" spans="1:5">
+      <c r="A3154" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3154" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3154" t="s">
+        <v>6062</v>
+      </c>
+      <c r="D3154" t="s">
+        <v>6063</v>
+      </c>
+      <c r="E3154" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3155" spans="1:5">
+      <c r="A3155" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3155" t="s">
+        <v>6064</v>
+      </c>
+      <c r="C3155" t="s">
+        <v>6065</v>
+      </c>
+      <c r="D3155" t="s">
+        <v>6066</v>
+      </c>
+      <c r="E3155" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3156" spans="1:5">
+      <c r="A3156" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3156" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3156" t="s">
+        <v>6067</v>
+      </c>
+      <c r="D3156" t="s">
+        <v>6068</v>
+      </c>
+      <c r="E3156" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3157" spans="1:5">
+      <c r="A3157" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3157" t="s">
+        <v>5887</v>
+      </c>
+      <c r="C3157" t="s">
+        <v>6069</v>
+      </c>
+      <c r="D3157" t="s">
+        <v>6070</v>
+      </c>
+      <c r="E3157" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3158" spans="1:5">
+      <c r="A3158" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3158" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3158" t="s">
+        <v>6071</v>
+      </c>
+      <c r="D3158" t="s">
+        <v>6072</v>
+      </c>
+      <c r="E3158" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3159" spans="1:5">
+      <c r="A3159" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3159" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3159" t="s">
+        <v>6073</v>
+      </c>
+      <c r="D3159" t="s">
+        <v>6073</v>
+      </c>
+      <c r="E3159" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3160" spans="1:5">
+      <c r="A3160" t="s">
+        <v>6074</v>
+      </c>
+      <c r="B3160" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3160" t="s">
+        <v>6075</v>
+      </c>
+      <c r="D3160" t="s">
+        <v>6075</v>
+      </c>
+      <c r="E3160" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3161" spans="1:5">
+      <c r="A3161" t="s">
+        <v>6074</v>
+      </c>
+      <c r="B3161" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3161" t="s">
+        <v>6076</v>
+      </c>
+      <c r="D3161" t="s">
+        <v>6076</v>
+      </c>
+      <c r="E3161" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3162" spans="1:5">
+      <c r="A3162" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3162" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3162" t="s">
+        <v>6077</v>
+      </c>
+      <c r="D3162" t="s">
+        <v>6077</v>
+      </c>
+      <c r="E3162" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3163" spans="1:5">
+      <c r="A3163" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3163" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3163" t="s">
+        <v>6078</v>
+      </c>
+      <c r="D3163" t="s">
+        <v>6078</v>
+      </c>
+      <c r="E3163" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3164" spans="1:5">
+      <c r="A3164" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3164" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3164" t="s">
+        <v>6079</v>
+      </c>
+      <c r="D3164" t="s">
+        <v>6080</v>
+      </c>
+      <c r="E3164" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3165" spans="1:5">
+      <c r="A3165" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3165" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3165" t="s">
+        <v>6081</v>
+      </c>
+      <c r="D3165" t="s">
+        <v>6081</v>
+      </c>
+      <c r="E3165" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3166" spans="1:5">
+      <c r="A3166" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3166" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3166" t="s">
+        <v>6082</v>
+      </c>
+      <c r="D3166" t="s">
+        <v>6083</v>
+      </c>
+      <c r="E3166" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3167" spans="1:5">
+      <c r="A3167" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3167" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3167" t="s">
+        <v>6084</v>
+      </c>
+      <c r="D3167" t="s">
+        <v>2629</v>
+      </c>
+      <c r="E3167" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3168" spans="1:5">
+      <c r="A3168" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3168" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3168" t="s">
+        <v>6085</v>
+      </c>
+      <c r="D3168" t="s">
+        <v>6086</v>
+      </c>
+      <c r="E3168" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3169" spans="1:5">
+      <c r="A3169" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3169" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3169" t="s">
+        <v>6087</v>
+      </c>
+      <c r="D3169" t="s">
+        <v>6088</v>
+      </c>
+      <c r="E3169" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3170" spans="1:5">
+      <c r="A3170" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3170" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3170" t="s">
+        <v>6089</v>
+      </c>
+      <c r="D3170" t="s">
+        <v>6090</v>
+      </c>
+      <c r="E3170" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3171" spans="1:5">
+      <c r="A3171" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3171" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3171" t="s">
+        <v>6091</v>
+      </c>
+      <c r="D3171" t="s">
+        <v>6092</v>
+      </c>
+      <c r="E3171" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3172" spans="1:5">
+      <c r="A3172" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3172" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3172" t="s">
+        <v>6093</v>
+      </c>
+      <c r="D3172" t="s">
+        <v>6094</v>
+      </c>
+      <c r="E3172" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3173" spans="1:5">
+      <c r="A3173" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3173" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3173" t="s">
+        <v>6095</v>
+      </c>
+      <c r="D3173" t="s">
+        <v>1616</v>
+      </c>
+      <c r="E3173" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3174" spans="1:5">
+      <c r="A3174" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3174" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3174" t="s">
+        <v>6096</v>
+      </c>
+      <c r="D3174" t="s">
+        <v>6097</v>
+      </c>
+      <c r="E3174" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3175" spans="1:5">
+      <c r="A3175" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3175" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3175" t="s">
+        <v>6098</v>
+      </c>
+      <c r="D3175" t="s">
+        <v>6099</v>
+      </c>
+      <c r="E3175" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3176" spans="1:5">
+      <c r="A3176" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3176" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3176" t="s">
+        <v>6100</v>
+      </c>
+      <c r="D3176" t="s">
+        <v>6101</v>
+      </c>
+      <c r="E3176" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3177" spans="1:5">
+      <c r="A3177" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3177" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3177" t="s">
+        <v>6102</v>
+      </c>
+      <c r="D3177" t="s">
+        <v>6103</v>
+      </c>
+      <c r="E3177" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3178" spans="1:5">
+      <c r="A3178" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3178" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3178" t="s">
+        <v>6104</v>
+      </c>
+      <c r="D3178" t="s">
+        <v>6105</v>
+      </c>
+      <c r="E3178" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3179" spans="1:5">
+      <c r="A3179" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3179" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3179" t="s">
+        <v>6106</v>
+      </c>
+      <c r="D3179" t="s">
+        <v>6107</v>
+      </c>
+      <c r="E3179" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3180" spans="1:5">
+      <c r="A3180" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3180" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3180" t="s">
+        <v>6108</v>
+      </c>
+      <c r="D3180" t="s">
+        <v>6109</v>
+      </c>
+      <c r="E3180" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3181" spans="1:5">
+      <c r="A3181" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3181" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3181" t="s">
+        <v>6110</v>
+      </c>
+      <c r="D3181" t="s">
+        <v>1798</v>
+      </c>
+      <c r="E3181" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3182" spans="1:5">
+      <c r="A3182" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3182" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3182" t="s">
+        <v>6111</v>
+      </c>
+      <c r="D3182" t="s">
+        <v>6112</v>
+      </c>
+      <c r="E3182" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3183" spans="1:5">
+      <c r="A3183" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3183" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3183" t="s">
+        <v>6113</v>
+      </c>
+      <c r="D3183" t="s">
+        <v>6114</v>
+      </c>
+      <c r="E3183" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3184" spans="1:5">
+      <c r="A3184" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3184" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3184" t="s">
+        <v>6115</v>
+      </c>
+      <c r="D3184" t="s">
+        <v>6116</v>
+      </c>
+      <c r="E3184" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3185" spans="1:5">
+      <c r="A3185" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3185" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3185" t="s">
+        <v>6117</v>
+      </c>
+      <c r="D3185" t="s">
+        <v>6118</v>
+      </c>
+      <c r="E3185" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3186" spans="1:5">
+      <c r="A3186" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3186" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3186" t="s">
+        <v>6119</v>
+      </c>
+      <c r="D3186" t="s">
+        <v>6120</v>
+      </c>
+      <c r="E3186" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3187" spans="1:5">
+      <c r="A3187" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3187" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3187" t="s">
+        <v>6121</v>
+      </c>
+      <c r="D3187" t="s">
+        <v>6122</v>
+      </c>
+      <c r="E3187" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3188" spans="1:5">
+      <c r="A3188" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3188" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3188" t="s">
+        <v>6123</v>
+      </c>
+      <c r="D3188" t="s">
+        <v>6124</v>
+      </c>
+      <c r="E3188" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3189" spans="1:5">
+      <c r="A3189" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3189" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3189" t="s">
+        <v>6125</v>
+      </c>
+      <c r="D3189" t="s">
+        <v>6126</v>
+      </c>
+      <c r="E3189" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3190" spans="1:5">
+      <c r="A3190" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3190" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3190" t="s">
+        <v>6127</v>
+      </c>
+      <c r="D3190" t="s">
+        <v>6128</v>
+      </c>
+      <c r="E3190" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3191" spans="1:5">
+      <c r="A3191" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3191" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3191" t="s">
+        <v>6129</v>
+      </c>
+      <c r="D3191" t="s">
+        <v>3945</v>
+      </c>
+      <c r="E3191" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3192" spans="1:5">
+      <c r="A3192" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3192" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3192" t="s">
+        <v>6130</v>
+      </c>
+      <c r="D3192" t="s">
+        <v>6131</v>
+      </c>
+      <c r="E3192" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3193" spans="1:5">
+      <c r="A3193" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3193" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3193" t="s">
+        <v>6132</v>
+      </c>
+      <c r="D3193" t="s">
+        <v>6133</v>
+      </c>
+      <c r="E3193" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3194" spans="1:5">
+      <c r="A3194" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3194" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3194" t="s">
+        <v>6134</v>
+      </c>
+      <c r="D3194" t="s">
+        <v>6135</v>
+      </c>
+      <c r="E3194" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3195" spans="1:5">
+      <c r="A3195" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3195" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3195" t="s">
+        <v>6136</v>
+      </c>
+      <c r="D3195" t="s">
+        <v>6137</v>
+      </c>
+      <c r="E3195" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3196" spans="1:5">
+      <c r="A3196" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3196" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3196" t="s">
+        <v>6138</v>
+      </c>
+      <c r="D3196" t="s">
+        <v>6139</v>
+      </c>
+      <c r="E3196" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3197" spans="1:5">
+      <c r="A3197" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3197" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3197" t="s">
+        <v>6140</v>
+      </c>
+      <c r="D3197" t="s">
+        <v>6141</v>
+      </c>
+      <c r="E3197" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3198" spans="1:5">
+      <c r="A3198" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3198" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3198" t="s">
+        <v>6142</v>
+      </c>
+      <c r="D3198" t="s">
+        <v>6143</v>
+      </c>
+      <c r="E3198" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3199" spans="1:5">
+      <c r="A3199" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3199" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3199" t="s">
+        <v>6144</v>
+      </c>
+      <c r="D3199" t="s">
+        <v>6145</v>
+      </c>
+      <c r="E3199" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3200" spans="1:5">
+      <c r="A3200" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3200" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3200" t="s">
+        <v>6146</v>
+      </c>
+      <c r="D3200" t="s">
+        <v>6147</v>
+      </c>
+      <c r="E3200" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3201" spans="1:5">
+      <c r="A3201" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3201" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3201" t="s">
+        <v>6148</v>
+      </c>
+      <c r="D3201" t="s">
+        <v>6149</v>
+      </c>
+      <c r="E3201" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3202" spans="1:5">
+      <c r="A3202" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3202" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3202" t="s">
+        <v>6150</v>
+      </c>
+      <c r="D3202" t="s">
+        <v>6151</v>
+      </c>
+      <c r="E3202" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3203" spans="1:5">
+      <c r="A3203" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3203" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3203" t="s">
+        <v>6152</v>
+      </c>
+      <c r="D3203" t="s">
+        <v>6153</v>
+      </c>
+      <c r="E3203" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3204" spans="1:5">
+      <c r="A3204" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3204" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3204" t="s">
+        <v>6154</v>
+      </c>
+      <c r="D3204" t="s">
+        <v>6155</v>
+      </c>
+      <c r="E3204" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3205" spans="1:5">
+      <c r="A3205" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3205" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3205" t="s">
+        <v>6156</v>
+      </c>
+      <c r="D3205" t="s">
+        <v>6157</v>
+      </c>
+      <c r="E3205" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3206" spans="1:5">
+      <c r="A3206" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3206" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3206" t="s">
+        <v>6158</v>
+      </c>
+      <c r="D3206" t="s">
+        <v>6159</v>
+      </c>
+      <c r="E3206" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3207" spans="1:5">
+      <c r="A3207" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3207" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3207" t="s">
+        <v>6160</v>
+      </c>
+      <c r="D3207" t="s">
+        <v>6161</v>
+      </c>
+      <c r="E3207" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3208" spans="1:5">
+      <c r="A3208" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3208" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3208" t="s">
+        <v>6162</v>
+      </c>
+      <c r="D3208" t="s">
+        <v>6163</v>
+      </c>
+      <c r="E3208" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3209" spans="1:5">
+      <c r="A3209" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3209" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3209" t="s">
+        <v>6164</v>
+      </c>
+      <c r="D3209" t="s">
+        <v>6165</v>
+      </c>
+      <c r="E3209" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3210" spans="1:5">
+      <c r="A3210" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3210" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3210" t="s">
+        <v>6166</v>
+      </c>
+      <c r="D3210" t="s">
+        <v>6167</v>
+      </c>
+      <c r="E3210" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3211" spans="1:5">
+      <c r="A3211" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3211" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3211" t="s">
+        <v>6168</v>
+      </c>
+      <c r="D3211" t="s">
+        <v>6169</v>
+      </c>
+      <c r="E3211" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3212" spans="1:5">
+      <c r="A3212" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3212" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3212" t="s">
+        <v>6170</v>
+      </c>
+      <c r="D3212" t="s">
+        <v>6171</v>
+      </c>
+      <c r="E3212" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3213" spans="1:5">
+      <c r="A3213" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3213" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3213" t="s">
+        <v>6172</v>
+      </c>
+      <c r="D3213" t="s">
+        <v>6173</v>
+      </c>
+      <c r="E3213" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3214" spans="1:5">
+      <c r="A3214" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3214" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3214" t="s">
+        <v>6174</v>
+      </c>
+      <c r="D3214" t="s">
+        <v>6175</v>
+      </c>
+      <c r="E3214" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3215" spans="1:5">
+      <c r="A3215" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3215" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3215" t="s">
+        <v>6176</v>
+      </c>
+      <c r="D3215" t="s">
+        <v>6177</v>
+      </c>
+      <c r="E3215" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3216" spans="1:5">
+      <c r="A3216" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3216" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3216" t="s">
+        <v>6178</v>
+      </c>
+      <c r="D3216" t="s">
+        <v>6179</v>
+      </c>
+      <c r="E3216" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3217" spans="1:5">
+      <c r="A3217" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3217" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3217" t="s">
+        <v>6180</v>
+      </c>
+      <c r="D3217" t="s">
+        <v>6181</v>
+      </c>
+      <c r="E3217" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
@@ -70112,5 +73619,6 @@
     <firstHeader/>
     <firstFooter/>
   </headerFooter>
+  <tableParts count="0"/>
 </worksheet>
 </file>
--- a/src/MicroweberPackages/Translation/resources/lang_xlsx/no_NO.xlsx
+++ b/src/MicroweberPackages/Translation/resources/lang_xlsx/no_NO.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5994">
   <si>
     <t>translation_group</t>
   </si>
@@ -17115,13 +17115,13 @@
     <t>Use Microweber to build your website, online shop or blog.</t>
   </si>
   <si>
-    <t>Bruk Microweber til å bygge nettstedet ditt, nettbutikken eller bloggen.</t>
+    <t>Bruk Microweber til å bygge din nettside, nettbutikk eller blogg.</t>
   </si>
   <si>
     <t>Create and edit content, sell online, manage orders and clients.</t>
   </si>
   <si>
-    <t>Opprett og rediger innhold, selg online, administrer bestillinger og kunder.</t>
+    <t>Lag og rediger innhold, selg online, administrer bestillinger og kunder.</t>
   </si>
   <si>
     <t>Remove</t>
@@ -17133,9 +17133,6 @@
     <t>Abandoned cart's</t>
   </si>
   <si>
-    <t>Forlatt vogn</t>
-  </si>
-  <si>
     <t>You are using this template.</t>
   </si>
   <si>
@@ -17145,7 +17142,7 @@
     <t>The change will affect only the current page.</t>
   </si>
   <si>
-    <t>Endringen påvirker bare den nåværende siden.</t>
+    <t>Endringen vil bare påvirke gjeldende side.</t>
   </si>
   <si>
     <t>Allow multiple templates</t>
@@ -17157,19 +17154,19 @@
     <t>If you allow multiple templates, you will be abble to use different templates when you create a new pages.</t>
   </si>
   <si>
-    <t>Hvis du tillater flere maler, vil du kunne bruke forskjellige maler når du oppretter nye sider.</t>
+    <t>Hvis du tillater flere maler, vil du kunne bruke forskjellige maler når du oppretter en ny side.</t>
   </si>
   <si>
     <t>System e-mail website settings</t>
   </si>
   <si>
-    <t>System e-post nettstedsinnstillinger</t>
+    <t>Systeminnstillinger for e-postnettsted</t>
   </si>
   <si>
     <t>Deliver messages related with new registration, password resets and others system functionalities.</t>
   </si>
   <si>
-    <t>Lever meldinger relatert til ny registrering, tilbakestilling av passord og andre systemfunksjoner.</t>
+    <t>Levere meldinger relatert til ny registrering, tilbakestilling av passord og andre systemfunksjoner.</t>
   </si>
   <si>
     <t>From e-mail address</t>
@@ -17181,7 +17178,7 @@
     <t>Ex. Your Website Name</t>
   </si>
   <si>
-    <t>Eks. Nettstedsnavnet ditt</t>
+    <t>Eks. Ditt nettstedsnavn</t>
   </si>
   <si>
     <t>General e-mail provider settings</t>
@@ -17199,13 +17196,13 @@
     <t>The general e-mail provider will deliver all messages related with the website. Including system messages and contact form messages.</t>
   </si>
   <si>
-    <t>Den generelle e-postleverandøren vil levere alle meldinger relatert til nettstedet. Inkludert systemmeldinger og kontaktskjema meldinger.</t>
+    <t>Den generelle e-postleverandøren vil levere alle meldinger relatert til nettstedet. Inkludert systemmeldinger og kontaktskjemameldinger.</t>
   </si>
   <si>
     <t>Website Logo</t>
   </si>
   <si>
-    <t>Nettstedslogo</t>
+    <t>Nettsidelogo</t>
   </si>
   <si>
     <t>Select an logo for your website.</t>
@@ -17223,13 +17220,13 @@
     <t>Website Favicon</t>
   </si>
   <si>
-    <t>Nettsted Favicon</t>
+    <t>Nettstedfavicon</t>
   </si>
   <si>
     <t>Changing default language..</t>
   </si>
   <si>
-    <t>Endrer standardspråk ..</t>
+    <t>Endrer standardspråk..</t>
   </si>
   <si>
     <t>Clear cache..</t>
@@ -17247,6 +17244,9 @@
     <t>Users can register with temporary emails like - Mailinator, MailDrop, Guerrilla...s</t>
   </si>
   <si>
+    <t>Brukere kan registrere seg med midlertidige e-poster som - Mailinator, MailDrop, Guerrilla...s</t>
+  </si>
+  <si>
     <t>Register users can automatically receive an automatic email from you. See the settings and post your messages.</t>
   </si>
   <si>
@@ -17256,7 +17256,7 @@
     <t>Send email on new user registration to admin users</t>
   </si>
   <si>
-    <t>Send e-post om ny brukerregistrering til adminbrukere</t>
+    <t>Send e-post ved ny brukerregistrering til adminbrukere</t>
   </si>
   <si>
     <t>Do you want adminitrators to receive an e-mail when new user is registered?</t>
@@ -17268,7 +17268,7 @@
     <t>Microweber is free open source drag and drop website builder and CMS. It is under MIT license and we use Laravel PHP framework</t>
   </si>
   <si>
-    <t>Microweber er gratis åpen kildekode dra og slipp nettstedbygger og CMS. Det er under MIT-lisens, og vi bruker Laravel PHP-rammeverk</t>
+    <t>Microweber er gratis åpen kildekode dra og slipp nettstedbygger og CMS. Det er under MIT-lisens og vi bruker Laravel PHP-rammeverk</t>
   </si>
   <si>
     <t>A Slider</t>
@@ -17280,7 +17280,7 @@
     <t>Shipping to address</t>
   </si>
   <si>
-    <t>Frakt til adresse</t>
+    <t>Sendes til adresse</t>
   </si>
   <si>
     <t>Pickup from address</t>
@@ -17304,13 +17304,13 @@
     <t>You don't have system e-mail and smtp setup.</t>
   </si>
   <si>
-    <t>Du har ikke system e-post og smtp oppsett.</t>
+    <t>Du har ikke system-e-post og smtp-oppsett.</t>
   </si>
   <si>
     <t>Setup your system settings here.</t>
   </si>
   <si>
-    <t>Sett opp systeminnstillingene dine her.</t>
+    <t>Konfigurer systeminnstillingene dine her.</t>
   </si>
   <si>
     <t>Global contact form settings</t>
@@ -17334,7 +17334,7 @@
     <t>Use custom sender settings</t>
   </si>
   <si>
-    <t>Bruk tilpassede avsenderinnstillinger</t>
+    <t>Bruk egendefinerte avsenderinnstillinger</t>
   </si>
   <si>
     <t>Use custom sender settings for the global contact forms.</t>
@@ -17346,7 +17346,7 @@
     <t>By default we will use website system e-mail settings.</t>
   </si>
   <si>
-    <t>Som standard bruker vi e-postinnstillinger for nettsider.</t>
+    <t>Som standard vil vi bruke nettstedets e-postinnstillinger.</t>
   </si>
   <si>
     <t>You can change the system e-mail settings here.</t>
@@ -17364,7 +17364,7 @@
     <t>Send contact forms data to global receivers when is submited</t>
   </si>
   <si>
-    <t>Send data om kontaktskjemaer til globale mottakere når de sendes inn</t>
+    <t>Send kontaktskjemadata til globale mottakere når den sendes inn</t>
   </si>
   <si>
     <t>To e-mail addresses</t>
@@ -17376,13 +17376,13 @@
     <t>E-mail address of the receivers seperated with coma.</t>
   </si>
   <si>
-    <t>E-postadressen til mottakerne atskilt med koma.</t>
+    <t>E-postadresse til mottakerne atskilt med koma.</t>
   </si>
   <si>
     <t>Contact your hosting provider to enable PHP SOAP extension.</t>
   </si>
   <si>
-    <t>Kontakt vertsleverandøren din for å aktivere PHP SOAP-utvidelse.</t>
+    <t>Kontakt vertsleverandøren din for å aktivere PHP SOAP-utvidelsen.</t>
   </si>
   <si>
     <t>Elements</t>
@@ -17442,6 +17442,9 @@
     <t>Module template has changed</t>
   </si>
   <si>
+    <t>Modulmalen er endret</t>
+  </si>
+  <si>
     <t>Content versions</t>
   </si>
   <si>
@@ -17454,19 +17457,19 @@
     <t>Default layouts and elements</t>
   </si>
   <si>
-    <t>Standardoppsett og elementer</t>
+    <t>Standard oppsett og elementer</t>
   </si>
   <si>
     <t>Arrows List</t>
   </si>
   <si>
-    <t>Pileliste</t>
+    <t>Piler List</t>
   </si>
   <si>
     <t>Checked List</t>
   </si>
   <si>
-    <t>Kontrollert liste</t>
+    <t>Sjekket liste</t>
   </si>
   <si>
     <t>Background Text</t>
@@ -17535,22 +17538,25 @@
     <t>Add / Edit fields of the form using the custom fields</t>
   </si>
   <si>
+    <t>Legg til / rediger felt i skjemaet ved å bruke de egendefinerte feltene</t>
+  </si>
+  <si>
     <t>Current contact form settings</t>
   </si>
   <si>
-    <t>Gjeldende innstillinger for kontaktskjema</t>
+    <t>Gjeldende kontaktskjemainnstillinger</t>
   </si>
   <si>
     <t>Contact form name</t>
   </si>
   <si>
-    <t>Kontakt skjema navn</t>
+    <t>Navn på kontaktskjema</t>
   </si>
   <si>
     <t>What is the name of this contact form?</t>
   </si>
   <si>
-    <t>Hva heter dette kontaktskjemaet?</t>
+    <t>Hva er navnet på dette kontaktskjemaet?</t>
   </si>
   <si>
     <t>Receivers</t>
@@ -17562,63 +17568,63 @@
     <t>Send contact form data to custom receivers when is submited</t>
   </si>
   <si>
-    <t>Send kontaktformulardata til egendefinerte mottakere når de sendes inn</t>
+    <t>Send kontaktskjemadata til tilpassede mottakere når det sendes inn</t>
   </si>
   <si>
     <t>Use custom receivers settings for the current contact form.</t>
   </si>
   <si>
-    <t>Bruk egendefinerte mottaksinnstillinger for gjeldende kontaktskjema.</t>
+    <t>Bruk tilpassede mottakerinnstillinger for gjeldende kontaktskjema.</t>
   </si>
   <si>
     <t>By default we will use contact form global settings.</t>
   </si>
   <si>
-    <t>Som standard bruker vi kontaktskjemaets globale innstillinger.</t>
+    <t>Som standard vil vi bruke globale innstillinger for kontaktskjema.</t>
   </si>
   <si>
     <t>You can change the contact form global settings here.</t>
   </si>
   <si>
-    <t>Du kan endre kontaktskjemaets globale innstillinger her.</t>
+    <t>Du kan endre de globale innstillingene for kontaktskjemaet her.</t>
   </si>
   <si>
     <t>Auto respond message to user</t>
   </si>
   <si>
-    <t>Svar automatisk på meldingen til brukeren</t>
+    <t>Autosvar melding til bruker</t>
   </si>
   <si>
     <t>Enable auto respond message to user</t>
   </si>
   <si>
-    <t>Aktiver automatisk svarmelding til brukeren</t>
+    <t>Aktiver autosvar melding til bruker</t>
   </si>
   <si>
     <t>Allow users to receive "Thank you emails after subscription."</t>
   </si>
   <si>
-    <t>Tillat brukere å motta "Takk e-post etter abonnement."</t>
+    <t>Tillat brukere å motta «Takk-e-poster etter abonnement».</t>
   </si>
   <si>
     <t>Auto respond subject</t>
   </si>
   <si>
-    <t>Autosvar motiv</t>
+    <t>Autosvar emne</t>
   </si>
   <si>
     <t>Auto responders allows you to set up automated replies to incoming email</t>
   </si>
   <si>
+    <t>Autosvar lar deg sette opp automatiske svar på innkommende e-post</t>
+  </si>
+  <si>
     <t>Auto respond message</t>
   </si>
   <si>
     <t>Auto respond e-mail sent back to the user</t>
   </si>
   <si>
-    <t>Svar automatisk på e-post sendt tilbake til brukeren</t>
-  </si>
-  <si>
     <t>Auto respond custom sender</t>
   </si>
   <si>
@@ -17628,19 +17634,19 @@
     <t>Use custom sender settings for the current contact form.</t>
   </si>
   <si>
-    <t>Bruk tilpassede avsenderinnstillinger for det gjeldende kontaktskjemaet.</t>
+    <t>Bruk egendefinerte avsenderinnstillinger for gjeldende kontaktskjema.</t>
   </si>
   <si>
     <t>Auto respond from e-mail address</t>
   </si>
   <si>
-    <t>Svar automatisk fra e-postadresse</t>
+    <t>Autosvar fra e-postadresse</t>
   </si>
   <si>
     <t>Auto respond from name</t>
   </si>
   <si>
-    <t>Svar automatisk fra navn</t>
+    <t>Autosvar fra navn</t>
   </si>
   <si>
     <t>Auto respond reply to e-mail</t>
@@ -17649,19 +17655,19 @@
     <t>When the user receive the auto respond message they can response back to reply to email.</t>
   </si>
   <si>
-    <t>Når brukeren mottar meldingen om automatisk svar, kan de svare tilbake for å svare på e-post.</t>
+    <t>Når brukeren mottar autosvar-meldingen, kan de svare tilbake for å svare på e-post.</t>
   </si>
   <si>
     <t>Auto respond e-mail attachments</t>
   </si>
   <si>
-    <t>Svar automatisk på e-postvedlegg</t>
+    <t>Autosvar e-postvedlegg</t>
   </si>
   <si>
     <t>If you want to attach og images, you must upload them to gallery from 'Add media'</t>
   </si>
   <si>
-    <t>Hvis du vil legge ved og bilder, må du laste dem opp til galleriet fra 'Legg til media'</t>
+    <t>Hvis du vil legge ved bilder, må du laste dem opp til galleriet fra 'Legg til media'</t>
   </si>
   <si>
     <t>You don’t have any posts yet</t>
@@ -17673,7 +17679,7 @@
     <t>Create your first post right now.</t>
   </si>
   <si>
-    <t>Opprett ditt første innlegg akkurat nå.</t>
+    <t>Lag ditt første innlegg nå.</t>
   </si>
   <si>
     <t>Create a Post</t>
@@ -17693,12 +17699,12 @@
                                                             limit each one to 5-8 words.</t>
   </si>
   <si>
-    <t>Slik skriver du produktbeskrivelser som selger
-                                                    Noe av det beste du kan gjøre for å gjøre butikken din vellykket, er å bruke litt tid på å skrive gode produktbeskrivelser. Du vil gi detaljert, men kortfattet informasjon som vil lokke potensielle kunder til å kjøpe.
+    <t>Hvordan skrive produktbeskrivelser som selger
+                                                    Noe av det beste du kan gjøre for å gjøre butikken din vellykket, er å investere litt tid i å skrive gode produktbeskrivelser. Du ønsker å gi detaljert, men likevel kortfattet informasjon som vil lokke potensielle kunder til å kjøpe.
                                                     Tenk som en forbruker
-                                                    Tenk på hva du som forbruker ønsker å vite, og inkluder deretter disse funksjonene i beskrivelsen. For klær: materialer og passform. Til mat: ingredienser og hvordan den ble tilberedt. Kuler er vennene dine når du viser
-                                                   funksjoner - prøv å
-                                                            begrense hver til 5-8 ord.</t>
+                                                    Tenk på hva du som forbruker ønsker å vite, og ta med disse funksjonene i beskrivelsen. For klær: materialer og passform. For mat: ingredienser og hvordan den ble tilberedt. Punkter er vennene dine når du viser
+                                                   funksjoner – prøv å
+                                                            begrense hver enkelt til 5-8 ord.</t>
   </si>
   <si>
     <t>Admin language</t>
@@ -17707,346 +17713,259 @@
     <t>Administrasjonsspråk</t>
   </si>
   <si>
+    <t>Add post</t>
+  </si>
+  <si>
+    <t>Add subpage</t>
+  </si>
+  <si>
+    <t>Legg til underside</t>
+  </si>
+  <si>
+    <t>Category deleted</t>
+  </si>
+  <si>
+    <t>Kategori slettet</t>
+  </si>
+  <si>
+    <t>Content deleted</t>
+  </si>
+  <si>
+    <t>Innhold slettet</t>
+  </si>
+  <si>
+    <t>Search categories</t>
+  </si>
+  <si>
+    <t>Søk i kategorier</t>
+  </si>
+  <si>
+    <t>Create content</t>
+  </si>
+  <si>
+    <t>Lag innhold</t>
+  </si>
+  <si>
+    <t>Card</t>
+  </si>
+  <si>
+    <t>Any</t>
+  </si>
+  <si>
+    <t>Noen</t>
+  </si>
+  <si>
+    <t>Id Desc</t>
+  </si>
+  <si>
+    <t>Id Asc</t>
+  </si>
+  <si>
     <t>Limit</t>
   </si>
   <si>
+    <t>Are you sure want to delete?</t>
+  </si>
+  <si>
+    <t>You don’t have any products in</t>
+  </si>
+  <si>
+    <t>Du har ingen produkter inne</t>
+  </si>
+  <si>
+    <t>Back to</t>
+  </si>
+  <si>
+    <t>Tilbake til</t>
+  </si>
+  <si>
+    <t>categories</t>
+  </si>
+  <si>
+    <t>kategorier</t>
+  </si>
+  <si>
+    <t>Custom fields are saved</t>
+  </si>
+  <si>
+    <t>Egendefinerte felt lagres</t>
+  </si>
+  <si>
+    <t>Existing fields</t>
+  </si>
+  <si>
+    <t>Eksisterende felt</t>
+  </si>
+  <si>
+    <t>Choose from your existing fields bellow</t>
+  </si>
+  <si>
+    <t>Velg fra de eksisterende feltene nedenfor</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Add new fields</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Legg til nye felt</t>
+  </si>
+  <si>
+    <t>Add new custom field from list bellow</t>
+  </si>
+  <si>
+    <t>Legg til nytt tilpasset felt fra listen nedenfor</t>
+  </si>
+  <si>
+    <t>Your fields</t>
+  </si>
+  <si>
+    <t>Dine felt</t>
+  </si>
+  <si>
+    <t>List of your added custom fields</t>
+  </si>
+  <si>
+    <t>Liste over de egendefinerte feltene du har lagt til</t>
+  </si>
+  <si>
+    <t>Stock</t>
+  </si>
+  <si>
+    <t>Lager</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>Blog</t>
+  </si>
+  <si>
+    <t>Blogg</t>
+  </si>
+  <si>
+    <t>Browser Redirect</t>
+  </si>
+  <si>
+    <t>Nettleserviderekobling</t>
+  </si>
+  <si>
+    <t>Integration</t>
+  </si>
+  <si>
+    <t>Integrering</t>
+  </si>
+  <si>
+    <t>Import Export Tool</t>
+  </si>
+  <si>
+    <t>Importer eksportverktøy</t>
+  </si>
+  <si>
+    <t>Standalone Updater</t>
+  </si>
+  <si>
+    <t>Frittstående oppdatering</t>
+  </si>
+  <si>
+    <t>Preview package</t>
+  </si>
+  <si>
+    <t>Forhåndsvisningspakke</t>
+  </si>
+  <si>
+    <t>Demo</t>
+  </si>
+  <si>
+    <t>Use</t>
+  </si>
+  <si>
+    <t>Bruk</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Nåværende</t>
+  </si>
+  <si>
+    <t>Express</t>
+  </si>
+  <si>
+    <t>Uttrykke</t>
+  </si>
+  <si>
+    <t>First Class</t>
+  </si>
+  <si>
+    <t>Førsteklasses</t>
+  </si>
+  <si>
+    <t>Click &amp; Collect</t>
+  </si>
+  <si>
+    <t>Klikk og hent</t>
+  </si>
+  <si>
+    <t>Video Background</t>
+  </si>
+  <si>
+    <t>Videobakgrunn</t>
+  </si>
+  <si>
+    <t>Multi-Language</t>
+  </si>
+  <si>
+    <t>You can activate the Multi-language module to use multiple languages</t>
+  </si>
+  <si>
+    <t>Du kan aktivere flerspråksmodulen for å bruke flere språk</t>
+  </si>
+  <si>
+    <t>Multi language mode</t>
+  </si>
+  <si>
+    <t>Flerspråklig modus</t>
+  </si>
+  <si>
+    <t>Activate the multi-language mode to have multiple languages for your content.</t>
+  </si>
+  <si>
+    <t>Aktiver flerspråksmodus for å ha flere språk for innholdet ditt.</t>
+  </si>
+  <si>
+    <t>Translations are imported</t>
+  </si>
+  <si>
+    <t>Oversettelser importeres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Translations not found in database. Do you wish to import translations? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finner ikke oversettelser i databasen. Ønsker du å importere oversettelser? </t>
+  </si>
+  <si>
+    <t>Your cart is empty.</t>
+  </si>
+  <si>
+    <t>Vognen din er tom.</t>
+  </si>
+  <si>
     <t>Code Editor</t>
   </si>
   <si>
     <t>Koderedigerer</t>
   </si>
   <si>
-    <t>Blog</t>
-  </si>
-  <si>
-    <t>Blogg</t>
-  </si>
-  <si>
-    <t>titles</t>
-  </si>
-  <si>
-    <t>titler</t>
-  </si>
-  <si>
-    <t>Titles 1</t>
-  </si>
-  <si>
-    <t>Titler 1</t>
-  </si>
-  <si>
-    <t>Titles 2</t>
-  </si>
-  <si>
-    <t>Titler 2</t>
-  </si>
-  <si>
-    <t>Titles 3</t>
-  </si>
-  <si>
-    <t>Titler 3</t>
-  </si>
-  <si>
-    <t>Titles 4</t>
-  </si>
-  <si>
-    <t>Titler 4</t>
-  </si>
-  <si>
-    <t>Titles 5</t>
-  </si>
-  <si>
-    <t>Titler 5</t>
-  </si>
-  <si>
-    <t>Titles 6</t>
-  </si>
-  <si>
-    <t>Titler 6</t>
-  </si>
-  <si>
-    <t>Titles 7</t>
-  </si>
-  <si>
-    <t>Titler 7</t>
-  </si>
-  <si>
-    <t>Titles 8</t>
-  </si>
-  <si>
-    <t>Titler 8</t>
-  </si>
-  <si>
-    <t>text block</t>
-  </si>
-  <si>
-    <t>tekstblokk</t>
-  </si>
-  <si>
-    <t>Text block 1</t>
-  </si>
-  <si>
-    <t>Tekstblokk 1</t>
-  </si>
-  <si>
-    <t>Text block 2</t>
-  </si>
-  <si>
-    <t>Tekstblokk 2</t>
-  </si>
-  <si>
-    <t>Text block 3</t>
-  </si>
-  <si>
-    <t>Tekstblokk 3</t>
-  </si>
-  <si>
-    <t>Text block 4</t>
-  </si>
-  <si>
-    <t>Tekstblokk 4</t>
-  </si>
-  <si>
-    <t>Text block 5</t>
-  </si>
-  <si>
-    <t>Tekstblokk 5</t>
-  </si>
-  <si>
-    <t>Text block 6</t>
-  </si>
-  <si>
-    <t>Tekstblokk 6</t>
-  </si>
-  <si>
-    <t>Text block 7</t>
-  </si>
-  <si>
-    <t>Tekstblokk 7</t>
-  </si>
-  <si>
-    <t>Text block 8</t>
-  </si>
-  <si>
-    <t>Tekstblokk 8</t>
-  </si>
-  <si>
-    <t>Text block 9</t>
-  </si>
-  <si>
-    <t>Tekstblokk 9</t>
-  </si>
-  <si>
-    <t>Text block 10</t>
-  </si>
-  <si>
-    <t>Tekstblokk 10</t>
-  </si>
-  <si>
-    <t>Text block 11</t>
-  </si>
-  <si>
-    <t>Tekstblokk 11</t>
-  </si>
-  <si>
-    <t>Text block 12</t>
-  </si>
-  <si>
-    <t>Tekstblokk 12</t>
-  </si>
-  <si>
-    <t>Text block 13</t>
-  </si>
-  <si>
-    <t>Tekstblokk 13</t>
-  </si>
-  <si>
-    <t>Text block 14</t>
-  </si>
-  <si>
-    <t>Tekstblokk 14</t>
-  </si>
-  <si>
-    <t>Text block 15</t>
-  </si>
-  <si>
-    <t>Tekstblokk 15</t>
-  </si>
-  <si>
-    <t>features</t>
-  </si>
-  <si>
-    <t>egenskaper</t>
-  </si>
-  <si>
-    <t>Features 1</t>
-  </si>
-  <si>
-    <t>Funksjoner 1</t>
-  </si>
-  <si>
-    <t>Features 2</t>
-  </si>
-  <si>
-    <t>Funksjoner 2</t>
-  </si>
-  <si>
-    <t>Features 3</t>
-  </si>
-  <si>
-    <t>Funksjoner 3</t>
-  </si>
-  <si>
-    <t>Features 4</t>
-  </si>
-  <si>
-    <t>Funksjoner 4</t>
-  </si>
-  <si>
-    <t>grids</t>
-  </si>
-  <si>
-    <t>rutenett</t>
-  </si>
-  <si>
-    <t>menu</t>
-  </si>
-  <si>
-    <t>Menu - skin-1</t>
-  </si>
-  <si>
-    <t>Meny - hud-1</t>
-  </si>
-  <si>
-    <t>Menu - skin-2</t>
-  </si>
-  <si>
-    <t>Meny - hud-2</t>
-  </si>
-  <si>
-    <t>Menu - skin-3</t>
-  </si>
-  <si>
-    <t>Meny - hud-3</t>
-  </si>
-  <si>
-    <t>Menu - skin-4</t>
-  </si>
-  <si>
-    <t>Meny - hud-4</t>
-  </si>
-  <si>
-    <t>Menu - skin-5</t>
-  </si>
-  <si>
-    <t>Meny - hud-5</t>
-  </si>
-  <si>
-    <t>footers</t>
-  </si>
-  <si>
-    <t>bunntekster</t>
-  </si>
-  <si>
-    <t>Footers 1</t>
-  </si>
-  <si>
-    <t>Bunntekst 1</t>
-  </si>
-  <si>
-    <t>Footers 2</t>
-  </si>
-  <si>
-    <t>Bunntekst 2</t>
-  </si>
-  <si>
-    <t>Footers 3</t>
-  </si>
-  <si>
-    <t>Bunntekst 3</t>
-  </si>
-  <si>
-    <t>Footers 4</t>
-  </si>
-  <si>
-    <t>Bunntekst 4</t>
-  </si>
-  <si>
-    <t>other</t>
-  </si>
-  <si>
-    <t>annen</t>
-  </si>
-  <si>
-    <t>jumbotron</t>
-  </si>
-  <si>
-    <t>Jumbotron 1</t>
-  </si>
-  <si>
-    <t>pricing</t>
-  </si>
-  <si>
-    <t>prissetting</t>
-  </si>
-  <si>
-    <t>Pricing 1</t>
-  </si>
-  <si>
-    <t>Pris 1</t>
-  </si>
-  <si>
     <t>Default layouts</t>
   </si>
   <si>
     <t>Standardoppsett</t>
   </si>
   <si>
-    <t>No Content Here</t>
-  </si>
-  <si>
-    <t>Ikke noe innhold her</t>
-  </si>
-  <si>
-    <t>Custom fields are saved</t>
-  </si>
-  <si>
-    <t>Egendefinerte felt lagres</t>
-  </si>
-  <si>
-    <t>Existing fields</t>
-  </si>
-  <si>
-    <t>Eksisterende felt</t>
-  </si>
-  <si>
-    <t>Choose from your existing fields bellow</t>
-  </si>
-  <si>
-    <t>Velg fra de eksisterende feltene nedenfor</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Add new fields</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Legg til nye felt</t>
-  </si>
-  <si>
-    <t>Add new custom field from list bellow</t>
-  </si>
-  <si>
-    <t>Legg til nytt tilpasset felt fra listen nedenfor</t>
-  </si>
-  <si>
-    <t>Your fields</t>
-  </si>
-  <si>
-    <t>Dine felt</t>
-  </si>
-  <si>
-    <t>List of your added custom fields</t>
-  </si>
-  <si>
-    <t>Liste over de egendefinerte feltene du har lagt til</t>
+    <t>New import</t>
+  </si>
+  <si>
+    <t>Ny import</t>
   </si>
   <si>
     <t xml:space="preserve">repeat vertically </t>
@@ -18092,489 +18011,6 @@
   </si>
   <si>
     <t>Laster inn stiler på nytt</t>
-  </si>
-  <si>
-    <t>Links to</t>
-  </si>
-  <si>
-    <t>Lenker til</t>
-  </si>
-  <si>
-    <t>Preview package</t>
-  </si>
-  <si>
-    <t>Forhåndsvisningspakke</t>
-  </si>
-  <si>
-    <t>Demo</t>
-  </si>
-  <si>
-    <t>Use</t>
-  </si>
-  <si>
-    <t>Bruk</t>
-  </si>
-  <si>
-    <t>Current</t>
-  </si>
-  <si>
-    <t>Nåværende</t>
-  </si>
-  <si>
-    <t>Reorder</t>
-  </si>
-  <si>
-    <t>Bestill på nytt</t>
-  </si>
-  <si>
-    <t>System</t>
-  </si>
-  <si>
-    <t>Browser Redirect</t>
-  </si>
-  <si>
-    <t>Nettleserviderekobling</t>
-  </si>
-  <si>
-    <t>Integration</t>
-  </si>
-  <si>
-    <t>Integrering</t>
-  </si>
-  <si>
-    <t>Standalone Updater</t>
-  </si>
-  <si>
-    <t>Frittstående oppdatering</t>
-  </si>
-  <si>
-    <t>You need license key to install this package</t>
-  </si>
-  <si>
-    <t>Du trenger lisensnøkkel for å installere denne pakken</t>
-  </si>
-  <si>
-    <t>This package is premium and you must have a license key to install it</t>
-  </si>
-  <si>
-    <t>Denne pakken er premium og du må ha en lisensnøkkel for å installere den</t>
-  </si>
-  <si>
-    <t>You need license key</t>
-  </si>
-  <si>
-    <t>Du trenger lisensnøkkel</t>
-  </si>
-  <si>
-    <t>License activated</t>
-  </si>
-  <si>
-    <t>Lisens aktivert</t>
-  </si>
-  <si>
-    <t>Reloading page</t>
-  </si>
-  <si>
-    <t>Laster inn siden på nytt</t>
-  </si>
-  <si>
-    <t>License not activated</t>
-  </si>
-  <si>
-    <t>Lisens ikke aktivert</t>
-  </si>
-  <si>
-    <t>Url</t>
-  </si>
-  <si>
-    <t>System updates</t>
-  </si>
-  <si>
-    <t>Systemoppdateringer</t>
-  </si>
-  <si>
-    <t>Check for system updates</t>
-  </si>
-  <si>
-    <t>Se etter systemoppdateringer</t>
-  </si>
-  <si>
-    <t>Back to list</t>
-  </si>
-  <si>
-    <t>Tilbake til listen</t>
-  </si>
-  <si>
-    <t>The category must have a name</t>
-  </si>
-  <si>
-    <t>Kategorien må ha et navn</t>
-  </si>
-  <si>
-    <t>Is category hidden?</t>
-  </si>
-  <si>
-    <t>Er kategori skjult?</t>
-  </si>
-  <si>
-    <t>If you set this to YES this category will be hidden from the website</t>
-  </si>
-  <si>
-    <t>Hvis du setter dette til JA, vil denne kategorien bli skjult fra nettstedet</t>
-  </si>
-  <si>
-    <t>template-big</t>
-  </si>
-  <si>
-    <t>Mentioning</t>
-  </si>
-  <si>
-    <t>Omtale</t>
-  </si>
-  <si>
-    <t>Your cart is empty.</t>
-  </si>
-  <si>
-    <t>Vognen din er tom.</t>
-  </si>
-  <si>
-    <t>Results found</t>
-  </si>
-  <si>
-    <t>Resultater funnet</t>
-  </si>
-  <si>
-    <t>If you choose the Percent from the select field, it will be calculated automatically from the Price and Offer price of the product.</t>
-  </si>
-  <si>
-    <t>Hvis du velger Prosent fra utvalgsfeltet, beregnes den automatisk fra prisen og tilbudsprisen på produktet.</t>
-  </si>
-  <si>
-    <t>أضف منتج</t>
-  </si>
-  <si>
-    <t>validation</t>
-  </si>
-  <si>
-    <t>custom.multilanguage.title.en_US.required</t>
-  </si>
-  <si>
-    <t>values.multilanguage.title.en_US.</t>
-  </si>
-  <si>
-    <t>تحرير المنتج</t>
-  </si>
-  <si>
-    <t>iuiuui</t>
-  </si>
-  <si>
-    <t>Proceed to Checkout</t>
-  </si>
-  <si>
-    <t>Fortsett til utsjekking</t>
-  </si>
-  <si>
-    <t>تحرير آخر</t>
-  </si>
-  <si>
-    <t>Displaying</t>
-  </si>
-  <si>
-    <t>Viser</t>
-  </si>
-  <si>
-    <t>of</t>
-  </si>
-  <si>
-    <t>result(s)</t>
-  </si>
-  <si>
-    <t>resultat(er)</t>
-  </si>
-  <si>
-    <t>Page Title - Right Breadcrumb</t>
-  </si>
-  <si>
-    <t>Sidetittel - Høyre brødsmule</t>
-  </si>
-  <si>
-    <t>Page Title - Left Breadcrumb</t>
-  </si>
-  <si>
-    <t>Sidetittel - venstre brødsmule</t>
-  </si>
-  <si>
-    <t>Terms of use</t>
-  </si>
-  <si>
-    <t>Vilkår for bruk</t>
-  </si>
-  <si>
-    <t>Delivery and returns</t>
-  </si>
-  <si>
-    <t>Levering og retur</t>
-  </si>
-  <si>
-    <t>Shipping information</t>
-  </si>
-  <si>
-    <t>About 1</t>
-  </si>
-  <si>
-    <t>Omtrent 1</t>
-  </si>
-  <si>
-    <t>About 2</t>
-  </si>
-  <si>
-    <t>Omtrent 2</t>
-  </si>
-  <si>
-    <t>About 3</t>
-  </si>
-  <si>
-    <t>Omtrent 3</t>
-  </si>
-  <si>
-    <t>Home 1</t>
-  </si>
-  <si>
-    <t>Hjem 1</t>
-  </si>
-  <si>
-    <t>Home 2</t>
-  </si>
-  <si>
-    <t>Hjem 2</t>
-  </si>
-  <si>
-    <t>You must click the apply template button to change your template</t>
-  </si>
-  <si>
-    <t>Du må klikke på bruk mal-knappen for å endre malen</t>
-  </si>
-  <si>
-    <t>Search by criteria</t>
-  </si>
-  <si>
-    <t>Søk etter kriterier</t>
-  </si>
-  <si>
-    <t>Order ID</t>
-  </si>
-  <si>
-    <t>Date from</t>
-  </si>
-  <si>
-    <t>Dato fra</t>
-  </si>
-  <si>
-    <t>Set the orders from date</t>
-  </si>
-  <si>
-    <t>Still inn bestillingene fra dato</t>
-  </si>
-  <si>
-    <t>Date to</t>
-  </si>
-  <si>
-    <t>Date til</t>
-  </si>
-  <si>
-    <t>Set the orders to date</t>
-  </si>
-  <si>
-    <t>Sett bestillingene til dags dato</t>
-  </si>
-  <si>
-    <t>Order amount from</t>
-  </si>
-  <si>
-    <t>Bestillingsbeløp fra</t>
-  </si>
-  <si>
-    <t>Show the order with minimum amount</t>
-  </si>
-  <si>
-    <t>Vis bestillingen med minimumsbeløp</t>
-  </si>
-  <si>
-    <t>Order amount to</t>
-  </si>
-  <si>
-    <t>Ordrebeløp til</t>
-  </si>
-  <si>
-    <t>Show the order with maximum amount</t>
-  </si>
-  <si>
-    <t>Vis bestillingen med maksimumsbeløp</t>
-  </si>
-  <si>
-    <t>Search by products...</t>
-  </si>
-  <si>
-    <t>Søk etter produkter...</t>
-  </si>
-  <si>
-    <t>Search by products</t>
-  </si>
-  <si>
-    <t>Payment Status</t>
-  </si>
-  <si>
-    <t>Betalingsstatus</t>
-  </si>
-  <si>
-    <t>Free search by phone, name, email etc...</t>
-  </si>
-  <si>
-    <t>Gratis søk på telefon, navn, e-post osv...</t>
-  </si>
-  <si>
-    <t>Submit this criteria</t>
-  </si>
-  <si>
-    <t>Send inn dette kriteriet</t>
-  </si>
-  <si>
-    <t>Reset filter</t>
-  </si>
-  <si>
-    <t>Tilbakestill filter</t>
-  </si>
-  <si>
-    <t>Export all</t>
-  </si>
-  <si>
-    <t>Eksporter alt</t>
-  </si>
-  <si>
-    <t>Select sorting</t>
-  </si>
-  <si>
-    <t>Velg sortering</t>
-  </si>
-  <si>
-    <t>Order date</t>
-  </si>
-  <si>
-    <t>Bestillingsdato</t>
-  </si>
-  <si>
-    <t>[New &gt; Old]</t>
-  </si>
-  <si>
-    <t>[Ny &gt; Gammel]</t>
-  </si>
-  <si>
-    <t>[Old &gt; New]</t>
-  </si>
-  <si>
-    <t>[Gammel &gt; Ny]</t>
-  </si>
-  <si>
-    <t>[High &gt; Low]</t>
-  </si>
-  <si>
-    <t>[Høy &gt; Lav]</t>
-  </si>
-  <si>
-    <t>[Low &gt; High]</t>
-  </si>
-  <si>
-    <t>[Lav &gt; Høy]</t>
-  </si>
-  <si>
-    <t>Order completed</t>
-  </si>
-  <si>
-    <t>Bestilling fullført</t>
-  </si>
-  <si>
-    <t>translations from the multilnaguage module have been found in your database.</t>
-  </si>
-  <si>
-    <t>oversettelser fra flerspråksmodulen er funnet i databasen din.</t>
-  </si>
-  <si>
-    <t>Warning! Changing the default language can break translations on your site.</t>
-  </si>
-  <si>
-    <t>Advarsel! Endring av standardspråk kan ødelegge oversettelser på nettstedet ditt.</t>
-  </si>
-  <si>
-    <t>Are you sure want to continue?</t>
-  </si>
-  <si>
-    <t>Er du sikker på at du vil fortsette?</t>
-  </si>
-  <si>
-    <t>Warning! The changing default language maybe will break your site.</t>
-  </si>
-  <si>
-    <t>Advarsel! Det endrede standardspråket vil kanskje ødelegge nettstedet ditt.</t>
-  </si>
-  <si>
-    <t>Shipping details</t>
-  </si>
-  <si>
-    <t>Fraktdetaljer</t>
-  </si>
-  <si>
-    <t>Shipping type</t>
-  </si>
-  <si>
-    <t>Frakttype</t>
-  </si>
-  <si>
-    <t>the order is not completed yet</t>
-  </si>
-  <si>
-    <t>bestillingen er ikke fullført ennå</t>
-  </si>
-  <si>
-    <t>the order is completed</t>
-  </si>
-  <si>
-    <t>bestillingen er fullført</t>
-  </si>
-  <si>
-    <t>Created at</t>
-  </si>
-  <si>
-    <t>Opprettet kl</t>
-  </si>
-  <si>
-    <t>Updated at</t>
-  </si>
-  <si>
-    <t>Oppdatert kl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quick view </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hurtigvisning </t>
-  </si>
-  <si>
-    <t>Replace language values</t>
-  </si>
-  <si>
-    <t>Bytt ut språkverdier</t>
-  </si>
-  <si>
-    <t>Translations are imported</t>
-  </si>
-  <si>
-    <t>Oversettelser importeres</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Translations not found in database. Do you wish to import translations? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Finner ikke oversettelser i databasen. Ønsker du å importere oversettelser? </t>
   </si>
 </sst>
 </file>
@@ -18910,7 +18346,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E3217"/>
+  <dimension ref="A1:E3119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -69300,7 +68736,7 @@
         <v>5703</v>
       </c>
       <c r="D2964" t="s">
-        <v>5704</v>
+        <v>1384</v>
       </c>
       <c r="E2964" t="s">
         <v>8</v>
@@ -69314,10 +68750,10 @@
         <v>5</v>
       </c>
       <c r="C2965" t="s">
+        <v>5704</v>
+      </c>
+      <c r="D2965" t="s">
         <v>5705</v>
-      </c>
-      <c r="D2965" t="s">
-        <v>5706</v>
       </c>
       <c r="E2965" t="s">
         <v>8</v>
@@ -69331,10 +68767,10 @@
         <v>5</v>
       </c>
       <c r="C2966" t="s">
+        <v>5706</v>
+      </c>
+      <c r="D2966" t="s">
         <v>5707</v>
-      </c>
-      <c r="D2966" t="s">
-        <v>5708</v>
       </c>
       <c r="E2966" t="s">
         <v>8</v>
@@ -69348,10 +68784,10 @@
         <v>5</v>
       </c>
       <c r="C2967" t="s">
+        <v>5708</v>
+      </c>
+      <c r="D2967" t="s">
         <v>5709</v>
-      </c>
-      <c r="D2967" t="s">
-        <v>5710</v>
       </c>
       <c r="E2967" t="s">
         <v>8</v>
@@ -69365,10 +68801,10 @@
         <v>5</v>
       </c>
       <c r="C2968" t="s">
+        <v>5710</v>
+      </c>
+      <c r="D2968" t="s">
         <v>5711</v>
-      </c>
-      <c r="D2968" t="s">
-        <v>5712</v>
       </c>
       <c r="E2968" t="s">
         <v>8</v>
@@ -69382,10 +68818,10 @@
         <v>5</v>
       </c>
       <c r="C2969" t="s">
+        <v>5712</v>
+      </c>
+      <c r="D2969" t="s">
         <v>5713</v>
-      </c>
-      <c r="D2969" t="s">
-        <v>5714</v>
       </c>
       <c r="E2969" t="s">
         <v>8</v>
@@ -69399,10 +68835,10 @@
         <v>5</v>
       </c>
       <c r="C2970" t="s">
+        <v>5714</v>
+      </c>
+      <c r="D2970" t="s">
         <v>5715</v>
-      </c>
-      <c r="D2970" t="s">
-        <v>5716</v>
       </c>
       <c r="E2970" t="s">
         <v>8</v>
@@ -69416,10 +68852,10 @@
         <v>5</v>
       </c>
       <c r="C2971" t="s">
+        <v>5716</v>
+      </c>
+      <c r="D2971" t="s">
         <v>5717</v>
-      </c>
-      <c r="D2971" t="s">
-        <v>5718</v>
       </c>
       <c r="E2971" t="s">
         <v>8</v>
@@ -69433,10 +68869,10 @@
         <v>5</v>
       </c>
       <c r="C2972" t="s">
+        <v>5718</v>
+      </c>
+      <c r="D2972" t="s">
         <v>5719</v>
-      </c>
-      <c r="D2972" t="s">
-        <v>5720</v>
       </c>
       <c r="E2972" t="s">
         <v>8</v>
@@ -69450,10 +68886,10 @@
         <v>5</v>
       </c>
       <c r="C2973" t="s">
+        <v>5720</v>
+      </c>
+      <c r="D2973" t="s">
         <v>5721</v>
-      </c>
-      <c r="D2973" t="s">
-        <v>5722</v>
       </c>
       <c r="E2973" t="s">
         <v>8</v>
@@ -69467,10 +68903,10 @@
         <v>5</v>
       </c>
       <c r="C2974" t="s">
+        <v>5722</v>
+      </c>
+      <c r="D2974" t="s">
         <v>5723</v>
-      </c>
-      <c r="D2974" t="s">
-        <v>5724</v>
       </c>
       <c r="E2974" t="s">
         <v>8</v>
@@ -69484,10 +68920,10 @@
         <v>5</v>
       </c>
       <c r="C2975" t="s">
+        <v>5724</v>
+      </c>
+      <c r="D2975" t="s">
         <v>5725</v>
-      </c>
-      <c r="D2975" t="s">
-        <v>5726</v>
       </c>
       <c r="E2975" t="s">
         <v>8</v>
@@ -69501,10 +68937,10 @@
         <v>5</v>
       </c>
       <c r="C2976" t="s">
+        <v>5726</v>
+      </c>
+      <c r="D2976" t="s">
         <v>5727</v>
-      </c>
-      <c r="D2976" t="s">
-        <v>5728</v>
       </c>
       <c r="E2976" t="s">
         <v>8</v>
@@ -69518,10 +68954,10 @@
         <v>5</v>
       </c>
       <c r="C2977" t="s">
+        <v>5728</v>
+      </c>
+      <c r="D2977" t="s">
         <v>5729</v>
-      </c>
-      <c r="D2977" t="s">
-        <v>5730</v>
       </c>
       <c r="E2977" t="s">
         <v>8</v>
@@ -69535,10 +68971,10 @@
         <v>5</v>
       </c>
       <c r="C2978" t="s">
+        <v>5730</v>
+      </c>
+      <c r="D2978" t="s">
         <v>5731</v>
-      </c>
-      <c r="D2978" t="s">
-        <v>5732</v>
       </c>
       <c r="E2978" t="s">
         <v>8</v>
@@ -69552,10 +68988,10 @@
         <v>5</v>
       </c>
       <c r="C2979" t="s">
+        <v>5732</v>
+      </c>
+      <c r="D2979" t="s">
         <v>5733</v>
-      </c>
-      <c r="D2979" t="s">
-        <v>5734</v>
       </c>
       <c r="E2979" t="s">
         <v>8</v>
@@ -69569,10 +69005,10 @@
         <v>5</v>
       </c>
       <c r="C2980" t="s">
+        <v>5734</v>
+      </c>
+      <c r="D2980" t="s">
         <v>5735</v>
-      </c>
-      <c r="D2980" t="s">
-        <v>5736</v>
       </c>
       <c r="E2980" t="s">
         <v>8</v>
@@ -69586,10 +69022,10 @@
         <v>5</v>
       </c>
       <c r="C2981" t="s">
+        <v>5736</v>
+      </c>
+      <c r="D2981" t="s">
         <v>5737</v>
-      </c>
-      <c r="D2981" t="s">
-        <v>5738</v>
       </c>
       <c r="E2981" t="s">
         <v>8</v>
@@ -69603,10 +69039,10 @@
         <v>5</v>
       </c>
       <c r="C2982" t="s">
+        <v>5738</v>
+      </c>
+      <c r="D2982" t="s">
         <v>5739</v>
-      </c>
-      <c r="D2982" t="s">
-        <v>5740</v>
       </c>
       <c r="E2982" t="s">
         <v>8</v>
@@ -69620,10 +69056,10 @@
         <v>5</v>
       </c>
       <c r="C2983" t="s">
+        <v>5740</v>
+      </c>
+      <c r="D2983" t="s">
         <v>5741</v>
-      </c>
-      <c r="D2983" t="s">
-        <v>3821</v>
       </c>
       <c r="E2983" t="s">
         <v>8</v>
@@ -70218,7 +69654,7 @@
         <v>5806</v>
       </c>
       <c r="D3018" t="s">
-        <v>2884</v>
+        <v>5807</v>
       </c>
       <c r="E3018" t="s">
         <v>8</v>
@@ -70232,10 +69668,10 @@
         <v>5</v>
       </c>
       <c r="C3019" t="s">
-        <v>5807</v>
+        <v>5808</v>
       </c>
       <c r="D3019" t="s">
-        <v>5808</v>
+        <v>5809</v>
       </c>
       <c r="E3019" t="s">
         <v>8</v>
@@ -70249,7 +69685,7 @@
         <v>5</v>
       </c>
       <c r="C3020" t="s">
-        <v>5809</v>
+        <v>5810</v>
       </c>
       <c r="D3020" t="s">
         <v>1556</v>
@@ -70266,10 +69702,10 @@
         <v>5</v>
       </c>
       <c r="C3021" t="s">
-        <v>5810</v>
+        <v>5811</v>
       </c>
       <c r="D3021" t="s">
-        <v>5811</v>
+        <v>5812</v>
       </c>
       <c r="E3021" t="s">
         <v>8</v>
@@ -70283,10 +69719,10 @@
         <v>5</v>
       </c>
       <c r="C3022" t="s">
-        <v>5812</v>
+        <v>5813</v>
       </c>
       <c r="D3022" t="s">
-        <v>5813</v>
+        <v>5814</v>
       </c>
       <c r="E3022" t="s">
         <v>8</v>
@@ -70300,10 +69736,10 @@
         <v>5</v>
       </c>
       <c r="C3023" t="s">
-        <v>5814</v>
+        <v>5815</v>
       </c>
       <c r="D3023" t="s">
-        <v>5815</v>
+        <v>5816</v>
       </c>
       <c r="E3023" t="s">
         <v>8</v>
@@ -70317,10 +69753,10 @@
         <v>5</v>
       </c>
       <c r="C3024" t="s">
-        <v>5816</v>
+        <v>5817</v>
       </c>
       <c r="D3024" t="s">
-        <v>5817</v>
+        <v>5818</v>
       </c>
       <c r="E3024" t="s">
         <v>8</v>
@@ -70334,10 +69770,10 @@
         <v>5</v>
       </c>
       <c r="C3025" t="s">
-        <v>5818</v>
+        <v>5819</v>
       </c>
       <c r="D3025" t="s">
-        <v>5819</v>
+        <v>5820</v>
       </c>
       <c r="E3025" t="s">
         <v>8</v>
@@ -70351,10 +69787,10 @@
         <v>5</v>
       </c>
       <c r="C3026" t="s">
-        <v>5820</v>
+        <v>5821</v>
       </c>
       <c r="D3026" t="s">
-        <v>5821</v>
+        <v>5822</v>
       </c>
       <c r="E3026" t="s">
         <v>8</v>
@@ -70368,10 +69804,10 @@
         <v>5</v>
       </c>
       <c r="C3027" t="s">
-        <v>5822</v>
+        <v>5823</v>
       </c>
       <c r="D3027" t="s">
-        <v>5823</v>
+        <v>5824</v>
       </c>
       <c r="E3027" t="s">
         <v>8</v>
@@ -70385,10 +69821,10 @@
         <v>5</v>
       </c>
       <c r="C3028" t="s">
-        <v>5824</v>
+        <v>5825</v>
       </c>
       <c r="D3028" t="s">
-        <v>5825</v>
+        <v>5826</v>
       </c>
       <c r="E3028" t="s">
         <v>8</v>
@@ -70402,10 +69838,10 @@
         <v>5</v>
       </c>
       <c r="C3029" t="s">
-        <v>5826</v>
+        <v>5827</v>
       </c>
       <c r="D3029" t="s">
-        <v>5827</v>
+        <v>5828</v>
       </c>
       <c r="E3029" t="s">
         <v>8</v>
@@ -70419,10 +69855,10 @@
         <v>5</v>
       </c>
       <c r="C3030" t="s">
-        <v>5828</v>
+        <v>5829</v>
       </c>
       <c r="D3030" t="s">
-        <v>5829</v>
+        <v>5830</v>
       </c>
       <c r="E3030" t="s">
         <v>8</v>
@@ -70436,7 +69872,7 @@
         <v>5</v>
       </c>
       <c r="C3031" t="s">
-        <v>5830</v>
+        <v>5831</v>
       </c>
       <c r="D3031" t="s">
         <v>1112</v>
@@ -70453,10 +69889,10 @@
         <v>5</v>
       </c>
       <c r="C3032" t="s">
-        <v>5831</v>
+        <v>5832</v>
       </c>
       <c r="D3032" t="s">
-        <v>5832</v>
+        <v>5833</v>
       </c>
       <c r="E3032" t="s">
         <v>8</v>
@@ -70470,10 +69906,10 @@
         <v>5</v>
       </c>
       <c r="C3033" t="s">
-        <v>5833</v>
+        <v>5834</v>
       </c>
       <c r="D3033" t="s">
-        <v>5834</v>
+        <v>5835</v>
       </c>
       <c r="E3033" t="s">
         <v>8</v>
@@ -70487,10 +69923,10 @@
         <v>5</v>
       </c>
       <c r="C3034" t="s">
-        <v>5835</v>
+        <v>5836</v>
       </c>
       <c r="D3034" t="s">
-        <v>5836</v>
+        <v>5837</v>
       </c>
       <c r="E3034" t="s">
         <v>8</v>
@@ -70504,10 +69940,10 @@
         <v>5</v>
       </c>
       <c r="C3035" t="s">
-        <v>5837</v>
+        <v>5838</v>
       </c>
       <c r="D3035" t="s">
-        <v>4917</v>
+        <v>5839</v>
       </c>
       <c r="E3035" t="s">
         <v>8</v>
@@ -70521,10 +69957,10 @@
         <v>5</v>
       </c>
       <c r="C3036" t="s">
-        <v>5838</v>
+        <v>5840</v>
       </c>
       <c r="D3036" t="s">
-        <v>5839</v>
+        <v>5841</v>
       </c>
       <c r="E3036" t="s">
         <v>8</v>
@@ -70538,10 +69974,10 @@
         <v>5</v>
       </c>
       <c r="C3037" t="s">
-        <v>5840</v>
+        <v>5842</v>
       </c>
       <c r="D3037" t="s">
-        <v>5841</v>
+        <v>5843</v>
       </c>
       <c r="E3037" t="s">
         <v>8</v>
@@ -70555,10 +69991,10 @@
         <v>5</v>
       </c>
       <c r="C3038" t="s">
-        <v>5842</v>
+        <v>5844</v>
       </c>
       <c r="D3038" t="s">
-        <v>5843</v>
+        <v>5845</v>
       </c>
       <c r="E3038" t="s">
         <v>8</v>
@@ -70572,10 +70008,10 @@
         <v>5</v>
       </c>
       <c r="C3039" t="s">
-        <v>5844</v>
+        <v>5846</v>
       </c>
       <c r="D3039" t="s">
-        <v>5845</v>
+        <v>5847</v>
       </c>
       <c r="E3039" t="s">
         <v>8</v>
@@ -70589,10 +70025,10 @@
         <v>5</v>
       </c>
       <c r="C3040" t="s">
-        <v>5846</v>
+        <v>5848</v>
       </c>
       <c r="D3040" t="s">
-        <v>5847</v>
+        <v>5849</v>
       </c>
       <c r="E3040" t="s">
         <v>8</v>
@@ -70606,10 +70042,10 @@
         <v>5</v>
       </c>
       <c r="C3041" t="s">
-        <v>5848</v>
+        <v>5850</v>
       </c>
       <c r="D3041" t="s">
-        <v>5849</v>
+        <v>5851</v>
       </c>
       <c r="E3041" t="s">
         <v>8</v>
@@ -70623,10 +70059,10 @@
         <v>5</v>
       </c>
       <c r="C3042" t="s">
-        <v>5850</v>
+        <v>5852</v>
       </c>
       <c r="D3042" t="s">
-        <v>5851</v>
+        <v>5853</v>
       </c>
       <c r="E3042" t="s">
         <v>8</v>
@@ -70640,10 +70076,10 @@
         <v>5</v>
       </c>
       <c r="C3043" t="s">
-        <v>5852</v>
+        <v>5854</v>
       </c>
       <c r="D3043" t="s">
-        <v>5853</v>
+        <v>5855</v>
       </c>
       <c r="E3043" t="s">
         <v>8</v>
@@ -70657,10 +70093,10 @@
         <v>5</v>
       </c>
       <c r="C3044" t="s">
-        <v>5854</v>
+        <v>5856</v>
       </c>
       <c r="D3044" t="s">
-        <v>5855</v>
+        <v>5857</v>
       </c>
       <c r="E3044" t="s">
         <v>8</v>
@@ -70674,10 +70110,10 @@
         <v>5</v>
       </c>
       <c r="C3045" t="s">
-        <v>5856</v>
+        <v>5858</v>
       </c>
       <c r="D3045" t="s">
-        <v>5857</v>
+        <v>5859</v>
       </c>
       <c r="E3045" t="s">
         <v>8</v>
@@ -70691,10 +70127,10 @@
         <v>5</v>
       </c>
       <c r="C3046" t="s">
-        <v>5858</v>
+        <v>5860</v>
       </c>
       <c r="D3046" t="s">
-        <v>5859</v>
+        <v>5861</v>
       </c>
       <c r="E3046" t="s">
         <v>8</v>
@@ -70708,10 +70144,10 @@
         <v>5</v>
       </c>
       <c r="C3047" t="s">
-        <v>5860</v>
+        <v>5862</v>
       </c>
       <c r="D3047" t="s">
-        <v>5861</v>
+        <v>5863</v>
       </c>
       <c r="E3047" t="s">
         <v>8</v>
@@ -70725,10 +70161,10 @@
         <v>5</v>
       </c>
       <c r="C3048" t="s">
-        <v>5862</v>
+        <v>5864</v>
       </c>
       <c r="D3048" t="s">
-        <v>3113</v>
+        <v>5865</v>
       </c>
       <c r="E3048" t="s">
         <v>8</v>
@@ -70742,10 +70178,10 @@
         <v>5</v>
       </c>
       <c r="C3049" t="s">
-        <v>5863</v>
+        <v>5866</v>
       </c>
       <c r="D3049" t="s">
-        <v>3107</v>
+        <v>808</v>
       </c>
       <c r="E3049" t="s">
         <v>8</v>
@@ -70759,10 +70195,10 @@
         <v>5</v>
       </c>
       <c r="C3050" t="s">
-        <v>5864</v>
+        <v>5867</v>
       </c>
       <c r="D3050" t="s">
-        <v>5865</v>
+        <v>1745</v>
       </c>
       <c r="E3050" t="s">
         <v>8</v>
@@ -70776,10 +70212,10 @@
         <v>5</v>
       </c>
       <c r="C3051" t="s">
-        <v>5866</v>
+        <v>5868</v>
       </c>
       <c r="D3051" t="s">
-        <v>5867</v>
+        <v>5869</v>
       </c>
       <c r="E3051" t="s">
         <v>8</v>
@@ -70793,10 +70229,10 @@
         <v>5</v>
       </c>
       <c r="C3052" t="s">
-        <v>5868</v>
+        <v>5870</v>
       </c>
       <c r="D3052" t="s">
-        <v>5869</v>
+        <v>5871</v>
       </c>
       <c r="E3052" t="s">
         <v>8</v>
@@ -70810,10 +70246,10 @@
         <v>5</v>
       </c>
       <c r="C3053" t="s">
-        <v>5870</v>
+        <v>5872</v>
       </c>
       <c r="D3053" t="s">
-        <v>5871</v>
+        <v>5873</v>
       </c>
       <c r="E3053" t="s">
         <v>8</v>
@@ -70827,10 +70263,10 @@
         <v>5</v>
       </c>
       <c r="C3054" t="s">
-        <v>5872</v>
+        <v>5874</v>
       </c>
       <c r="D3054" t="s">
-        <v>5873</v>
+        <v>5875</v>
       </c>
       <c r="E3054" t="s">
         <v>8</v>
@@ -70844,7 +70280,7 @@
         <v>5</v>
       </c>
       <c r="C3055" t="s">
-        <v>5874</v>
+        <v>5876</v>
       </c>
       <c r="D3055" t="s">
         <v>2396</v>
@@ -70861,10 +70297,10 @@
         <v>5</v>
       </c>
       <c r="C3056" t="s">
-        <v>5875</v>
+        <v>5877</v>
       </c>
       <c r="D3056" t="s">
-        <v>5876</v>
+        <v>5878</v>
       </c>
       <c r="E3056" t="s">
         <v>8</v>
@@ -70878,10 +70314,10 @@
         <v>5</v>
       </c>
       <c r="C3057" t="s">
-        <v>5877</v>
+        <v>5879</v>
       </c>
       <c r="D3057" t="s">
-        <v>5878</v>
+        <v>5880</v>
       </c>
       <c r="E3057" t="s">
         <v>8</v>
@@ -70895,10 +70331,10 @@
         <v>5</v>
       </c>
       <c r="C3058" t="s">
-        <v>5879</v>
+        <v>5881</v>
       </c>
       <c r="D3058" t="s">
-        <v>5880</v>
+        <v>5882</v>
       </c>
       <c r="E3058" t="s">
         <v>8</v>
@@ -70912,10 +70348,10 @@
         <v>5</v>
       </c>
       <c r="C3059" t="s">
-        <v>5881</v>
+        <v>5883</v>
       </c>
       <c r="D3059" t="s">
-        <v>5882</v>
+        <v>5884</v>
       </c>
       <c r="E3059" t="s">
         <v>8</v>
@@ -70929,10 +70365,10 @@
         <v>5</v>
       </c>
       <c r="C3060" t="s">
-        <v>5883</v>
+        <v>5885</v>
       </c>
       <c r="D3060" t="s">
-        <v>5884</v>
+        <v>5886</v>
       </c>
       <c r="E3060" t="s">
         <v>8</v>
@@ -70946,10 +70382,10 @@
         <v>5</v>
       </c>
       <c r="C3061" t="s">
-        <v>5885</v>
+        <v>5887</v>
       </c>
       <c r="D3061" t="s">
-        <v>5886</v>
+        <v>5888</v>
       </c>
       <c r="E3061" t="s">
         <v>8</v>
@@ -70960,13 +70396,13 @@
         <v>5</v>
       </c>
       <c r="B3062" t="s">
-        <v>5887</v>
+        <v>5889</v>
       </c>
       <c r="C3062" t="s">
-        <v>5888</v>
+        <v>5890</v>
       </c>
       <c r="D3062" t="s">
-        <v>5889</v>
+        <v>5891</v>
       </c>
       <c r="E3062" t="s">
         <v>8</v>
@@ -70980,10 +70416,10 @@
         <v>5</v>
       </c>
       <c r="C3063" t="s">
-        <v>5890</v>
+        <v>5892</v>
       </c>
       <c r="D3063" t="s">
-        <v>5891</v>
+        <v>5893</v>
       </c>
       <c r="E3063" t="s">
         <v>8</v>
@@ -70997,10 +70433,10 @@
         <v>5</v>
       </c>
       <c r="C3064" t="s">
-        <v>5892</v>
+        <v>5894</v>
       </c>
       <c r="D3064" t="s">
-        <v>4478</v>
+        <v>4234</v>
       </c>
       <c r="E3064" t="s">
         <v>8</v>
@@ -71014,10 +70450,10 @@
         <v>5</v>
       </c>
       <c r="C3065" t="s">
-        <v>5893</v>
+        <v>5895</v>
       </c>
       <c r="D3065" t="s">
-        <v>5894</v>
+        <v>5896</v>
       </c>
       <c r="E3065" t="s">
         <v>8</v>
@@ -71031,10 +70467,10 @@
         <v>5</v>
       </c>
       <c r="C3066" t="s">
-        <v>5895</v>
+        <v>5897</v>
       </c>
       <c r="D3066" t="s">
-        <v>5896</v>
+        <v>5898</v>
       </c>
       <c r="E3066" t="s">
         <v>8</v>
@@ -71048,10 +70484,10 @@
         <v>5</v>
       </c>
       <c r="C3067" t="s">
-        <v>5897</v>
+        <v>5899</v>
       </c>
       <c r="D3067" t="s">
-        <v>5898</v>
+        <v>5900</v>
       </c>
       <c r="E3067" t="s">
         <v>8</v>
@@ -71065,10 +70501,10 @@
         <v>5</v>
       </c>
       <c r="C3068" t="s">
-        <v>5899</v>
+        <v>5901</v>
       </c>
       <c r="D3068" t="s">
-        <v>5900</v>
+        <v>5902</v>
       </c>
       <c r="E3068" t="s">
         <v>8</v>
@@ -71082,10 +70518,10 @@
         <v>5</v>
       </c>
       <c r="C3069" t="s">
-        <v>5901</v>
+        <v>5903</v>
       </c>
       <c r="D3069" t="s">
-        <v>5902</v>
+        <v>5904</v>
       </c>
       <c r="E3069" t="s">
         <v>8</v>
@@ -71099,10 +70535,10 @@
         <v>5</v>
       </c>
       <c r="C3070" t="s">
-        <v>5903</v>
+        <v>5905</v>
       </c>
       <c r="D3070" t="s">
-        <v>5904</v>
+        <v>2439</v>
       </c>
       <c r="E3070" t="s">
         <v>8</v>
@@ -71116,10 +70552,10 @@
         <v>5</v>
       </c>
       <c r="C3071" t="s">
-        <v>5905</v>
+        <v>5906</v>
       </c>
       <c r="D3071" t="s">
-        <v>5906</v>
+        <v>5907</v>
       </c>
       <c r="E3071" t="s">
         <v>8</v>
@@ -71133,7 +70569,7 @@
         <v>5</v>
       </c>
       <c r="C3072" t="s">
-        <v>5907</v>
+        <v>5908</v>
       </c>
       <c r="D3072" t="s">
         <v>5908</v>
@@ -71153,7 +70589,7 @@
         <v>5909</v>
       </c>
       <c r="D3073" t="s">
-        <v>5910</v>
+        <v>5909</v>
       </c>
       <c r="E3073" t="s">
         <v>8</v>
@@ -71167,10 +70603,10 @@
         <v>5</v>
       </c>
       <c r="C3074" t="s">
-        <v>5911</v>
+        <v>5910</v>
       </c>
       <c r="D3074" t="s">
-        <v>5912</v>
+        <v>4478</v>
       </c>
       <c r="E3074" t="s">
         <v>8</v>
@@ -71184,10 +70620,10 @@
         <v>5</v>
       </c>
       <c r="C3075" t="s">
-        <v>5913</v>
+        <v>5911</v>
       </c>
       <c r="D3075" t="s">
-        <v>5914</v>
+        <v>1640</v>
       </c>
       <c r="E3075" t="s">
         <v>8</v>
@@ -71201,10 +70637,10 @@
         <v>5</v>
       </c>
       <c r="C3076" t="s">
-        <v>5915</v>
+        <v>5912</v>
       </c>
       <c r="D3076" t="s">
-        <v>5916</v>
+        <v>5913</v>
       </c>
       <c r="E3076" t="s">
         <v>8</v>
@@ -71218,10 +70654,10 @@
         <v>5</v>
       </c>
       <c r="C3077" t="s">
-        <v>5917</v>
+        <v>5914</v>
       </c>
       <c r="D3077" t="s">
-        <v>5918</v>
+        <v>5915</v>
       </c>
       <c r="E3077" t="s">
         <v>8</v>
@@ -71235,10 +70671,10 @@
         <v>5</v>
       </c>
       <c r="C3078" t="s">
-        <v>5919</v>
+        <v>5916</v>
       </c>
       <c r="D3078" t="s">
-        <v>5920</v>
+        <v>5917</v>
       </c>
       <c r="E3078" t="s">
         <v>8</v>
@@ -71252,10 +70688,10 @@
         <v>5</v>
       </c>
       <c r="C3079" t="s">
-        <v>5921</v>
+        <v>5918</v>
       </c>
       <c r="D3079" t="s">
-        <v>5922</v>
+        <v>5919</v>
       </c>
       <c r="E3079" t="s">
         <v>8</v>
@@ -71269,10 +70705,10 @@
         <v>5</v>
       </c>
       <c r="C3080" t="s">
-        <v>5923</v>
+        <v>5920</v>
       </c>
       <c r="D3080" t="s">
-        <v>5924</v>
+        <v>5921</v>
       </c>
       <c r="E3080" t="s">
         <v>8</v>
@@ -71286,10 +70722,10 @@
         <v>5</v>
       </c>
       <c r="C3081" t="s">
-        <v>5925</v>
+        <v>5922</v>
       </c>
       <c r="D3081" t="s">
-        <v>5926</v>
+        <v>5923</v>
       </c>
       <c r="E3081" t="s">
         <v>8</v>
@@ -71303,10 +70739,10 @@
         <v>5</v>
       </c>
       <c r="C3082" t="s">
-        <v>5927</v>
+        <v>5924</v>
       </c>
       <c r="D3082" t="s">
-        <v>5928</v>
+        <v>5925</v>
       </c>
       <c r="E3082" t="s">
         <v>8</v>
@@ -71320,10 +70756,10 @@
         <v>5</v>
       </c>
       <c r="C3083" t="s">
-        <v>5929</v>
+        <v>5926</v>
       </c>
       <c r="D3083" t="s">
-        <v>5930</v>
+        <v>5927</v>
       </c>
       <c r="E3083" t="s">
         <v>8</v>
@@ -71337,10 +70773,10 @@
         <v>5</v>
       </c>
       <c r="C3084" t="s">
-        <v>5931</v>
+        <v>5928</v>
       </c>
       <c r="D3084" t="s">
-        <v>5932</v>
+        <v>5929</v>
       </c>
       <c r="E3084" t="s">
         <v>8</v>
@@ -71354,10 +70790,10 @@
         <v>5</v>
       </c>
       <c r="C3085" t="s">
-        <v>5933</v>
+        <v>5930</v>
       </c>
       <c r="D3085" t="s">
-        <v>5934</v>
+        <v>5931</v>
       </c>
       <c r="E3085" t="s">
         <v>8</v>
@@ -71371,10 +70807,10 @@
         <v>5</v>
       </c>
       <c r="C3086" t="s">
-        <v>5935</v>
+        <v>5932</v>
       </c>
       <c r="D3086" t="s">
-        <v>5936</v>
+        <v>5933</v>
       </c>
       <c r="E3086" t="s">
         <v>8</v>
@@ -71388,10 +70824,10 @@
         <v>5</v>
       </c>
       <c r="C3087" t="s">
-        <v>5937</v>
+        <v>5934</v>
       </c>
       <c r="D3087" t="s">
-        <v>5938</v>
+        <v>5934</v>
       </c>
       <c r="E3087" t="s">
         <v>8</v>
@@ -71405,10 +70841,10 @@
         <v>5</v>
       </c>
       <c r="C3088" t="s">
-        <v>5939</v>
+        <v>5935</v>
       </c>
       <c r="D3088" t="s">
-        <v>5940</v>
+        <v>5936</v>
       </c>
       <c r="E3088" t="s">
         <v>8</v>
@@ -71422,10 +70858,10 @@
         <v>5</v>
       </c>
       <c r="C3089" t="s">
-        <v>5941</v>
+        <v>5937</v>
       </c>
       <c r="D3089" t="s">
-        <v>5942</v>
+        <v>5938</v>
       </c>
       <c r="E3089" t="s">
         <v>8</v>
@@ -71439,10 +70875,10 @@
         <v>5</v>
       </c>
       <c r="C3090" t="s">
-        <v>5943</v>
+        <v>5939</v>
       </c>
       <c r="D3090" t="s">
-        <v>5944</v>
+        <v>5940</v>
       </c>
       <c r="E3090" t="s">
         <v>8</v>
@@ -71456,10 +70892,10 @@
         <v>5</v>
       </c>
       <c r="C3091" t="s">
-        <v>5945</v>
+        <v>5941</v>
       </c>
       <c r="D3091" t="s">
-        <v>5946</v>
+        <v>5942</v>
       </c>
       <c r="E3091" t="s">
         <v>8</v>
@@ -71473,10 +70909,10 @@
         <v>5</v>
       </c>
       <c r="C3092" t="s">
-        <v>5947</v>
+        <v>5943</v>
       </c>
       <c r="D3092" t="s">
-        <v>5948</v>
+        <v>5944</v>
       </c>
       <c r="E3092" t="s">
         <v>8</v>
@@ -71490,10 +70926,10 @@
         <v>5</v>
       </c>
       <c r="C3093" t="s">
-        <v>5949</v>
+        <v>5945</v>
       </c>
       <c r="D3093" t="s">
-        <v>5950</v>
+        <v>5946</v>
       </c>
       <c r="E3093" t="s">
         <v>8</v>
@@ -71507,10 +70943,10 @@
         <v>5</v>
       </c>
       <c r="C3094" t="s">
-        <v>5951</v>
+        <v>5947</v>
       </c>
       <c r="D3094" t="s">
-        <v>5952</v>
+        <v>5947</v>
       </c>
       <c r="E3094" t="s">
         <v>8</v>
@@ -71524,10 +70960,10 @@
         <v>5</v>
       </c>
       <c r="C3095" t="s">
-        <v>5953</v>
+        <v>5948</v>
       </c>
       <c r="D3095" t="s">
-        <v>5954</v>
+        <v>5949</v>
       </c>
       <c r="E3095" t="s">
         <v>8</v>
@@ -71541,10 +70977,10 @@
         <v>5</v>
       </c>
       <c r="C3096" t="s">
-        <v>5955</v>
+        <v>5950</v>
       </c>
       <c r="D3096" t="s">
-        <v>5956</v>
+        <v>5951</v>
       </c>
       <c r="E3096" t="s">
         <v>8</v>
@@ -71558,10 +70994,10 @@
         <v>5</v>
       </c>
       <c r="C3097" t="s">
-        <v>5957</v>
+        <v>5952</v>
       </c>
       <c r="D3097" t="s">
-        <v>5958</v>
+        <v>5953</v>
       </c>
       <c r="E3097" t="s">
         <v>8</v>
@@ -71575,10 +71011,10 @@
         <v>5</v>
       </c>
       <c r="C3098" t="s">
-        <v>5959</v>
+        <v>5954</v>
       </c>
       <c r="D3098" t="s">
-        <v>2201</v>
+        <v>5955</v>
       </c>
       <c r="E3098" t="s">
         <v>8</v>
@@ -71592,10 +71028,10 @@
         <v>5</v>
       </c>
       <c r="C3099" t="s">
-        <v>5960</v>
+        <v>5956</v>
       </c>
       <c r="D3099" t="s">
-        <v>5961</v>
+        <v>5957</v>
       </c>
       <c r="E3099" t="s">
         <v>8</v>
@@ -71609,10 +71045,10 @@
         <v>5</v>
       </c>
       <c r="C3100" t="s">
-        <v>5962</v>
+        <v>5958</v>
       </c>
       <c r="D3100" t="s">
-        <v>5963</v>
+        <v>5959</v>
       </c>
       <c r="E3100" t="s">
         <v>8</v>
@@ -71626,10 +71062,10 @@
         <v>5</v>
       </c>
       <c r="C3101" t="s">
-        <v>5964</v>
+        <v>5960</v>
       </c>
       <c r="D3101" t="s">
-        <v>5965</v>
+        <v>1498</v>
       </c>
       <c r="E3101" t="s">
         <v>8</v>
@@ -71643,10 +71079,10 @@
         <v>5</v>
       </c>
       <c r="C3102" t="s">
-        <v>5966</v>
+        <v>5961</v>
       </c>
       <c r="D3102" t="s">
-        <v>5967</v>
+        <v>5962</v>
       </c>
       <c r="E3102" t="s">
         <v>8</v>
@@ -71660,10 +71096,10 @@
         <v>5</v>
       </c>
       <c r="C3103" t="s">
-        <v>5968</v>
+        <v>5963</v>
       </c>
       <c r="D3103" t="s">
-        <v>5969</v>
+        <v>5964</v>
       </c>
       <c r="E3103" t="s">
         <v>8</v>
@@ -71677,10 +71113,10 @@
         <v>5</v>
       </c>
       <c r="C3104" t="s">
-        <v>5970</v>
+        <v>5965</v>
       </c>
       <c r="D3104" t="s">
-        <v>5971</v>
+        <v>5966</v>
       </c>
       <c r="E3104" t="s">
         <v>8</v>
@@ -71694,10 +71130,10 @@
         <v>5</v>
       </c>
       <c r="C3105" t="s">
-        <v>5972</v>
+        <v>5967</v>
       </c>
       <c r="D3105" t="s">
-        <v>5973</v>
+        <v>5968</v>
       </c>
       <c r="E3105" t="s">
         <v>8</v>
@@ -71711,10 +71147,10 @@
         <v>5</v>
       </c>
       <c r="C3106" t="s">
-        <v>5974</v>
+        <v>5969</v>
       </c>
       <c r="D3106" t="s">
-        <v>5975</v>
+        <v>5970</v>
       </c>
       <c r="E3106" t="s">
         <v>8</v>
@@ -71728,10 +71164,10 @@
         <v>5</v>
       </c>
       <c r="C3107" t="s">
-        <v>5976</v>
+        <v>5971</v>
       </c>
       <c r="D3107" t="s">
-        <v>5977</v>
+        <v>5972</v>
       </c>
       <c r="E3107" t="s">
         <v>8</v>
@@ -71745,10 +71181,10 @@
         <v>5</v>
       </c>
       <c r="C3108" t="s">
-        <v>5978</v>
+        <v>5973</v>
       </c>
       <c r="D3108" t="s">
-        <v>5979</v>
+        <v>5974</v>
       </c>
       <c r="E3108" t="s">
         <v>8</v>
@@ -71761,11 +71197,11 @@
       <c r="B3109" t="s">
         <v>5</v>
       </c>
-      <c r="C3109" t="s">
-        <v>5980</v>
-      </c>
-      <c r="D3109" t="s">
-        <v>5981</v>
+      <c r="C3109">
+        <v>404</v>
+      </c>
+      <c r="D3109">
+        <v>404</v>
       </c>
       <c r="E3109" t="s">
         <v>8</v>
@@ -71778,11 +71214,11 @@
       <c r="B3110" t="s">
         <v>5</v>
       </c>
-      <c r="C3110">
-        <v>404</v>
-      </c>
-      <c r="D3110">
-        <v>404</v>
+      <c r="C3110" t="s">
+        <v>5975</v>
+      </c>
+      <c r="D3110" t="s">
+        <v>5976</v>
       </c>
       <c r="E3110" t="s">
         <v>8</v>
@@ -71796,10 +71232,10 @@
         <v>5</v>
       </c>
       <c r="C3111" t="s">
-        <v>5982</v>
+        <v>5977</v>
       </c>
       <c r="D3111" t="s">
-        <v>5982</v>
+        <v>5978</v>
       </c>
       <c r="E3111" t="s">
         <v>8</v>
@@ -71813,10 +71249,10 @@
         <v>5</v>
       </c>
       <c r="C3112" t="s">
-        <v>5983</v>
+        <v>5979</v>
       </c>
       <c r="D3112" t="s">
-        <v>5983</v>
+        <v>5980</v>
       </c>
       <c r="E3112" t="s">
         <v>8</v>
@@ -71830,10 +71266,10 @@
         <v>5</v>
       </c>
       <c r="C3113" t="s">
-        <v>5984</v>
+        <v>5981</v>
       </c>
       <c r="D3113" t="s">
-        <v>5985</v>
+        <v>5982</v>
       </c>
       <c r="E3113" t="s">
         <v>8</v>
@@ -71847,10 +71283,10 @@
         <v>5</v>
       </c>
       <c r="C3114" t="s">
-        <v>5986</v>
+        <v>5983</v>
       </c>
       <c r="D3114" t="s">
-        <v>5987</v>
+        <v>5984</v>
       </c>
       <c r="E3114" t="s">
         <v>8</v>
@@ -71864,10 +71300,10 @@
         <v>5</v>
       </c>
       <c r="C3115" t="s">
-        <v>5988</v>
+        <v>5985</v>
       </c>
       <c r="D3115" t="s">
-        <v>5989</v>
+        <v>5986</v>
       </c>
       <c r="E3115" t="s">
         <v>8</v>
@@ -71881,10 +71317,10 @@
         <v>5</v>
       </c>
       <c r="C3116" t="s">
-        <v>5990</v>
+        <v>5987</v>
       </c>
       <c r="D3116" t="s">
-        <v>5991</v>
+        <v>5987</v>
       </c>
       <c r="E3116" t="s">
         <v>8</v>
@@ -71898,10 +71334,10 @@
         <v>5</v>
       </c>
       <c r="C3117" t="s">
-        <v>5992</v>
+        <v>5988</v>
       </c>
       <c r="D3117" t="s">
-        <v>5993</v>
+        <v>5989</v>
       </c>
       <c r="E3117" t="s">
         <v>8</v>
@@ -71915,10 +71351,10 @@
         <v>5</v>
       </c>
       <c r="C3118" t="s">
-        <v>5994</v>
+        <v>5990</v>
       </c>
       <c r="D3118" t="s">
-        <v>5995</v>
+        <v>5991</v>
       </c>
       <c r="E3118" t="s">
         <v>8</v>
@@ -71932,1678 +71368,12 @@
         <v>5</v>
       </c>
       <c r="C3119" t="s">
-        <v>5996</v>
+        <v>5992</v>
       </c>
       <c r="D3119" t="s">
-        <v>5997</v>
+        <v>5993</v>
       </c>
       <c r="E3119" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3120" spans="1:5">
-      <c r="A3120" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3120" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3120" t="s">
-        <v>5998</v>
-      </c>
-      <c r="D3120" t="s">
-        <v>5999</v>
-      </c>
-      <c r="E3120" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3121" spans="1:5">
-      <c r="A3121" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3121" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3121" t="s">
-        <v>6000</v>
-      </c>
-      <c r="D3121" t="s">
-        <v>6001</v>
-      </c>
-      <c r="E3121" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3122" spans="1:5">
-      <c r="A3122" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3122" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3122" t="s">
-        <v>6002</v>
-      </c>
-      <c r="D3122" t="s">
-        <v>6003</v>
-      </c>
-      <c r="E3122" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3123" spans="1:5">
-      <c r="A3123" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3123" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3123" t="s">
-        <v>6004</v>
-      </c>
-      <c r="D3123" t="s">
-        <v>6005</v>
-      </c>
-      <c r="E3123" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3124" spans="1:5">
-      <c r="A3124" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3124" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3124" t="s">
-        <v>6006</v>
-      </c>
-      <c r="D3124" t="s">
-        <v>6007</v>
-      </c>
-      <c r="E3124" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3125" spans="1:5">
-      <c r="A3125" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3125" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3125" t="s">
-        <v>6008</v>
-      </c>
-      <c r="D3125" t="s">
-        <v>6009</v>
-      </c>
-      <c r="E3125" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3126" spans="1:5">
-      <c r="A3126" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3126" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3126" t="s">
-        <v>6010</v>
-      </c>
-      <c r="D3126" t="s">
-        <v>6011</v>
-      </c>
-      <c r="E3126" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3127" spans="1:5">
-      <c r="A3127" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3127" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3127" t="s">
-        <v>6012</v>
-      </c>
-      <c r="D3127" t="s">
-        <v>6013</v>
-      </c>
-      <c r="E3127" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3128" spans="1:5">
-      <c r="A3128" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3128" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3128" t="s">
-        <v>6014</v>
-      </c>
-      <c r="D3128" t="s">
-        <v>6014</v>
-      </c>
-      <c r="E3128" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3129" spans="1:5">
-      <c r="A3129" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3129" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3129" t="s">
-        <v>6015</v>
-      </c>
-      <c r="D3129" t="s">
-        <v>6016</v>
-      </c>
-      <c r="E3129" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3130" spans="1:5">
-      <c r="A3130" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3130" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3130" t="s">
-        <v>6017</v>
-      </c>
-      <c r="D3130" t="s">
-        <v>6018</v>
-      </c>
-      <c r="E3130" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3131" spans="1:5">
-      <c r="A3131" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3131" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3131" t="s">
-        <v>6019</v>
-      </c>
-      <c r="D3131" t="s">
-        <v>6020</v>
-      </c>
-      <c r="E3131" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3132" spans="1:5">
-      <c r="A3132" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3132" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3132" t="s">
-        <v>6021</v>
-      </c>
-      <c r="D3132" t="s">
-        <v>6022</v>
-      </c>
-      <c r="E3132" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3133" spans="1:5">
-      <c r="A3133" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3133" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3133" t="s">
-        <v>6023</v>
-      </c>
-      <c r="D3133" t="s">
-        <v>6024</v>
-      </c>
-      <c r="E3133" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3134" spans="1:5">
-      <c r="A3134" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3134" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3134" t="s">
-        <v>6025</v>
-      </c>
-      <c r="D3134" t="s">
-        <v>6025</v>
-      </c>
-      <c r="E3134" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3135" spans="1:5">
-      <c r="A3135" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3135" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3135" t="s">
-        <v>6026</v>
-      </c>
-      <c r="D3135" t="s">
-        <v>6027</v>
-      </c>
-      <c r="E3135" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3136" spans="1:5">
-      <c r="A3136" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3136" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3136" t="s">
-        <v>6028</v>
-      </c>
-      <c r="D3136" t="s">
-        <v>6029</v>
-      </c>
-      <c r="E3136" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3137" spans="1:5">
-      <c r="A3137" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3137" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3137" t="s">
-        <v>6030</v>
-      </c>
-      <c r="D3137" t="s">
-        <v>6031</v>
-      </c>
-      <c r="E3137" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3138" spans="1:5">
-      <c r="A3138" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3138" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3138" t="s">
-        <v>6032</v>
-      </c>
-      <c r="D3138" t="s">
-        <v>6032</v>
-      </c>
-      <c r="E3138" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3139" spans="1:5">
-      <c r="A3139" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3139" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3139" t="s">
-        <v>6033</v>
-      </c>
-      <c r="D3139" t="s">
-        <v>6034</v>
-      </c>
-      <c r="E3139" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3140" spans="1:5">
-      <c r="A3140" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3140" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3140" t="s">
-        <v>6035</v>
-      </c>
-      <c r="D3140" t="s">
-        <v>6036</v>
-      </c>
-      <c r="E3140" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3141" spans="1:5">
-      <c r="A3141" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3141" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3141" t="s">
-        <v>6037</v>
-      </c>
-      <c r="D3141" t="s">
-        <v>6038</v>
-      </c>
-      <c r="E3141" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3142" spans="1:5">
-      <c r="A3142" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3142" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3142" t="s">
-        <v>6039</v>
-      </c>
-      <c r="D3142" t="s">
-        <v>6040</v>
-      </c>
-      <c r="E3142" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3143" spans="1:5">
-      <c r="A3143" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3143" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3143" t="s">
-        <v>6041</v>
-      </c>
-      <c r="D3143" t="s">
-        <v>6042</v>
-      </c>
-      <c r="E3143" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3144" spans="1:5">
-      <c r="A3144" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3144" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3144" t="s">
-        <v>6043</v>
-      </c>
-      <c r="D3144" t="s">
-        <v>6044</v>
-      </c>
-      <c r="E3144" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3145" spans="1:5">
-      <c r="A3145" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3145" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3145" t="s">
-        <v>6045</v>
-      </c>
-      <c r="D3145" t="s">
-        <v>6046</v>
-      </c>
-      <c r="E3145" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3146" spans="1:5">
-      <c r="A3146" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3146" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3146" t="s">
-        <v>6047</v>
-      </c>
-      <c r="D3146" t="s">
-        <v>6048</v>
-      </c>
-      <c r="E3146" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3147" spans="1:5">
-      <c r="A3147" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3147" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3147" t="s">
-        <v>6049</v>
-      </c>
-      <c r="D3147" t="s">
-        <v>6050</v>
-      </c>
-      <c r="E3147" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3148" spans="1:5">
-      <c r="A3148" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3148" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3148" t="s">
-        <v>6051</v>
-      </c>
-      <c r="D3148" t="s">
-        <v>2714</v>
-      </c>
-      <c r="E3148" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3149" spans="1:5">
-      <c r="A3149" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3149" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3149" t="s">
-        <v>6052</v>
-      </c>
-      <c r="D3149" t="s">
-        <v>6053</v>
-      </c>
-      <c r="E3149" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3150" spans="1:5">
-      <c r="A3150" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3150" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3150" t="s">
-        <v>6054</v>
-      </c>
-      <c r="D3150" t="s">
-        <v>6055</v>
-      </c>
-      <c r="E3150" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3151" spans="1:5">
-      <c r="A3151" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3151" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3151" t="s">
-        <v>6056</v>
-      </c>
-      <c r="D3151" t="s">
-        <v>6057</v>
-      </c>
-      <c r="E3151" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3152" spans="1:5">
-      <c r="A3152" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3152" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3152" t="s">
-        <v>6058</v>
-      </c>
-      <c r="D3152" t="s">
-        <v>6059</v>
-      </c>
-      <c r="E3152" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3153" spans="1:5">
-      <c r="A3153" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3153" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3153" t="s">
-        <v>6060</v>
-      </c>
-      <c r="D3153" t="s">
-        <v>6061</v>
-      </c>
-      <c r="E3153" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3154" spans="1:5">
-      <c r="A3154" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3154" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3154" t="s">
-        <v>6062</v>
-      </c>
-      <c r="D3154" t="s">
-        <v>6063</v>
-      </c>
-      <c r="E3154" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3155" spans="1:5">
-      <c r="A3155" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3155" t="s">
-        <v>6064</v>
-      </c>
-      <c r="C3155" t="s">
-        <v>6065</v>
-      </c>
-      <c r="D3155" t="s">
-        <v>6066</v>
-      </c>
-      <c r="E3155" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3156" spans="1:5">
-      <c r="A3156" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3156" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3156" t="s">
-        <v>6067</v>
-      </c>
-      <c r="D3156" t="s">
-        <v>6068</v>
-      </c>
-      <c r="E3156" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3157" spans="1:5">
-      <c r="A3157" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3157" t="s">
-        <v>5887</v>
-      </c>
-      <c r="C3157" t="s">
-        <v>6069</v>
-      </c>
-      <c r="D3157" t="s">
-        <v>6070</v>
-      </c>
-      <c r="E3157" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3158" spans="1:5">
-      <c r="A3158" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3158" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3158" t="s">
-        <v>6071</v>
-      </c>
-      <c r="D3158" t="s">
-        <v>6072</v>
-      </c>
-      <c r="E3158" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3159" spans="1:5">
-      <c r="A3159" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3159" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3159" t="s">
-        <v>6073</v>
-      </c>
-      <c r="D3159" t="s">
-        <v>6073</v>
-      </c>
-      <c r="E3159" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3160" spans="1:5">
-      <c r="A3160" t="s">
-        <v>6074</v>
-      </c>
-      <c r="B3160" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3160" t="s">
-        <v>6075</v>
-      </c>
-      <c r="D3160" t="s">
-        <v>6075</v>
-      </c>
-      <c r="E3160" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3161" spans="1:5">
-      <c r="A3161" t="s">
-        <v>6074</v>
-      </c>
-      <c r="B3161" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3161" t="s">
-        <v>6076</v>
-      </c>
-      <c r="D3161" t="s">
-        <v>6076</v>
-      </c>
-      <c r="E3161" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3162" spans="1:5">
-      <c r="A3162" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3162" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3162" t="s">
-        <v>6077</v>
-      </c>
-      <c r="D3162" t="s">
-        <v>6077</v>
-      </c>
-      <c r="E3162" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3163" spans="1:5">
-      <c r="A3163" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3163" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3163" t="s">
-        <v>6078</v>
-      </c>
-      <c r="D3163" t="s">
-        <v>6078</v>
-      </c>
-      <c r="E3163" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3164" spans="1:5">
-      <c r="A3164" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3164" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3164" t="s">
-        <v>6079</v>
-      </c>
-      <c r="D3164" t="s">
-        <v>6080</v>
-      </c>
-      <c r="E3164" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3165" spans="1:5">
-      <c r="A3165" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3165" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3165" t="s">
-        <v>6081</v>
-      </c>
-      <c r="D3165" t="s">
-        <v>6081</v>
-      </c>
-      <c r="E3165" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3166" spans="1:5">
-      <c r="A3166" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3166" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3166" t="s">
-        <v>6082</v>
-      </c>
-      <c r="D3166" t="s">
-        <v>6083</v>
-      </c>
-      <c r="E3166" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3167" spans="1:5">
-      <c r="A3167" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3167" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3167" t="s">
-        <v>6084</v>
-      </c>
-      <c r="D3167" t="s">
-        <v>2629</v>
-      </c>
-      <c r="E3167" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3168" spans="1:5">
-      <c r="A3168" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3168" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3168" t="s">
-        <v>6085</v>
-      </c>
-      <c r="D3168" t="s">
-        <v>6086</v>
-      </c>
-      <c r="E3168" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3169" spans="1:5">
-      <c r="A3169" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3169" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3169" t="s">
-        <v>6087</v>
-      </c>
-      <c r="D3169" t="s">
-        <v>6088</v>
-      </c>
-      <c r="E3169" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3170" spans="1:5">
-      <c r="A3170" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3170" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3170" t="s">
-        <v>6089</v>
-      </c>
-      <c r="D3170" t="s">
-        <v>6090</v>
-      </c>
-      <c r="E3170" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3171" spans="1:5">
-      <c r="A3171" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3171" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3171" t="s">
-        <v>6091</v>
-      </c>
-      <c r="D3171" t="s">
-        <v>6092</v>
-      </c>
-      <c r="E3171" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3172" spans="1:5">
-      <c r="A3172" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3172" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3172" t="s">
-        <v>6093</v>
-      </c>
-      <c r="D3172" t="s">
-        <v>6094</v>
-      </c>
-      <c r="E3172" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3173" spans="1:5">
-      <c r="A3173" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3173" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3173" t="s">
-        <v>6095</v>
-      </c>
-      <c r="D3173" t="s">
-        <v>1616</v>
-      </c>
-      <c r="E3173" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3174" spans="1:5">
-      <c r="A3174" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3174" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3174" t="s">
-        <v>6096</v>
-      </c>
-      <c r="D3174" t="s">
-        <v>6097</v>
-      </c>
-      <c r="E3174" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3175" spans="1:5">
-      <c r="A3175" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3175" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3175" t="s">
-        <v>6098</v>
-      </c>
-      <c r="D3175" t="s">
-        <v>6099</v>
-      </c>
-      <c r="E3175" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3176" spans="1:5">
-      <c r="A3176" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3176" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3176" t="s">
-        <v>6100</v>
-      </c>
-      <c r="D3176" t="s">
-        <v>6101</v>
-      </c>
-      <c r="E3176" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3177" spans="1:5">
-      <c r="A3177" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3177" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3177" t="s">
-        <v>6102</v>
-      </c>
-      <c r="D3177" t="s">
-        <v>6103</v>
-      </c>
-      <c r="E3177" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3178" spans="1:5">
-      <c r="A3178" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3178" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3178" t="s">
-        <v>6104</v>
-      </c>
-      <c r="D3178" t="s">
-        <v>6105</v>
-      </c>
-      <c r="E3178" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3179" spans="1:5">
-      <c r="A3179" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3179" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3179" t="s">
-        <v>6106</v>
-      </c>
-      <c r="D3179" t="s">
-        <v>6107</v>
-      </c>
-      <c r="E3179" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3180" spans="1:5">
-      <c r="A3180" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3180" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3180" t="s">
-        <v>6108</v>
-      </c>
-      <c r="D3180" t="s">
-        <v>6109</v>
-      </c>
-      <c r="E3180" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3181" spans="1:5">
-      <c r="A3181" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3181" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3181" t="s">
-        <v>6110</v>
-      </c>
-      <c r="D3181" t="s">
-        <v>1798</v>
-      </c>
-      <c r="E3181" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3182" spans="1:5">
-      <c r="A3182" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3182" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3182" t="s">
-        <v>6111</v>
-      </c>
-      <c r="D3182" t="s">
-        <v>6112</v>
-      </c>
-      <c r="E3182" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3183" spans="1:5">
-      <c r="A3183" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3183" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3183" t="s">
-        <v>6113</v>
-      </c>
-      <c r="D3183" t="s">
-        <v>6114</v>
-      </c>
-      <c r="E3183" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3184" spans="1:5">
-      <c r="A3184" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3184" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3184" t="s">
-        <v>6115</v>
-      </c>
-      <c r="D3184" t="s">
-        <v>6116</v>
-      </c>
-      <c r="E3184" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3185" spans="1:5">
-      <c r="A3185" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3185" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3185" t="s">
-        <v>6117</v>
-      </c>
-      <c r="D3185" t="s">
-        <v>6118</v>
-      </c>
-      <c r="E3185" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3186" spans="1:5">
-      <c r="A3186" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3186" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3186" t="s">
-        <v>6119</v>
-      </c>
-      <c r="D3186" t="s">
-        <v>6120</v>
-      </c>
-      <c r="E3186" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3187" spans="1:5">
-      <c r="A3187" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3187" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3187" t="s">
-        <v>6121</v>
-      </c>
-      <c r="D3187" t="s">
-        <v>6122</v>
-      </c>
-      <c r="E3187" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3188" spans="1:5">
-      <c r="A3188" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3188" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3188" t="s">
-        <v>6123</v>
-      </c>
-      <c r="D3188" t="s">
-        <v>6124</v>
-      </c>
-      <c r="E3188" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3189" spans="1:5">
-      <c r="A3189" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3189" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3189" t="s">
-        <v>6125</v>
-      </c>
-      <c r="D3189" t="s">
-        <v>6126</v>
-      </c>
-      <c r="E3189" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3190" spans="1:5">
-      <c r="A3190" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3190" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3190" t="s">
-        <v>6127</v>
-      </c>
-      <c r="D3190" t="s">
-        <v>6128</v>
-      </c>
-      <c r="E3190" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3191" spans="1:5">
-      <c r="A3191" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3191" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3191" t="s">
-        <v>6129</v>
-      </c>
-      <c r="D3191" t="s">
-        <v>3945</v>
-      </c>
-      <c r="E3191" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3192" spans="1:5">
-      <c r="A3192" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3192" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3192" t="s">
-        <v>6130</v>
-      </c>
-      <c r="D3192" t="s">
-        <v>6131</v>
-      </c>
-      <c r="E3192" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3193" spans="1:5">
-      <c r="A3193" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3193" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3193" t="s">
-        <v>6132</v>
-      </c>
-      <c r="D3193" t="s">
-        <v>6133</v>
-      </c>
-      <c r="E3193" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3194" spans="1:5">
-      <c r="A3194" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3194" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3194" t="s">
-        <v>6134</v>
-      </c>
-      <c r="D3194" t="s">
-        <v>6135</v>
-      </c>
-      <c r="E3194" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3195" spans="1:5">
-      <c r="A3195" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3195" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3195" t="s">
-        <v>6136</v>
-      </c>
-      <c r="D3195" t="s">
-        <v>6137</v>
-      </c>
-      <c r="E3195" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3196" spans="1:5">
-      <c r="A3196" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3196" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3196" t="s">
-        <v>6138</v>
-      </c>
-      <c r="D3196" t="s">
-        <v>6139</v>
-      </c>
-      <c r="E3196" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3197" spans="1:5">
-      <c r="A3197" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3197" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3197" t="s">
-        <v>6140</v>
-      </c>
-      <c r="D3197" t="s">
-        <v>6141</v>
-      </c>
-      <c r="E3197" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3198" spans="1:5">
-      <c r="A3198" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3198" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3198" t="s">
-        <v>6142</v>
-      </c>
-      <c r="D3198" t="s">
-        <v>6143</v>
-      </c>
-      <c r="E3198" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3199" spans="1:5">
-      <c r="A3199" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3199" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3199" t="s">
-        <v>6144</v>
-      </c>
-      <c r="D3199" t="s">
-        <v>6145</v>
-      </c>
-      <c r="E3199" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3200" spans="1:5">
-      <c r="A3200" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3200" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3200" t="s">
-        <v>6146</v>
-      </c>
-      <c r="D3200" t="s">
-        <v>6147</v>
-      </c>
-      <c r="E3200" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3201" spans="1:5">
-      <c r="A3201" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3201" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3201" t="s">
-        <v>6148</v>
-      </c>
-      <c r="D3201" t="s">
-        <v>6149</v>
-      </c>
-      <c r="E3201" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3202" spans="1:5">
-      <c r="A3202" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3202" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3202" t="s">
-        <v>6150</v>
-      </c>
-      <c r="D3202" t="s">
-        <v>6151</v>
-      </c>
-      <c r="E3202" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3203" spans="1:5">
-      <c r="A3203" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3203" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3203" t="s">
-        <v>6152</v>
-      </c>
-      <c r="D3203" t="s">
-        <v>6153</v>
-      </c>
-      <c r="E3203" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3204" spans="1:5">
-      <c r="A3204" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3204" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3204" t="s">
-        <v>6154</v>
-      </c>
-      <c r="D3204" t="s">
-        <v>6155</v>
-      </c>
-      <c r="E3204" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3205" spans="1:5">
-      <c r="A3205" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3205" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3205" t="s">
-        <v>6156</v>
-      </c>
-      <c r="D3205" t="s">
-        <v>6157</v>
-      </c>
-      <c r="E3205" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3206" spans="1:5">
-      <c r="A3206" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3206" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3206" t="s">
-        <v>6158</v>
-      </c>
-      <c r="D3206" t="s">
-        <v>6159</v>
-      </c>
-      <c r="E3206" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3207" spans="1:5">
-      <c r="A3207" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3207" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3207" t="s">
-        <v>6160</v>
-      </c>
-      <c r="D3207" t="s">
-        <v>6161</v>
-      </c>
-      <c r="E3207" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3208" spans="1:5">
-      <c r="A3208" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3208" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3208" t="s">
-        <v>6162</v>
-      </c>
-      <c r="D3208" t="s">
-        <v>6163</v>
-      </c>
-      <c r="E3208" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3209" spans="1:5">
-      <c r="A3209" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3209" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3209" t="s">
-        <v>6164</v>
-      </c>
-      <c r="D3209" t="s">
-        <v>6165</v>
-      </c>
-      <c r="E3209" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3210" spans="1:5">
-      <c r="A3210" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3210" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3210" t="s">
-        <v>6166</v>
-      </c>
-      <c r="D3210" t="s">
-        <v>6167</v>
-      </c>
-      <c r="E3210" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3211" spans="1:5">
-      <c r="A3211" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3211" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3211" t="s">
-        <v>6168</v>
-      </c>
-      <c r="D3211" t="s">
-        <v>6169</v>
-      </c>
-      <c r="E3211" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3212" spans="1:5">
-      <c r="A3212" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3212" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3212" t="s">
-        <v>6170</v>
-      </c>
-      <c r="D3212" t="s">
-        <v>6171</v>
-      </c>
-      <c r="E3212" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3213" spans="1:5">
-      <c r="A3213" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3213" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3213" t="s">
-        <v>6172</v>
-      </c>
-      <c r="D3213" t="s">
-        <v>6173</v>
-      </c>
-      <c r="E3213" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3214" spans="1:5">
-      <c r="A3214" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3214" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3214" t="s">
-        <v>6174</v>
-      </c>
-      <c r="D3214" t="s">
-        <v>6175</v>
-      </c>
-      <c r="E3214" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3215" spans="1:5">
-      <c r="A3215" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3215" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3215" t="s">
-        <v>6176</v>
-      </c>
-      <c r="D3215" t="s">
-        <v>6177</v>
-      </c>
-      <c r="E3215" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3216" spans="1:5">
-      <c r="A3216" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3216" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3216" t="s">
-        <v>6178</v>
-      </c>
-      <c r="D3216" t="s">
-        <v>6179</v>
-      </c>
-      <c r="E3216" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3217" spans="1:5">
-      <c r="A3217" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3217" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3217" t="s">
-        <v>6180</v>
-      </c>
-      <c r="D3217" t="s">
-        <v>6181</v>
-      </c>
-      <c r="E3217" t="s">
         <v>8</v>
       </c>
     </row>
